--- a/data/out.targets.7.filtered.10000.all.pks.nrps.unique.xlsx
+++ b/data/out.targets.7.filtered.10000.all.pks.nrps.unique.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="-1060" windowWidth="24240" windowHeight="14980" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24800" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="out.targets.7.filtered.10000.al" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="522">
   <si>
     <t>mupM_Isoleucyl_tRNA_synthetase_mupirocin</t>
   </si>
@@ -1536,9 +1536,6 @@
     <t>no</t>
   </si>
   <si>
-    <t xml:space="preserve">check hits later, don't look promising because of low identity, all match to MSF </t>
-  </si>
-  <si>
     <t>file:///Users/gvandova/TargetMining/Antismash_gbids/antismash_output/HG964446/index.html#cluster-8</t>
   </si>
   <si>
@@ -1552,13 +1549,49 @@
   </si>
   <si>
     <t>no, too big</t>
+  </si>
+  <si>
+    <t>probably no</t>
+  </si>
+  <si>
+    <t>maybe yes?</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>clarexpoxcin homolog</t>
+  </si>
+  <si>
+    <t>salinosporamide</t>
+  </si>
+  <si>
+    <t>salinosporamide homolog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">probably not </t>
+  </si>
+  <si>
+    <t xml:space="preserve">check proteobacterail hits first, the rest later, don't look promising because of low identity, all match to MSF </t>
+  </si>
+  <si>
+    <t>homologo to NZ_LMDM01000011</t>
+  </si>
+  <si>
+    <t>homolog to CP005929</t>
+  </si>
+  <si>
+    <t>maybe not</t>
+  </si>
+  <si>
+    <t>Updated Nov-14-2016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1595,8 +1628,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF013F68"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1615,6 +1653,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5D7F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1625,7 +1669,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="99">
+  <cellStyleXfs count="337">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1725,8 +1769,246 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1739,8 +2021,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="99">
+  <cellStyles count="337">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1790,6 +2077,125 @@
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1839,6 +2245,125 @@
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2168,18 +2693,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K218"/>
+  <dimension ref="A1:K214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>521</v>
+      </c>
+    </row>
     <row r="2" spans="1:11" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>92</v>
@@ -2398,7 +2928,7 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2412,88 +2942,90 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>192</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>193</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>2.0000000000000001E-10</v>
+        <v>3E-9</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>118</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>423</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>424</v>
       </c>
       <c r="G12">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="H12" s="1">
-        <v>8.9999999999999995E-9</v>
+        <v>6E-9</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>9</v>
       </c>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" s="6" customFormat="1">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>382</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>383</v>
       </c>
       <c r="G13">
-        <v>0.14000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H13" s="1">
-        <v>5.0000000000000001E-9</v>
+        <v>6.9999999999999996E-10</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>118</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="6" customFormat="1">
@@ -2501,29 +3033,29 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>462</v>
+        <v>286</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>463</v>
+        <v>287</v>
       </c>
       <c r="G14">
-        <v>0.14000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="H14" s="1">
-        <v>2.9999999999999998E-15</v>
+        <v>4.0000000000000002E-9</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>118</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="6" customFormat="1">
@@ -2531,29 +3063,29 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>457</v>
+        <v>345</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>458</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>459</v>
+        <v>346</v>
       </c>
       <c r="G15">
-        <v>0.14000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H15" s="1">
-        <v>9.9999999999999994E-12</v>
+        <v>2.0000000000000001E-9</v>
       </c>
       <c r="I15">
         <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>188</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="2" customFormat="1">
@@ -2561,110 +3093,114 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>439</v>
+        <v>141</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="F16" t="s">
-        <v>440</v>
+        <v>143</v>
       </c>
       <c r="G16">
-        <v>0.14000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="H16" s="1">
-        <v>4E-14</v>
+        <v>4.9999999999999997E-12</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="6" customFormat="1">
+        <v>144</v>
+      </c>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" s="6" customFormat="1">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>464</v>
+        <v>192</v>
       </c>
       <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17"/>
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>504</v>
+      </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>465</v>
+        <v>193</v>
       </c>
       <c r="G17">
-        <v>0.14000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="H17" s="1">
-        <v>3.9999999999999999E-12</v>
+        <v>2.0000000000000001E-10</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="6" customFormat="1">
+        <v>118</v>
+      </c>
+      <c r="K17"/>
+    </row>
+    <row r="18" spans="1:11" s="6" customFormat="1">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>464</v>
+        <v>242</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>465</v>
+        <v>243</v>
       </c>
       <c r="G18">
-        <v>0.14000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="H18" s="1">
-        <v>3.9999999999999999E-12</v>
+        <v>1E-10</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="6" customFormat="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="6" customFormat="1">
       <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>334</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
       <c r="G19">
-        <v>0.14000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="H19" s="1">
         <v>3E-9</v>
@@ -2673,345 +3209,350 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="6" customFormat="1">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>246</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20"/>
-      <c r="E20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" t="s">
-        <v>247</v>
-      </c>
-      <c r="G20">
-        <v>0.13</v>
-      </c>
-      <c r="H20" s="1">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="16" customFormat="1">
+      <c r="A20" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="14">
+        <v>3</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="H20" s="15">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="6" customFormat="1">
+      <c r="I20" s="14">
+        <v>1</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="6" customFormat="1">
       <c r="A21" t="s">
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>473</v>
+        <v>166</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>474</v>
+        <v>167</v>
       </c>
       <c r="G21">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="H21" s="1">
-        <v>5.0000000000000001E-9</v>
+        <v>8.0000000000000003E-10</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="6" customFormat="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="6" customFormat="1">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>423</v>
+        <v>268</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>424</v>
+        <v>269</v>
       </c>
       <c r="G22">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="H22" s="1">
-        <v>6E-9</v>
+        <v>2.0000000000000001E-10</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="6" customFormat="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="6" customFormat="1">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>166</v>
+        <v>292</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
         <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>167</v>
+        <v>293</v>
       </c>
       <c r="G23">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H23" s="1">
-        <v>8.0000000000000003E-10</v>
+        <v>6E-11</v>
       </c>
       <c r="I23">
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="6" customFormat="1">
+        <v>294</v>
+      </c>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" s="6" customFormat="1">
       <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>268</v>
+        <v>166</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
         <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="G24">
         <v>0.12</v>
       </c>
       <c r="H24" s="1">
-        <v>2.0000000000000001E-10</v>
+        <v>2E-12</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="6" customFormat="1">
+    <row r="25" spans="1:11" s="6" customFormat="1">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
         <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>313</v>
+        <v>15</v>
       </c>
       <c r="G25">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="H25" s="1">
-        <v>2E-12</v>
+        <v>6E-9</v>
       </c>
       <c r="I25">
         <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="6" customFormat="1">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
-        <v>240</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26"/>
-      <c r="E26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" t="s">
-        <v>241</v>
-      </c>
-      <c r="G26">
+        <v>16</v>
+      </c>
+      <c r="K25"/>
+    </row>
+    <row r="26" spans="1:11" s="16" customFormat="1">
+      <c r="A26" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="C26" s="14">
+        <v>1</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="G26" s="14">
         <v>0.11</v>
       </c>
-      <c r="H26" s="1">
-        <v>6.0000000000000003E-12</v>
-      </c>
-      <c r="I26">
-        <v>2</v>
-      </c>
-      <c r="J26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="6" customFormat="1">
+      <c r="H26" s="15">
+        <v>4.9999999999999999E-13</v>
+      </c>
+      <c r="I26" s="14">
+        <v>6</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="6" customFormat="1">
       <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>242</v>
+        <v>155</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="F27" t="s">
-        <v>243</v>
+        <v>157</v>
       </c>
       <c r="G27">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="H27" s="1">
-        <v>1E-10</v>
+        <v>3E-9</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="6" customFormat="1">
+    <row r="28" spans="1:11" s="6" customFormat="1">
       <c r="A28" t="s">
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>334</v>
+        <v>442</v>
       </c>
       <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>504</v>
+      </c>
+      <c r="E28" t="s">
         <v>2</v>
       </c>
-      <c r="D28"/>
-      <c r="E28" t="s">
-        <v>11</v>
-      </c>
       <c r="F28" t="s">
-        <v>335</v>
+        <v>443</v>
       </c>
       <c r="G28">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="H28" s="1">
-        <v>3E-9</v>
+        <v>6E-9</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J28" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="6" customFormat="1">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="11" customFormat="1">
       <c r="A29" t="s">
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>308</v>
+        <v>464</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>309</v>
+        <v>465</v>
       </c>
       <c r="G29">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H29" s="1">
-        <v>4.9999999999999999E-13</v>
+        <v>3.9999999999999999E-12</v>
       </c>
       <c r="I29">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="6" customFormat="1">
+        <v>441</v>
+      </c>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="1:11" s="6" customFormat="1">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>473</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30"/>
       <c r="E30" t="s">
         <v>18</v>
       </c>
       <c r="F30" t="s">
-        <v>101</v>
+        <v>474</v>
       </c>
       <c r="G30">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="H30" s="1">
-        <v>4.0000000000000001E-10</v>
+        <v>5.0000000000000001E-9</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="6" customFormat="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="6" customFormat="1">
       <c r="A31" t="s">
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>266</v>
+        <v>116</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3021,117 +3562,118 @@
         <v>18</v>
       </c>
       <c r="F31" t="s">
-        <v>267</v>
+        <v>117</v>
       </c>
       <c r="G31">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H31" s="1">
-        <v>7.0000000000000004E-11</v>
+        <v>5.0000000000000001E-9</v>
       </c>
       <c r="I31">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="6" customFormat="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="6" customFormat="1">
       <c r="A32" t="s">
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>343</v>
+        <v>246</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32"/>
       <c r="E32" t="s">
         <v>18</v>
       </c>
       <c r="F32" t="s">
-        <v>344</v>
+        <v>247</v>
       </c>
       <c r="G32">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="H32" s="1">
-        <v>7.9999999999999995E-11</v>
+        <v>2.0000000000000001E-9</v>
       </c>
       <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="6" customFormat="1">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>464</v>
+      </c>
+      <c r="C33">
         <v>3</v>
-      </c>
-      <c r="J32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="6" customFormat="1">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" t="s">
-        <v>362</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
       </c>
       <c r="D33"/>
       <c r="E33" t="s">
         <v>18</v>
       </c>
       <c r="F33" t="s">
-        <v>363</v>
+        <v>465</v>
       </c>
       <c r="G33">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H33" s="1">
-        <v>4.0000000000000001E-10</v>
+        <v>3.9999999999999999E-12</v>
       </c>
       <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="6" customFormat="1">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>439</v>
+      </c>
+      <c r="C34">
         <v>2</v>
-      </c>
-      <c r="J33" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="6" customFormat="1">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" t="s">
-        <v>141</v>
-      </c>
-      <c r="C34">
-        <v>25</v>
       </c>
       <c r="D34"/>
       <c r="E34" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>143</v>
+        <v>440</v>
       </c>
       <c r="G34">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H34" s="1">
-        <v>4.9999999999999997E-12</v>
+        <v>4E-14</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="6" customFormat="1">
+        <v>441</v>
+      </c>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:11" s="6" customFormat="1">
       <c r="A35" t="s">
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>172</v>
+        <v>380</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -3141,13 +3683,13 @@
         <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>173</v>
+        <v>381</v>
       </c>
       <c r="G35">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H35" s="1">
-        <v>1.9999999999999999E-11</v>
+        <v>6E-9</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -3156,869 +3698,885 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="6" customFormat="1">
+    <row r="36" spans="1:11" s="6" customFormat="1">
       <c r="A36" t="s">
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D36"/>
       <c r="E36" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="F36" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="G36">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H36" s="1">
-        <v>9.9999999999999994E-12</v>
+        <v>3E-11</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="6" customFormat="1">
+    <row r="37" spans="1:11" s="6" customFormat="1">
       <c r="A37" t="s">
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="C37">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D37"/>
       <c r="E37" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="F37" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="G37">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="H37" s="1">
-        <v>3E-9</v>
+        <v>1.9999999999999999E-11</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>460</v>
+        <v>362</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="F38" t="s">
-        <v>461</v>
+        <v>363</v>
       </c>
       <c r="G38">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="H38" s="1">
-        <v>3E-9</v>
+        <v>4.0000000000000001E-10</v>
       </c>
       <c r="I38">
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="6" customFormat="1">
+        <v>102</v>
+      </c>
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="1:11" s="6" customFormat="1">
       <c r="A39" t="s">
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>496</v>
+        <v>100</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39"/>
       <c r="E39" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="F39" t="s">
-        <v>497</v>
+        <v>101</v>
       </c>
       <c r="G39">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="H39" s="1">
-        <v>3E-9</v>
+        <v>4.0000000000000001E-10</v>
       </c>
       <c r="I39">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="6" customFormat="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="6" customFormat="1">
       <c r="A40" t="s">
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>343</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40"/>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>344</v>
       </c>
       <c r="G40">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="H40" s="1">
-        <v>2.9999999999999998E-13</v>
+        <v>7.9999999999999995E-11</v>
       </c>
       <c r="I40">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="6" customFormat="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="6" customFormat="1">
       <c r="A41" t="s">
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>273</v>
+        <v>24</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41"/>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F41" t="s">
-        <v>274</v>
+        <v>25</v>
       </c>
       <c r="G41">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="H41" s="1">
-        <v>4.0000000000000001E-13</v>
+        <v>8.9999999999999995E-9</v>
       </c>
       <c r="I41">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="6" customFormat="1">
+        <v>9</v>
+      </c>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:11" s="11" customFormat="1">
       <c r="A42" t="s">
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>425</v>
+        <v>392</v>
       </c>
       <c r="C42">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D42"/>
       <c r="E42" t="s">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="F42" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="G42">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H42" s="1">
-        <v>2.0000000000000001E-9</v>
+        <v>8.9999999999999995E-9</v>
       </c>
       <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="J42" t="s">
         <v>9</v>
       </c>
-      <c r="J42" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="6" customFormat="1">
+      <c r="K42" s="6"/>
+    </row>
+    <row r="43" spans="1:11" s="6" customFormat="1">
       <c r="A43" t="s">
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>185</v>
+        <v>278</v>
       </c>
       <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43"/>
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>520</v>
+      </c>
       <c r="E43" t="s">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="F43" t="s">
-        <v>187</v>
+        <v>279</v>
       </c>
       <c r="G43">
         <v>0.08</v>
       </c>
       <c r="H43" s="1">
-        <v>4.0000000000000002E-9</v>
+        <v>7.0000000000000001E-12</v>
       </c>
       <c r="I43">
+        <v>6</v>
+      </c>
+      <c r="J43" t="s">
         <v>9</v>
       </c>
-      <c r="J43" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="6" customFormat="1">
+    </row>
+    <row r="44" spans="1:11" s="6" customFormat="1">
       <c r="A44" t="s">
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>442</v>
+        <v>266</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44"/>
       <c r="E44" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F44" t="s">
-        <v>443</v>
+        <v>267</v>
       </c>
       <c r="G44">
+        <v>0.1</v>
+      </c>
+      <c r="H44" s="1">
+        <v>7.0000000000000004E-11</v>
+      </c>
+      <c r="I44">
+        <v>7</v>
+      </c>
+      <c r="J44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="16" customFormat="1">
+      <c r="A45" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="C45" s="14">
+        <v>9</v>
+      </c>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="G45" s="14">
         <v>0.08</v>
       </c>
-      <c r="H44" s="1">
-        <v>6E-9</v>
-      </c>
-      <c r="I44">
-        <v>8</v>
-      </c>
-      <c r="J44" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="6" customFormat="1">
-      <c r="A45" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45">
-        <v>19</v>
-      </c>
-      <c r="D45"/>
-      <c r="E45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" t="s">
-        <v>78</v>
-      </c>
-      <c r="G45">
-        <v>0.08</v>
-      </c>
-      <c r="H45" s="1">
-        <v>3E-11</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45" t="s">
+      <c r="H45" s="15">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="I45" s="14">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" s="6" customFormat="1">
+      <c r="J45" s="14" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="11" customFormat="1">
       <c r="A46" t="s">
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
-      <c r="D46"/>
+      <c r="D46" t="s">
+        <v>519</v>
+      </c>
       <c r="E46" t="s">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="F46" t="s">
-        <v>124</v>
+        <v>187</v>
       </c>
       <c r="G46">
         <v>0.08</v>
       </c>
       <c r="H46" s="1">
-        <v>9.9999999999999994E-12</v>
+        <v>4.0000000000000002E-9</v>
       </c>
       <c r="I46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="6" customFormat="1">
+        <v>188</v>
+      </c>
+      <c r="K46" s="6"/>
+    </row>
+    <row r="47" spans="1:11" s="6" customFormat="1">
       <c r="A47" t="s">
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>278</v>
+        <v>402</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D47"/>
       <c r="E47" t="s">
-        <v>18</v>
+        <v>186</v>
       </c>
       <c r="F47" t="s">
-        <v>279</v>
+        <v>403</v>
       </c>
       <c r="G47">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H47" s="1">
-        <v>7.0000000000000001E-12</v>
+        <v>3E-10</v>
       </c>
       <c r="I47">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" s="6" customFormat="1">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="6" customFormat="1">
       <c r="A48" t="s">
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>286</v>
+        <v>244</v>
       </c>
       <c r="C48">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D48"/>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>234</v>
       </c>
       <c r="F48" t="s">
-        <v>287</v>
+        <v>245</v>
       </c>
       <c r="G48">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H48" s="1">
-        <v>4.0000000000000002E-9</v>
+        <v>1.9999999999999999E-11</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J48" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="6" customFormat="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="6" customFormat="1">
       <c r="A49" t="s">
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>462</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D49"/>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F49" t="s">
-        <v>401</v>
+        <v>463</v>
       </c>
       <c r="G49">
-        <v>0.08</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H49" s="1">
-        <v>2.0000000000000001E-9</v>
+        <v>2.9999999999999998E-15</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="6" customFormat="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="6" customFormat="1">
       <c r="A50" t="s">
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>402</v>
+        <v>240</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50"/>
       <c r="E50" t="s">
-        <v>186</v>
+        <v>29</v>
       </c>
       <c r="F50" t="s">
-        <v>403</v>
+        <v>241</v>
       </c>
       <c r="G50">
+        <v>0.11</v>
+      </c>
+      <c r="H50" s="1">
+        <v>6.0000000000000003E-12</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="16" customFormat="1">
+      <c r="A51" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C51" s="14">
+        <v>1</v>
+      </c>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="G51" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H50" s="1">
-        <v>3E-10</v>
-      </c>
-      <c r="I50">
-        <v>12</v>
-      </c>
-      <c r="J50" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="6" customFormat="1">
-      <c r="A51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" t="s">
-        <v>345</v>
-      </c>
-      <c r="C51">
-        <v>22</v>
-      </c>
-      <c r="D51"/>
-      <c r="E51" t="s">
-        <v>34</v>
-      </c>
-      <c r="F51" t="s">
-        <v>346</v>
-      </c>
-      <c r="G51">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H51" s="1">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="I51">
-        <v>3</v>
-      </c>
-      <c r="J51" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="6" customFormat="1">
+      <c r="H51" s="15">
+        <v>3E-9</v>
+      </c>
+      <c r="I51" s="14">
+        <v>5</v>
+      </c>
+      <c r="J51" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="K51" s="14"/>
+    </row>
+    <row r="52" spans="1:11" s="6" customFormat="1">
       <c r="A52" t="s">
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>382</v>
+        <v>273</v>
       </c>
       <c r="C52">
-        <v>2</v>
-      </c>
-      <c r="D52"/>
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>518</v>
+      </c>
       <c r="E52" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F52" t="s">
-        <v>383</v>
+        <v>274</v>
       </c>
       <c r="G52">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="H52" s="1">
-        <v>6.9999999999999996E-10</v>
+        <v>4.0000000000000001E-13</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J52" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="6" customFormat="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="6" customFormat="1">
       <c r="A53" t="s">
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>244</v>
+        <v>28</v>
       </c>
       <c r="C53">
-        <v>2</v>
-      </c>
-      <c r="D53"/>
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>518</v>
+      </c>
       <c r="E53" t="s">
-        <v>234</v>
+        <v>29</v>
       </c>
       <c r="F53" t="s">
-        <v>245</v>
+        <v>30</v>
       </c>
       <c r="G53">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="H53" s="1">
-        <v>1.9999999999999999E-11</v>
+        <v>2.9999999999999998E-13</v>
       </c>
       <c r="I53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J53" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="6" customFormat="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="6" customFormat="1">
       <c r="A54" t="s">
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>262</v>
+        <v>482</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54"/>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>483</v>
       </c>
       <c r="F54" t="s">
-        <v>263</v>
+        <v>484</v>
       </c>
       <c r="G54">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H54" s="1">
-        <v>3E-9</v>
+        <v>4.0000000000000001E-10</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J54" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" s="6" customFormat="1">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="6" customFormat="1">
       <c r="A55" t="s">
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>325</v>
+        <v>138</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55"/>
       <c r="E55" t="s">
-        <v>326</v>
+        <v>139</v>
       </c>
       <c r="F55" t="s">
-        <v>327</v>
+        <v>140</v>
       </c>
       <c r="G55">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="H55" s="1">
-        <v>3E-9</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="I55">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="6" customFormat="1">
+    <row r="56" spans="1:11" s="6" customFormat="1">
       <c r="A56" t="s">
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>380</v>
+        <v>262</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56"/>
       <c r="E56" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="G56">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H56" s="1">
-        <v>6E-9</v>
+        <v>3E-9</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="6" customFormat="1">
+    <row r="57" spans="1:11" s="6" customFormat="1">
       <c r="A57" t="s">
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>392</v>
+        <v>325</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57"/>
       <c r="E57" t="s">
-        <v>18</v>
+        <v>326</v>
       </c>
       <c r="F57" t="s">
-        <v>393</v>
+        <v>327</v>
       </c>
       <c r="G57">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H57" s="1">
-        <v>8.9999999999999995E-9</v>
+        <v>3E-9</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J57" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="6" customFormat="1">
+    <row r="58" spans="1:11" s="6" customFormat="1">
       <c r="A58" t="s">
         <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>397</v>
+        <v>457</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58"/>
       <c r="E58" t="s">
-        <v>123</v>
+        <v>458</v>
       </c>
       <c r="F58" t="s">
-        <v>398</v>
+        <v>459</v>
       </c>
       <c r="G58">
-        <v>7.0000000000000007E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H58" s="1">
-        <v>8.9999999999999995E-9</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="I58">
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>468</v>
+        <v>405</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>123</v>
+        <v>406</v>
       </c>
       <c r="F59" t="s">
-        <v>469</v>
+        <v>407</v>
       </c>
       <c r="G59">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="H59" s="1">
-        <v>3E-10</v>
+        <v>8.9999999999999995E-9</v>
       </c>
       <c r="I59">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="6" customFormat="1">
+    <row r="60" spans="1:11" s="6" customFormat="1">
       <c r="A60" t="s">
         <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>482</v>
+        <v>397</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60"/>
       <c r="E60" t="s">
-        <v>483</v>
+        <v>123</v>
       </c>
       <c r="F60" t="s">
-        <v>484</v>
+        <v>398</v>
       </c>
       <c r="G60">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H60" s="1">
-        <v>4.0000000000000001E-10</v>
+        <v>8.9999999999999995E-9</v>
       </c>
       <c r="I60">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="2" customFormat="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="2" customFormat="1">
       <c r="A61" t="s">
         <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>292</v>
+        <v>468</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61"/>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="F61" t="s">
-        <v>293</v>
+        <v>469</v>
       </c>
       <c r="G61">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H61" s="1">
-        <v>6E-11</v>
+        <v>3E-10</v>
       </c>
       <c r="I61">
+        <v>6</v>
+      </c>
+      <c r="J61" t="s">
+        <v>9</v>
+      </c>
+      <c r="K61"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>496</v>
+      </c>
+      <c r="C62">
         <v>2</v>
       </c>
-      <c r="J61" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62" t="s">
-        <v>275</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
       <c r="E62" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="F62" t="s">
-        <v>276</v>
+        <v>497</v>
       </c>
       <c r="G62">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="H62" s="1">
         <v>3E-9</v>
       </c>
       <c r="I62">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J62" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63" t="s">
-        <v>405</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="E63" t="s">
-        <v>406</v>
-      </c>
-      <c r="F63" t="s">
-        <v>407</v>
-      </c>
-      <c r="G63">
-        <v>0.06</v>
-      </c>
-      <c r="H63" s="1">
-        <v>8.9999999999999995E-9</v>
-      </c>
-      <c r="I63">
-        <v>8</v>
-      </c>
-      <c r="J63" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K62" s="6"/>
+    </row>
+    <row r="63" spans="1:11" s="14" customFormat="1">
+      <c r="A63" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="14">
+        <v>1</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G63" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="H63" s="15">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="I63" s="14">
+        <v>10</v>
+      </c>
+      <c r="J63" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K63" s="16"/>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>460</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="F64" t="s">
-        <v>15</v>
+        <v>461</v>
       </c>
       <c r="G64">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="H64" s="1">
-        <v>6E-9</v>
+        <v>3E-9</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -4034,7 +4592,9 @@
       <c r="C66" s="2">
         <v>1</v>
       </c>
-      <c r="D66" s="2"/>
+      <c r="D66" s="2" t="s">
+        <v>512</v>
+      </c>
       <c r="E66" s="2" t="s">
         <v>18</v>
       </c>
@@ -4064,7 +4624,9 @@
       <c r="C67" s="2">
         <v>1</v>
       </c>
-      <c r="D67" s="2"/>
+      <c r="D67" s="2" t="s">
+        <v>512</v>
+      </c>
       <c r="E67" s="2" t="s">
         <v>18</v>
       </c>
@@ -4095,7 +4657,7 @@
         <v>8</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>202</v>
@@ -4127,7 +4689,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>237</v>
@@ -4159,7 +4721,7 @@
         <v>21</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>11</v>
@@ -4223,7 +4785,7 @@
         <v>1</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>29</v>
@@ -4286,7 +4848,9 @@
       <c r="C74" s="2">
         <v>1</v>
       </c>
-      <c r="D74" s="2"/>
+      <c r="D74" s="2" t="s">
+        <v>512</v>
+      </c>
       <c r="E74" s="2" t="s">
         <v>271</v>
       </c>
@@ -4348,6 +4912,9 @@
       <c r="C76">
         <v>6</v>
       </c>
+      <c r="D76" t="s">
+        <v>504</v>
+      </c>
       <c r="E76" t="s">
         <v>18</v>
       </c>
@@ -4377,6 +4944,9 @@
       <c r="C77">
         <v>6</v>
       </c>
+      <c r="D77" t="s">
+        <v>504</v>
+      </c>
       <c r="E77" t="s">
         <v>234</v>
       </c>
@@ -4406,6 +4976,9 @@
       <c r="C78">
         <v>7</v>
       </c>
+      <c r="D78" t="s">
+        <v>510</v>
+      </c>
       <c r="E78" t="s">
         <v>18</v>
       </c>
@@ -4435,7 +5008,9 @@
       <c r="C79">
         <v>1</v>
       </c>
-      <c r="D79"/>
+      <c r="D79" t="s">
+        <v>504</v>
+      </c>
       <c r="E79" t="s">
         <v>18</v>
       </c>
@@ -4466,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>11</v>
@@ -4487,33 +5062,35 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="6" customFormat="1">
-      <c r="A81" t="s">
+    <row r="81" spans="1:10" s="11" customFormat="1">
+      <c r="A81" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81"/>
-      <c r="E81" t="s">
-        <v>18</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="C81" s="9">
+        <v>1</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="9">
         <v>0.41</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="9">
         <v>0</v>
       </c>
-      <c r="I81">
-        <v>1</v>
-      </c>
-      <c r="J81" t="s">
+      <c r="I81" s="9">
+        <v>1</v>
+      </c>
+      <c r="J81" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4558,7 +5135,7 @@
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E83" t="s">
         <v>2</v>
@@ -4589,7 +5166,9 @@
       <c r="C84">
         <v>1</v>
       </c>
-      <c r="D84"/>
+      <c r="D84" t="s">
+        <v>504</v>
+      </c>
       <c r="E84" t="s">
         <v>18</v>
       </c>
@@ -4609,33 +5188,33 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="6" customFormat="1">
-      <c r="A85" t="s">
+    <row r="85" spans="1:10" s="11" customFormat="1">
+      <c r="A85" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85"/>
-      <c r="E85" t="s">
+      <c r="C85" s="9">
+        <v>1</v>
+      </c>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="9">
         <v>0.39</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="9">
         <v>0</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="9">
         <v>12</v>
       </c>
-      <c r="J85" t="s">
+      <c r="J85" s="9" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4649,6 +5228,9 @@
       <c r="C86">
         <v>7</v>
       </c>
+      <c r="D86" t="s">
+        <v>504</v>
+      </c>
       <c r="E86" t="s">
         <v>18</v>
       </c>
@@ -4668,32 +5250,35 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
-      <c r="A87" t="s">
+    <row r="87" spans="1:10" s="9" customFormat="1">
+      <c r="A87" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="C87" s="9">
+        <v>1</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="E87" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="9">
         <v>0.24</v>
       </c>
-      <c r="H87" s="1">
+      <c r="H87" s="10">
         <v>7.9999999999999996E-94</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="9">
         <v>4</v>
       </c>
-      <c r="J87" t="s">
+      <c r="J87" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4707,6 +5292,9 @@
       <c r="C88">
         <v>8</v>
       </c>
+      <c r="D88" t="s">
+        <v>504</v>
+      </c>
       <c r="E88" t="s">
         <v>18</v>
       </c>
@@ -4766,7 +5354,9 @@
       <c r="C90">
         <v>14</v>
       </c>
-      <c r="D90"/>
+      <c r="D90" t="s">
+        <v>510</v>
+      </c>
       <c r="E90" t="s">
         <v>340</v>
       </c>
@@ -4796,7 +5386,9 @@
       <c r="C91">
         <v>7</v>
       </c>
-      <c r="D91"/>
+      <c r="D91" t="s">
+        <v>504</v>
+      </c>
       <c r="E91" t="s">
         <v>476</v>
       </c>
@@ -4826,7 +5418,9 @@
       <c r="C92">
         <v>27</v>
       </c>
-      <c r="D92"/>
+      <c r="D92" t="s">
+        <v>510</v>
+      </c>
       <c r="E92" t="s">
         <v>18</v>
       </c>
@@ -4846,63 +5440,65 @@
         <v>200</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="6" customFormat="1">
-      <c r="A93" t="s">
+    <row r="93" spans="1:10" s="12" customFormat="1">
+      <c r="A93" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93"/>
-      <c r="E93" t="s">
+      <c r="C93" s="4">
+        <v>1</v>
+      </c>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="4">
         <v>0.19</v>
       </c>
-      <c r="H93" s="1">
+      <c r="H93" s="5">
         <v>4.0000000000000003E-43</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="4">
         <v>2</v>
       </c>
-      <c r="J93" t="s">
+      <c r="J93" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:10" s="6" customFormat="1">
-      <c r="A94" t="s">
+    <row r="94" spans="1:10" s="11" customFormat="1">
+      <c r="A94" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="D94"/>
-      <c r="E94" t="s">
+      <c r="C94" s="9">
+        <v>1</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="E94" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="9">
         <v>0.19</v>
       </c>
-      <c r="H94" s="1">
+      <c r="H94" s="10">
         <v>1E-41</v>
       </c>
-      <c r="I94">
-        <v>1</v>
-      </c>
-      <c r="J94" t="s">
+      <c r="I94" s="9">
+        <v>1</v>
+      </c>
+      <c r="J94" s="9" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4916,7 +5512,9 @@
       <c r="C95">
         <v>1</v>
       </c>
-      <c r="D95"/>
+      <c r="D95" t="s">
+        <v>504</v>
+      </c>
       <c r="E95" t="s">
         <v>18</v>
       </c>
@@ -4946,7 +5544,9 @@
       <c r="C96">
         <v>5</v>
       </c>
-      <c r="D96"/>
+      <c r="D96" t="s">
+        <v>510</v>
+      </c>
       <c r="E96" t="s">
         <v>18</v>
       </c>
@@ -4976,7 +5576,9 @@
       <c r="C97" s="2">
         <v>3</v>
       </c>
-      <c r="D97" s="2"/>
+      <c r="D97" s="2" t="s">
+        <v>514</v>
+      </c>
       <c r="E97" s="2" t="s">
         <v>133</v>
       </c>
@@ -4996,90 +5598,90 @@
         <v>135</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
-      <c r="A98" t="s">
+    <row r="98" spans="1:10" s="9" customFormat="1">
+      <c r="A98" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="C98" s="9">
+        <v>1</v>
+      </c>
+      <c r="E98" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="9">
         <v>0.51</v>
       </c>
-      <c r="H98" s="1">
+      <c r="H98" s="10">
         <v>3.9999999999999996E-93</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="9">
         <v>3</v>
       </c>
-      <c r="J98" t="s">
+      <c r="J98" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
-      <c r="A99" t="s">
+    <row r="99" spans="1:10" s="9" customFormat="1">
+      <c r="A99" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="C99" s="9">
+        <v>1</v>
+      </c>
+      <c r="E99" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="9">
         <v>0.5</v>
       </c>
-      <c r="H99" s="1">
+      <c r="H99" s="10">
         <v>3.9999999999999996E-93</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="9">
         <v>2</v>
       </c>
-      <c r="J99" t="s">
+      <c r="J99" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
-      <c r="A100" t="s">
+    <row r="100" spans="1:10" s="4" customFormat="1">
+      <c r="A100" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B100" t="s">
-        <v>231</v>
-      </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="B100" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C100" s="4">
+        <v>2</v>
+      </c>
+      <c r="E100" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F100" t="s">
-        <v>232</v>
-      </c>
-      <c r="G100">
-        <v>0.5</v>
-      </c>
-      <c r="H100" s="1">
-        <v>3.0000000000000001E-93</v>
-      </c>
-      <c r="I100">
+      <c r="F100" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G100" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="H100" s="5">
+        <v>2.9999999999999999E-89</v>
+      </c>
+      <c r="I100" s="4">
         <v>2</v>
       </c>
-      <c r="J100" t="s">
+      <c r="J100" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5088,271 +5690,280 @@
         <v>106</v>
       </c>
       <c r="B101" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>34</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>513</v>
       </c>
       <c r="E101" t="s">
         <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="G101">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="H101" s="1">
-        <v>2.0000000000000001E-89</v>
+        <v>1.9999999999999998E-65</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" s="6" customFormat="1">
       <c r="A102" t="s">
         <v>106</v>
       </c>
       <c r="B102" t="s">
-        <v>225</v>
+        <v>367</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>513</v>
       </c>
       <c r="E102" t="s">
         <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>226</v>
+        <v>368</v>
       </c>
       <c r="G102">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="H102" s="1">
-        <v>2.9999999999999999E-89</v>
+        <v>6.0000000000000001E-74</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" s="6" customFormat="1">
       <c r="A103" t="s">
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>251</v>
+        <v>107</v>
       </c>
       <c r="C103">
-        <v>34</v>
+        <v>1</v>
+      </c>
+      <c r="D103" t="s">
+        <v>515</v>
       </c>
       <c r="E103" t="s">
+        <v>108</v>
+      </c>
+      <c r="F103" t="s">
+        <v>109</v>
+      </c>
+      <c r="G103">
+        <v>0.41</v>
+      </c>
+      <c r="H103" s="1">
+        <v>7.9999999999999995E-67</v>
+      </c>
+      <c r="I103">
+        <v>2</v>
+      </c>
+      <c r="J103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" s="6" customFormat="1">
+      <c r="A104"/>
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+      <c r="H104" s="1"/>
+      <c r="I104"/>
+      <c r="J104"/>
+    </row>
+    <row r="105" spans="1:10" s="6" customFormat="1">
+      <c r="A105"/>
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="H105" s="1"/>
+      <c r="I105"/>
+      <c r="J105"/>
+    </row>
+    <row r="106" spans="1:10" s="6" customFormat="1">
+      <c r="A106"/>
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
+      <c r="H106" s="1"/>
+      <c r="I106"/>
+      <c r="J106"/>
+    </row>
+    <row r="107" spans="1:10" s="6" customFormat="1">
+      <c r="A107" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="C107" s="6">
+        <v>1</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="G107" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="H107" s="7">
+        <v>2.0000000000000001E-17</v>
+      </c>
+      <c r="I107" s="6">
+        <v>1</v>
+      </c>
+      <c r="J107" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C108" s="6">
+        <v>1</v>
+      </c>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F103" t="s">
-        <v>252</v>
-      </c>
-      <c r="G103">
-        <v>0.44</v>
-      </c>
-      <c r="H103" s="1">
-        <v>1.9999999999999998E-65</v>
-      </c>
-      <c r="I103">
-        <v>1</v>
-      </c>
-      <c r="J103" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" s="6" customFormat="1">
-      <c r="A104" t="s">
-        <v>106</v>
-      </c>
-      <c r="B104" t="s">
-        <v>367</v>
-      </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-      <c r="D104"/>
-      <c r="E104" t="s">
+      <c r="F108" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G108" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="H108" s="7">
+        <v>6.0000000000000006E-20</v>
+      </c>
+      <c r="I108" s="6">
+        <v>2</v>
+      </c>
+      <c r="J108" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C109" s="6">
+        <v>1</v>
+      </c>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F104" t="s">
-        <v>368</v>
-      </c>
-      <c r="G104">
-        <v>0.44</v>
-      </c>
-      <c r="H104" s="1">
-        <v>6.0000000000000001E-74</v>
-      </c>
-      <c r="I104">
-        <v>1</v>
-      </c>
-      <c r="J104" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" s="6" customFormat="1">
-      <c r="A105" t="s">
-        <v>106</v>
-      </c>
-      <c r="B105" t="s">
-        <v>367</v>
-      </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-      <c r="D105"/>
-      <c r="E105" t="s">
-        <v>11</v>
-      </c>
-      <c r="F105" t="s">
-        <v>368</v>
-      </c>
-      <c r="G105">
-        <v>0.44</v>
-      </c>
-      <c r="H105" s="1">
-        <v>3.9999999999999998E-74</v>
-      </c>
-      <c r="I105">
-        <v>1</v>
-      </c>
-      <c r="J105" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" s="6" customFormat="1">
-      <c r="A106" t="s">
-        <v>106</v>
-      </c>
-      <c r="B106" t="s">
-        <v>107</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106"/>
-      <c r="E106" t="s">
-        <v>108</v>
-      </c>
-      <c r="F106" t="s">
-        <v>109</v>
-      </c>
-      <c r="G106">
-        <v>0.41</v>
-      </c>
-      <c r="H106" s="1">
-        <v>6.0000000000000006E-67</v>
-      </c>
-      <c r="I106">
+      <c r="F109" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G109" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="H109" s="7">
+        <v>4.9999999999999999E-20</v>
+      </c>
+      <c r="I109" s="6">
         <v>2</v>
       </c>
-      <c r="J106" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" s="6" customFormat="1">
-      <c r="A107" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>107</v>
-      </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-      <c r="D107"/>
-      <c r="E107" t="s">
-        <v>108</v>
-      </c>
-      <c r="F107" t="s">
-        <v>109</v>
-      </c>
-      <c r="G107">
-        <v>0.41</v>
-      </c>
-      <c r="H107" s="1">
-        <v>7.9999999999999995E-67</v>
-      </c>
-      <c r="I107">
-        <v>2</v>
-      </c>
-      <c r="J107" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" s="6" customFormat="1">
-      <c r="A108"/>
-      <c r="B108"/>
-      <c r="C108"/>
-      <c r="D108"/>
-      <c r="E108"/>
-      <c r="F108"/>
-      <c r="G108"/>
-      <c r="H108" s="1"/>
-      <c r="I108"/>
-      <c r="J108"/>
-    </row>
-    <row r="109" spans="1:10" s="6" customFormat="1">
-      <c r="A109"/>
-      <c r="B109"/>
-      <c r="C109"/>
-      <c r="D109"/>
-      <c r="E109"/>
-      <c r="F109"/>
-      <c r="G109"/>
-      <c r="H109" s="1"/>
-      <c r="I109"/>
-      <c r="J109"/>
-    </row>
-    <row r="110" spans="1:10" s="6" customFormat="1">
-      <c r="A110"/>
-      <c r="B110"/>
-      <c r="C110"/>
-      <c r="D110"/>
-      <c r="E110"/>
-      <c r="F110"/>
-      <c r="G110"/>
-      <c r="H110" s="1"/>
-      <c r="I110"/>
-      <c r="J110"/>
-    </row>
-    <row r="111" spans="1:10" s="6" customFormat="1">
+      <c r="J109" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C110" s="6">
+        <v>1</v>
+      </c>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="G110" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="H110" s="7">
+        <v>2E-16</v>
+      </c>
+      <c r="I110" s="6">
+        <v>8</v>
+      </c>
+      <c r="J110" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C111" s="6">
         <v>1</v>
       </c>
+      <c r="D111" s="6"/>
       <c r="E111" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G111" s="6">
-        <v>0.23</v>
+        <v>0.12</v>
       </c>
       <c r="H111" s="7">
-        <v>2.0000000000000001E-17</v>
+        <v>2.9999999999999998E-15</v>
       </c>
       <c r="I111" s="6">
         <v>1</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>154</v>
+        <v>452</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -5360,179 +5971,175 @@
         <v>5</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>152</v>
+        <v>281</v>
       </c>
       <c r="C112" s="6">
         <v>1</v>
       </c>
       <c r="D112" s="6"/>
       <c r="E112" s="6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>153</v>
+        <v>282</v>
       </c>
       <c r="G112" s="6">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
       <c r="H112" s="7">
-        <v>6.0000000000000006E-20</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="I112" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>154</v>
+        <v>283</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="6" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>152</v>
+        <v>248</v>
       </c>
       <c r="C113" s="6">
         <v>1</v>
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>153</v>
+        <v>249</v>
       </c>
       <c r="G113" s="6">
-        <v>0.21</v>
+        <v>0.44</v>
       </c>
       <c r="H113" s="7">
-        <v>4.9999999999999999E-20</v>
+        <v>2E-176</v>
       </c>
       <c r="I113" s="6">
+        <v>1</v>
+      </c>
+      <c r="J113" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="6" customFormat="1">
+      <c r="A114" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C114" s="6">
+        <v>1</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G114" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="H114" s="7">
+        <v>8.0000000000000002E-13</v>
+      </c>
+      <c r="I114" s="6">
+        <v>1</v>
+      </c>
+      <c r="J114" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="6" customFormat="1">
+      <c r="A115" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C115" s="6">
+        <v>1</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G115" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="H115" s="7">
+        <v>6.0000000000000003E-12</v>
+      </c>
+      <c r="I115" s="6">
+        <v>1</v>
+      </c>
+      <c r="J115" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="6" customFormat="1">
+      <c r="A116" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C116" s="6">
+        <v>1</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G116" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="H116" s="7">
+        <v>3.0000000000000001E-94</v>
+      </c>
+      <c r="I116" s="6">
         <v>2</v>
       </c>
-      <c r="J113" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10">
-      <c r="A114" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="C114" s="6">
-        <v>1</v>
-      </c>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="G114" s="6">
-        <v>0.16</v>
-      </c>
-      <c r="H114" s="7">
-        <v>2E-16</v>
-      </c>
-      <c r="I114" s="6">
-        <v>8</v>
-      </c>
-      <c r="J114" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10">
-      <c r="A115" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="C115" s="6">
-        <v>1</v>
-      </c>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F115" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="G115" s="6">
-        <v>0.12</v>
-      </c>
-      <c r="H115" s="7">
-        <v>2.9999999999999998E-15</v>
-      </c>
-      <c r="I115" s="6">
-        <v>1</v>
-      </c>
-      <c r="J115" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10">
-      <c r="A116" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C116" s="6">
-        <v>1</v>
-      </c>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F116" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="G116" s="6">
-        <v>0.13</v>
-      </c>
-      <c r="H116" s="7">
-        <v>9.9999999999999994E-12</v>
-      </c>
-      <c r="I116" s="6">
-        <v>1</v>
-      </c>
       <c r="J116" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="6" customFormat="1">
       <c r="A117" s="6" t="s">
-        <v>176</v>
+        <v>5</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>248</v>
+        <v>174</v>
       </c>
       <c r="C117" s="6">
         <v>1</v>
       </c>
-      <c r="D117" s="6"/>
       <c r="E117" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>249</v>
+        <v>175</v>
       </c>
       <c r="G117" s="6">
-        <v>0.44</v>
+        <v>0.36</v>
       </c>
       <c r="H117" s="7">
-        <v>2E-176</v>
+        <v>1E-100</v>
       </c>
       <c r="I117" s="6">
         <v>1</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>250</v>
+        <v>39</v>
       </c>
     </row>
     <row r="118" spans="1:10" s="6" customFormat="1">
@@ -5540,7 +6147,7 @@
         <v>5</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>189</v>
+        <v>51</v>
       </c>
       <c r="C118" s="6">
         <v>1</v>
@@ -5549,19 +6156,19 @@
         <v>18</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="G118" s="6">
-        <v>0.22</v>
+        <v>0.32</v>
       </c>
       <c r="H118" s="7">
-        <v>8.0000000000000002E-13</v>
+        <v>7.0000000000000004E-98</v>
       </c>
       <c r="I118" s="6">
         <v>1</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>191</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" spans="1:10" s="6" customFormat="1">
@@ -5569,7 +6176,7 @@
         <v>5</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>214</v>
+        <v>37</v>
       </c>
       <c r="C119" s="6">
         <v>1</v>
@@ -5578,71 +6185,73 @@
         <v>18</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>215</v>
+        <v>38</v>
       </c>
       <c r="G119" s="6">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="H119" s="7">
-        <v>6.0000000000000003E-12</v>
+        <v>8.9999999999999999E-18</v>
       </c>
       <c r="I119" s="6">
         <v>1</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" s="6" customFormat="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="C120" s="6">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D120" s="6"/>
       <c r="E120" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="G120" s="6">
-        <v>0.36</v>
+        <v>0.2</v>
       </c>
       <c r="H120" s="7">
-        <v>3.0000000000000001E-94</v>
+        <v>3.0000000000000001E-17</v>
       </c>
       <c r="I120" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:10" s="6" customFormat="1">
+    <row r="121" spans="1:10">
       <c r="A121" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>174</v>
+        <v>364</v>
       </c>
       <c r="C121" s="6">
         <v>1</v>
       </c>
+      <c r="D121" s="6"/>
       <c r="E121" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>175</v>
+        <v>365</v>
       </c>
       <c r="G121" s="6">
-        <v>0.36</v>
+        <v>0.19</v>
       </c>
       <c r="H121" s="7">
-        <v>1E-100</v>
+        <v>2E-12</v>
       </c>
       <c r="I121" s="6">
         <v>1</v>
@@ -5651,27 +6260,28 @@
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="1:10" s="6" customFormat="1">
+    <row r="122" spans="1:10">
       <c r="A122" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C122" s="6">
         <v>1</v>
       </c>
+      <c r="D122" s="6"/>
       <c r="E122" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G122" s="6">
-        <v>0.32</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H122" s="7">
-        <v>7.0000000000000004E-98</v>
+        <v>5.0000000000000004E-16</v>
       </c>
       <c r="I122" s="6">
         <v>1</v>
@@ -5680,27 +6290,28 @@
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="1:10" s="6" customFormat="1">
+    <row r="123" spans="1:10">
       <c r="A123" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C123" s="6">
         <v>1</v>
       </c>
+      <c r="D123" s="6"/>
       <c r="E123" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>38</v>
+        <v>280</v>
       </c>
       <c r="G123" s="6">
-        <v>0.22</v>
+        <v>0.08</v>
       </c>
       <c r="H123" s="7">
-        <v>8.9999999999999999E-18</v>
+        <v>4.0000000000000001E-13</v>
       </c>
       <c r="I123" s="6">
         <v>1</v>
@@ -5714,23 +6325,23 @@
         <v>5</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>158</v>
+        <v>498</v>
       </c>
       <c r="C124" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D124" s="6"/>
       <c r="E124" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>159</v>
+        <v>499</v>
       </c>
       <c r="G124" s="6">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="H124" s="7">
-        <v>3.0000000000000001E-17</v>
+        <v>7.9999999999999995E-11</v>
       </c>
       <c r="I124" s="6">
         <v>1</v>
@@ -5744,20 +6355,20 @@
         <v>5</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>364</v>
+        <v>415</v>
       </c>
       <c r="C125" s="6">
         <v>1</v>
       </c>
       <c r="D125" s="6"/>
       <c r="E125" s="6" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>365</v>
+        <v>417</v>
       </c>
       <c r="G125" s="6">
-        <v>0.19</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H125" s="7">
         <v>2E-12</v>
@@ -5774,59 +6385,59 @@
         <v>5</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>47</v>
+        <v>303</v>
       </c>
       <c r="C126" s="6">
         <v>1</v>
       </c>
       <c r="D126" s="6"/>
       <c r="E126" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>48</v>
+        <v>304</v>
       </c>
       <c r="G126" s="6">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="H126" s="7">
-        <v>5.0000000000000004E-16</v>
+        <v>5.9999999999999997E-14</v>
       </c>
       <c r="I126" s="6">
         <v>1</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>39</v>
+        <v>305</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="6" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>47</v>
+        <v>177</v>
       </c>
       <c r="C127" s="6">
         <v>1</v>
       </c>
       <c r="D127" s="6"/>
       <c r="E127" s="6" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>280</v>
+        <v>179</v>
       </c>
       <c r="G127" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="H127" s="7">
-        <v>4.0000000000000001E-13</v>
+        <v>0.52</v>
+      </c>
+      <c r="H127" s="6">
+        <v>0</v>
       </c>
       <c r="I127" s="6">
         <v>1</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -5834,113 +6445,110 @@
         <v>5</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>498</v>
+        <v>74</v>
       </c>
       <c r="C128" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D128" s="6"/>
       <c r="E128" s="6" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>499</v>
+        <v>76</v>
       </c>
       <c r="G128" s="6">
-        <v>0.08</v>
+        <v>0.21</v>
       </c>
       <c r="H128" s="7">
-        <v>7.9999999999999995E-11</v>
+        <v>2.0000000000000001E-22</v>
       </c>
       <c r="I128" s="6">
         <v>1</v>
       </c>
       <c r="J128" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" s="6" customFormat="1">
       <c r="A129" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>415</v>
+        <v>74</v>
       </c>
       <c r="C129" s="6">
         <v>1</v>
       </c>
-      <c r="D129" s="6"/>
       <c r="E129" s="6" t="s">
-        <v>416</v>
+        <v>75</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>417</v>
+        <v>76</v>
       </c>
       <c r="G129" s="6">
-        <v>7.0000000000000007E-2</v>
+        <v>0.21</v>
       </c>
       <c r="H129" s="7">
-        <v>2E-12</v>
+        <v>1E-22</v>
       </c>
       <c r="I129" s="6">
         <v>1</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" s="6" customFormat="1">
       <c r="A130" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>303</v>
+        <v>119</v>
       </c>
       <c r="C130" s="6">
-        <v>1</v>
-      </c>
-      <c r="D130" s="6"/>
+        <v>5</v>
+      </c>
       <c r="E130" s="6" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>304</v>
+        <v>121</v>
       </c>
       <c r="G130" s="6">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="H130" s="7">
-        <v>5.9999999999999997E-14</v>
+        <v>2.0000000000000002E-15</v>
       </c>
       <c r="I130" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J130" s="6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" s="6" customFormat="1">
       <c r="A131" s="6" t="s">
-        <v>176</v>
+        <v>5</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="C131" s="6">
         <v>1</v>
       </c>
-      <c r="D131" s="6"/>
       <c r="E131" s="6" t="s">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="G131" s="6">
-        <v>0.52</v>
-      </c>
-      <c r="H131" s="6">
-        <v>0</v>
+        <v>0.11</v>
+      </c>
+      <c r="H131" s="7">
+        <v>9.9999999999999998E-13</v>
       </c>
       <c r="I131" s="6">
         <v>1</v>
@@ -5949,28 +6557,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" s="6" customFormat="1">
       <c r="A132" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C132" s="6">
         <v>1</v>
       </c>
-      <c r="D132" s="6"/>
       <c r="E132" s="6" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="G132" s="6">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="H132" s="7">
-        <v>2.0000000000000001E-22</v>
+        <v>2.0000000000000001E-9</v>
       </c>
       <c r="I132" s="6">
         <v>1</v>
@@ -5984,22 +6591,22 @@
         <v>5</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>74</v>
+        <v>399</v>
       </c>
       <c r="C133" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>76</v>
+        <v>400</v>
       </c>
       <c r="G133" s="6">
-        <v>0.21</v>
+        <v>0.09</v>
       </c>
       <c r="H133" s="7">
-        <v>1E-22</v>
+        <v>4.9999999999999997E-12</v>
       </c>
       <c r="I133" s="6">
         <v>1</v>
@@ -6013,51 +6620,52 @@
         <v>5</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="C134" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="G134" s="6">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="H134" s="7">
-        <v>2.0000000000000002E-15</v>
+        <v>7.0000000000000001E-15</v>
       </c>
       <c r="I134" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="135" spans="1:10" s="6" customFormat="1">
+    <row r="135" spans="1:10">
       <c r="A135" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="C135" s="6">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D135" s="6"/>
       <c r="E135" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>80</v>
+        <v>422</v>
       </c>
       <c r="G135" s="6">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="H135" s="7">
-        <v>9.9999999999999998E-13</v>
+        <v>1E-14</v>
       </c>
       <c r="I135" s="6">
         <v>1</v>
@@ -6066,27 +6674,28 @@
         <v>58</v>
       </c>
     </row>
-    <row r="136" spans="1:10" s="6" customFormat="1">
+    <row r="136" spans="1:10">
       <c r="A136" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>59</v>
+        <v>433</v>
       </c>
       <c r="C136" s="6">
         <v>1</v>
       </c>
+      <c r="D136" s="6"/>
       <c r="E136" s="6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>60</v>
+        <v>434</v>
       </c>
       <c r="G136" s="6">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H136" s="7">
-        <v>2.0000000000000001E-9</v>
+        <v>1E-10</v>
       </c>
       <c r="I136" s="6">
         <v>1</v>
@@ -6095,56 +6704,58 @@
         <v>58</v>
       </c>
     </row>
-    <row r="137" spans="1:10" s="6" customFormat="1">
+    <row r="137" spans="1:10">
       <c r="A137" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>399</v>
+        <v>196</v>
       </c>
       <c r="C137" s="6">
-        <v>7</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D137" s="6"/>
       <c r="E137" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>400</v>
+        <v>197</v>
       </c>
       <c r="G137" s="6">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="H137" s="7">
-        <v>4.9999999999999997E-12</v>
+        <v>2E-12</v>
       </c>
       <c r="I137" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J137" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="138" spans="1:10" s="6" customFormat="1">
+    <row r="138" spans="1:10">
       <c r="A138" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>56</v>
+        <v>372</v>
       </c>
       <c r="C138" s="6">
         <v>1</v>
       </c>
+      <c r="D138" s="6"/>
       <c r="E138" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>57</v>
+        <v>373</v>
       </c>
       <c r="G138" s="6">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="H138" s="7">
-        <v>7.0000000000000001E-15</v>
+        <v>8.9999999999999999E-10</v>
       </c>
       <c r="I138" s="6">
         <v>1</v>
@@ -6158,26 +6769,26 @@
         <v>5</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="C139" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D139" s="6"/>
       <c r="E139" s="6" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="G139" s="6">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="H139" s="7">
-        <v>1E-14</v>
+        <v>5.0000000000000003E-10</v>
       </c>
       <c r="I139" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J139" s="6" t="s">
         <v>58</v>
@@ -6188,29 +6799,29 @@
         <v>5</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>433</v>
+        <v>103</v>
       </c>
       <c r="C140" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D140" s="6"/>
       <c r="E140" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>434</v>
+        <v>104</v>
       </c>
       <c r="G140" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H140" s="7">
-        <v>1E-10</v>
+        <v>2.0000000000000001E-10</v>
       </c>
       <c r="I140" s="6">
         <v>1</v>
       </c>
       <c r="J140" s="6" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -6218,29 +6829,29 @@
         <v>5</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>196</v>
+        <v>256</v>
       </c>
       <c r="C141" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D141" s="6"/>
       <c r="E141" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>197</v>
+        <v>257</v>
       </c>
       <c r="G141" s="6">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="H141" s="7">
-        <v>2E-12</v>
+        <v>8.0000000000000003E-10</v>
       </c>
       <c r="I141" s="6">
         <v>2</v>
       </c>
       <c r="J141" s="6" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -6248,297 +6859,293 @@
         <v>5</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="C142" s="6">
         <v>1</v>
       </c>
       <c r="D142" s="6"/>
       <c r="E142" s="6" t="s">
-        <v>11</v>
+        <v>349</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="G142" s="6">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="H142" s="7">
-        <v>8.9999999999999999E-10</v>
+        <v>9.9999999999999998E-17</v>
       </c>
       <c r="I142" s="6">
         <v>1</v>
       </c>
       <c r="J142" s="6" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="143" spans="1:10">
-      <c r="A143" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="C143" s="6">
-        <v>1</v>
-      </c>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F143" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="G143" s="6">
-        <v>0.06</v>
-      </c>
-      <c r="H143" s="7">
-        <v>5.0000000000000003E-10</v>
-      </c>
-      <c r="I143" s="6">
+      <c r="A143" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C143" s="2">
+        <v>1</v>
+      </c>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G143" s="2">
+        <v>1</v>
+      </c>
+      <c r="H143" s="2">
+        <v>0</v>
+      </c>
+      <c r="I143" s="2">
+        <v>1</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C144" s="2">
+        <v>1</v>
+      </c>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G144" s="2">
+        <v>1</v>
+      </c>
+      <c r="H144" s="2">
+        <v>0</v>
+      </c>
+      <c r="I144" s="2">
+        <v>1</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" t="s">
+        <v>67</v>
+      </c>
+      <c r="B145" t="s">
+        <v>145</v>
+      </c>
+      <c r="C145">
+        <v>4</v>
+      </c>
+      <c r="E145" t="s">
+        <v>18</v>
+      </c>
+      <c r="F145" t="s">
+        <v>146</v>
+      </c>
+      <c r="G145">
+        <v>0.09</v>
+      </c>
+      <c r="H145" s="1">
+        <v>5.0000000000000002E-23</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" t="s">
+        <v>67</v>
+      </c>
+      <c r="B146" t="s">
+        <v>145</v>
+      </c>
+      <c r="C146">
+        <v>4</v>
+      </c>
+      <c r="E146" t="s">
+        <v>18</v>
+      </c>
+      <c r="F146" t="s">
+        <v>486</v>
+      </c>
+      <c r="G146">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H146" s="1">
+        <v>2E-19</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="C147" s="6">
+        <v>4</v>
+      </c>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="G147" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H147" s="7">
+        <v>1.0000000000000001E-17</v>
+      </c>
+      <c r="I147" s="6">
         <v>2</v>
       </c>
-      <c r="J143" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10">
-      <c r="A144" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C144" s="6">
-        <v>4</v>
-      </c>
-      <c r="D144" s="6"/>
-      <c r="E144" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F144" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G144" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H144" s="7">
-        <v>2.0000000000000001E-10</v>
-      </c>
-      <c r="I144" s="6">
-        <v>1</v>
-      </c>
-      <c r="J144" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10">
-      <c r="A145" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="C145" s="6">
-        <v>5</v>
-      </c>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F145" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="G145" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="H145" s="7">
-        <v>8.0000000000000003E-10</v>
-      </c>
-      <c r="I145" s="6">
+      <c r="J147" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" s="6" customFormat="1">
+      <c r="A148" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C148" s="6">
+        <v>3</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G148" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="H148" s="7">
+        <v>5.9999999999999997E-18</v>
+      </c>
+      <c r="I148" s="6">
+        <v>1</v>
+      </c>
+      <c r="J148" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" s="6" customFormat="1">
+      <c r="A149" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="C149" s="6">
         <v>2</v>
       </c>
-      <c r="J145" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10">
-      <c r="A146" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="C146" s="6">
-        <v>1</v>
-      </c>
-      <c r="D146" s="6"/>
-      <c r="E146" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="F146" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="G146" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="H146" s="7">
-        <v>9.9999999999999998E-17</v>
-      </c>
-      <c r="I146" s="6">
-        <v>1</v>
-      </c>
-      <c r="J146" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10">
-      <c r="A147" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C147" s="2">
-        <v>1</v>
-      </c>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G147" s="2">
-        <v>1</v>
-      </c>
-      <c r="H147" s="2">
-        <v>0</v>
-      </c>
-      <c r="I147" s="2">
-        <v>1</v>
-      </c>
-      <c r="J147" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10">
-      <c r="A148" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C148" s="2">
-        <v>1</v>
-      </c>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G148" s="2">
-        <v>1</v>
-      </c>
-      <c r="H148" s="2">
-        <v>0</v>
-      </c>
-      <c r="I148" s="2">
-        <v>1</v>
-      </c>
-      <c r="J148" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10">
-      <c r="A149" t="s">
-        <v>67</v>
-      </c>
-      <c r="B149" t="s">
-        <v>145</v>
-      </c>
-      <c r="C149">
-        <v>4</v>
-      </c>
-      <c r="E149" t="s">
-        <v>18</v>
-      </c>
-      <c r="F149" t="s">
-        <v>146</v>
-      </c>
-      <c r="G149">
-        <v>0.09</v>
-      </c>
-      <c r="H149" s="1">
-        <v>5.0000000000000002E-23</v>
-      </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
-      <c r="J149" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10">
-      <c r="A150" t="s">
-        <v>67</v>
-      </c>
-      <c r="B150" t="s">
-        <v>145</v>
-      </c>
-      <c r="C150">
-        <v>4</v>
-      </c>
-      <c r="E150" t="s">
-        <v>18</v>
-      </c>
-      <c r="F150" t="s">
-        <v>486</v>
-      </c>
-      <c r="G150">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H150" s="1">
-        <v>2E-19</v>
-      </c>
-      <c r="I150">
-        <v>0</v>
-      </c>
-      <c r="J150" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10">
+      <c r="E149" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="G149" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="H149" s="7">
+        <v>5.0000000000000004E-16</v>
+      </c>
+      <c r="I149" s="6">
+        <v>1</v>
+      </c>
+      <c r="J149" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" s="6" customFormat="1">
+      <c r="A150" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C150" s="6">
+        <v>1</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G150" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H150" s="7">
+        <v>4.0000000000000003E-17</v>
+      </c>
+      <c r="I150" s="6">
+        <v>1</v>
+      </c>
+      <c r="J150" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" s="6" customFormat="1">
       <c r="A151" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>489</v>
+        <v>17</v>
       </c>
       <c r="C151" s="6">
-        <v>4</v>
-      </c>
-      <c r="D151" s="6"/>
+        <v>2</v>
+      </c>
       <c r="E151" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>490</v>
+        <v>19</v>
       </c>
       <c r="G151" s="6">
-        <v>0.14000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="H151" s="7">
-        <v>1.0000000000000001E-17</v>
+        <v>2.9999999999999998E-18</v>
       </c>
       <c r="I151" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J151" s="6" t="s">
-        <v>491</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152" spans="1:10" s="6" customFormat="1">
@@ -6546,28 +7153,28 @@
         <v>5</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>163</v>
+        <v>413</v>
       </c>
       <c r="C152" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E152" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>164</v>
+        <v>414</v>
       </c>
       <c r="G152" s="6">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="H152" s="7">
-        <v>5.9999999999999997E-18</v>
+        <v>1E-14</v>
       </c>
       <c r="I152" s="6">
         <v>1</v>
       </c>
       <c r="J152" s="6" t="s">
-        <v>165</v>
+        <v>20</v>
       </c>
     </row>
     <row r="153" spans="1:10" s="6" customFormat="1">
@@ -6575,28 +7182,28 @@
         <v>5</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>418</v>
+        <v>264</v>
       </c>
       <c r="C153" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E153" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>419</v>
+        <v>265</v>
       </c>
       <c r="G153" s="6">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="H153" s="7">
-        <v>5.0000000000000004E-16</v>
+        <v>6E-10</v>
       </c>
       <c r="I153" s="6">
         <v>1</v>
       </c>
       <c r="J153" s="6" t="s">
-        <v>420</v>
+        <v>20</v>
       </c>
     </row>
     <row r="154" spans="1:10" s="6" customFormat="1">
@@ -6604,7 +7211,7 @@
         <v>5</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>26</v>
+        <v>328</v>
       </c>
       <c r="C154" s="6">
         <v>1</v>
@@ -6613,19 +7220,19 @@
         <v>18</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>27</v>
+        <v>329</v>
       </c>
       <c r="G154" s="6">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
       <c r="H154" s="7">
-        <v>4.0000000000000003E-17</v>
+        <v>7.9999999999999998E-12</v>
       </c>
       <c r="I154" s="6">
         <v>1</v>
       </c>
       <c r="J154" s="6" t="s">
-        <v>20</v>
+        <v>330</v>
       </c>
     </row>
     <row r="155" spans="1:10" s="6" customFormat="1">
@@ -6633,86 +7240,88 @@
         <v>5</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="C155" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E155" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="G155" s="6">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="H155" s="7">
-        <v>2.9999999999999998E-18</v>
+        <v>3.9999999999999999E-16</v>
       </c>
       <c r="I155" s="6">
         <v>1</v>
       </c>
       <c r="J155" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" s="6" customFormat="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>413</v>
+        <v>40</v>
       </c>
       <c r="C156" s="6">
         <v>1</v>
       </c>
+      <c r="D156" s="6"/>
       <c r="E156" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>414</v>
+        <v>41</v>
       </c>
       <c r="G156" s="6">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="H156" s="7">
-        <v>1E-14</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="I156" s="6">
         <v>1</v>
       </c>
       <c r="J156" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" s="6" customFormat="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>264</v>
+        <v>81</v>
       </c>
       <c r="C157" s="6">
         <v>1</v>
       </c>
+      <c r="D157" s="6"/>
       <c r="E157" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>265</v>
+        <v>82</v>
       </c>
       <c r="G157" s="6">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="H157" s="7">
-        <v>6E-10</v>
+        <v>3E-9</v>
       </c>
       <c r="I157" s="6">
         <v>1</v>
       </c>
       <c r="J157" s="6" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="158" spans="1:10" s="6" customFormat="1">
@@ -6720,7 +7329,7 @@
         <v>5</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="C158" s="6">
         <v>1</v>
@@ -6729,19 +7338,19 @@
         <v>18</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="G158" s="6">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
       <c r="H158" s="7">
-        <v>7.9999999999999998E-12</v>
+        <v>6E-9</v>
       </c>
       <c r="I158" s="6">
         <v>1</v>
       </c>
       <c r="J158" s="6" t="s">
-        <v>330</v>
+        <v>42</v>
       </c>
     </row>
     <row r="159" spans="1:10" s="6" customFormat="1">
@@ -6749,7 +7358,7 @@
         <v>5</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>110</v>
+        <v>408</v>
       </c>
       <c r="C159" s="6">
         <v>1</v>
@@ -6758,13 +7367,13 @@
         <v>18</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>111</v>
+        <v>409</v>
       </c>
       <c r="G159" s="6">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="H159" s="7">
-        <v>3.9999999999999999E-16</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="I159" s="6">
         <v>1</v>
@@ -6773,25 +7382,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" s="6" customFormat="1">
       <c r="A160" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>40</v>
+        <v>337</v>
       </c>
       <c r="C160" s="6">
         <v>1</v>
       </c>
-      <c r="D160" s="6"/>
       <c r="E160" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>41</v>
+        <v>338</v>
       </c>
       <c r="G160" s="6">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="H160" s="7">
         <v>1.0000000000000001E-9</v>
@@ -6803,28 +7411,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" s="6" customFormat="1">
       <c r="A161" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>81</v>
+        <v>259</v>
       </c>
       <c r="C161" s="6">
         <v>1</v>
       </c>
-      <c r="D161" s="6"/>
       <c r="E161" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>82</v>
+        <v>260</v>
       </c>
       <c r="G161" s="6">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="H161" s="7">
-        <v>3E-9</v>
+        <v>2.9999999999999998E-13</v>
       </c>
       <c r="I161" s="6">
         <v>1</v>
@@ -6833,27 +7440,28 @@
         <v>42</v>
       </c>
     </row>
-    <row r="162" spans="1:10" s="6" customFormat="1">
+    <row r="162" spans="1:10">
       <c r="A162" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C162" s="6">
         <v>1</v>
       </c>
+      <c r="D162" s="6"/>
       <c r="E162" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G162" s="6">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="H162" s="7">
-        <v>6E-9</v>
+        <v>5.0000000000000001E-9</v>
       </c>
       <c r="I162" s="6">
         <v>1</v>
@@ -6862,27 +7470,28 @@
         <v>42</v>
       </c>
     </row>
-    <row r="163" spans="1:10" s="6" customFormat="1">
+    <row r="163" spans="1:10">
       <c r="A163" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>408</v>
+        <v>49</v>
       </c>
       <c r="C163" s="6">
         <v>1</v>
       </c>
+      <c r="D163" s="6"/>
       <c r="E163" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>409</v>
+        <v>50</v>
       </c>
       <c r="G163" s="6">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="H163" s="7">
-        <v>1.0000000000000001E-9</v>
+        <v>2.0000000000000001E-9</v>
       </c>
       <c r="I163" s="6">
         <v>1</v>
@@ -6891,27 +7500,28 @@
         <v>42</v>
       </c>
     </row>
-    <row r="164" spans="1:10" s="6" customFormat="1">
+    <row r="164" spans="1:10">
       <c r="A164" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>337</v>
+        <v>112</v>
       </c>
       <c r="C164" s="6">
         <v>1</v>
       </c>
+      <c r="D164" s="6"/>
       <c r="E164" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>338</v>
+        <v>113</v>
       </c>
       <c r="G164" s="6">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="H164" s="7">
-        <v>1.0000000000000001E-9</v>
+        <v>6.0000000000000003E-12</v>
       </c>
       <c r="I164" s="6">
         <v>1</v>
@@ -6920,27 +7530,28 @@
         <v>42</v>
       </c>
     </row>
-    <row r="165" spans="1:10" s="6" customFormat="1">
+    <row r="165" spans="1:10">
       <c r="A165" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>259</v>
+        <v>388</v>
       </c>
       <c r="C165" s="6">
         <v>1</v>
       </c>
+      <c r="D165" s="6"/>
       <c r="E165" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>260</v>
+        <v>389</v>
       </c>
       <c r="G165" s="6">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="H165" s="7">
-        <v>2.9999999999999998E-13</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="I165" s="6">
         <v>1</v>
@@ -6954,23 +7565,23 @@
         <v>5</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>306</v>
+        <v>448</v>
       </c>
       <c r="C166" s="6">
         <v>1</v>
       </c>
       <c r="D166" s="6"/>
       <c r="E166" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>307</v>
+        <v>449</v>
       </c>
       <c r="G166" s="6">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="H166" s="7">
-        <v>5.0000000000000001E-9</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="I166" s="6">
         <v>1</v>
@@ -6984,23 +7595,23 @@
         <v>5</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>49</v>
+        <v>455</v>
       </c>
       <c r="C167" s="6">
         <v>1</v>
       </c>
       <c r="D167" s="6"/>
       <c r="E167" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>50</v>
+        <v>456</v>
       </c>
       <c r="G167" s="6">
         <v>0.11</v>
       </c>
       <c r="H167" s="7">
-        <v>2.0000000000000001E-9</v>
+        <v>2E-12</v>
       </c>
       <c r="I167" s="6">
         <v>1</v>
@@ -7014,7 +7625,7 @@
         <v>5</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>112</v>
+        <v>494</v>
       </c>
       <c r="C168" s="6">
         <v>1</v>
@@ -7024,13 +7635,13 @@
         <v>11</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>113</v>
+        <v>495</v>
       </c>
       <c r="G168" s="6">
         <v>0.11</v>
       </c>
       <c r="H168" s="7">
-        <v>6.0000000000000003E-12</v>
+        <v>2E-12</v>
       </c>
       <c r="I168" s="6">
         <v>1</v>
@@ -7044,23 +7655,23 @@
         <v>5</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>388</v>
+        <v>114</v>
       </c>
       <c r="C169" s="6">
         <v>1</v>
       </c>
       <c r="D169" s="6"/>
       <c r="E169" s="6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>389</v>
+        <v>115</v>
       </c>
       <c r="G169" s="6">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="H169" s="7">
-        <v>9.9999999999999994E-12</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="I169" s="6">
         <v>1</v>
@@ -7074,23 +7685,23 @@
         <v>5</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>448</v>
+        <v>194</v>
       </c>
       <c r="C170" s="6">
         <v>1</v>
       </c>
       <c r="D170" s="6"/>
       <c r="E170" s="6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>449</v>
+        <v>195</v>
       </c>
       <c r="G170" s="6">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="H170" s="7">
-        <v>9.9999999999999994E-12</v>
+        <v>4.0000000000000002E-9</v>
       </c>
       <c r="I170" s="6">
         <v>1</v>
@@ -7104,23 +7715,23 @@
         <v>5</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>455</v>
+        <v>284</v>
       </c>
       <c r="C171" s="6">
         <v>1</v>
       </c>
       <c r="D171" s="6"/>
       <c r="E171" s="6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>456</v>
+        <v>285</v>
       </c>
       <c r="G171" s="6">
-        <v>0.11</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H171" s="7">
-        <v>2E-12</v>
+        <v>3.9999999999999999E-12</v>
       </c>
       <c r="I171" s="6">
         <v>1</v>
@@ -7129,28 +7740,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" s="6" customFormat="1">
       <c r="A172" s="6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>494</v>
+        <v>390</v>
       </c>
       <c r="C172" s="6">
         <v>1</v>
       </c>
-      <c r="D172" s="6"/>
       <c r="E172" s="6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>495</v>
+        <v>391</v>
       </c>
       <c r="G172" s="6">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="H172" s="7">
-        <v>2E-12</v>
+        <v>7.9999999999999997E-72</v>
       </c>
       <c r="I172" s="6">
         <v>1</v>
@@ -7159,28 +7769,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" s="6" customFormat="1">
       <c r="A173" s="6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>114</v>
+        <v>466</v>
       </c>
       <c r="C173" s="6">
         <v>1</v>
       </c>
-      <c r="D173" s="6"/>
       <c r="E173" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>115</v>
+        <v>467</v>
       </c>
       <c r="G173" s="6">
-        <v>0.1</v>
+        <v>0.23</v>
       </c>
       <c r="H173" s="7">
-        <v>1.0000000000000001E-9</v>
+        <v>6.0000000000000003E-72</v>
       </c>
       <c r="I173" s="6">
         <v>1</v>
@@ -7194,7 +7803,7 @@
         <v>5</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="C174" s="6">
         <v>1</v>
@@ -7204,19 +7813,19 @@
         <v>18</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="G174" s="6">
-        <v>0.09</v>
+        <v>0.23</v>
       </c>
       <c r="H174" s="7">
-        <v>4.0000000000000002E-9</v>
+        <v>1E-27</v>
       </c>
       <c r="I174" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J174" s="6" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -7224,87 +7833,89 @@
         <v>5</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>284</v>
+        <v>147</v>
       </c>
       <c r="C175" s="6">
         <v>1</v>
       </c>
       <c r="D175" s="6"/>
       <c r="E175" s="6" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>285</v>
+        <v>447</v>
       </c>
       <c r="G175" s="6">
-        <v>7.0000000000000007E-2</v>
+        <v>0.23</v>
       </c>
       <c r="H175" s="7">
-        <v>3.9999999999999999E-12</v>
+        <v>2.0000000000000001E-13</v>
       </c>
       <c r="I175" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J175" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" s="6" customFormat="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="6" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>390</v>
+        <v>64</v>
       </c>
       <c r="C176" s="6">
         <v>1</v>
       </c>
+      <c r="D176" s="6"/>
       <c r="E176" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>391</v>
+        <v>65</v>
       </c>
       <c r="G176" s="6">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="H176" s="7">
-        <v>7.9999999999999997E-72</v>
+        <v>5.0000000000000002E-27</v>
       </c>
       <c r="I176" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J176" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" s="6" customFormat="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="6" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>466</v>
+        <v>136</v>
       </c>
       <c r="C177" s="6">
         <v>1</v>
       </c>
+      <c r="D177" s="6"/>
       <c r="E177" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>467</v>
+        <v>137</v>
       </c>
       <c r="G177" s="6">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="H177" s="7">
-        <v>6.0000000000000003E-72</v>
+        <v>8.9999999999999995E-15</v>
       </c>
       <c r="I177" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J177" s="6" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -7312,7 +7923,7 @@
         <v>5</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>170</v>
+        <v>314</v>
       </c>
       <c r="C178" s="6">
         <v>1</v>
@@ -7322,16 +7933,16 @@
         <v>18</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>171</v>
+        <v>315</v>
       </c>
       <c r="G178" s="6">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="H178" s="7">
-        <v>1E-27</v>
+        <v>2.9999999999999998E-14</v>
       </c>
       <c r="I178" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J178" s="6" t="s">
         <v>66</v>
@@ -7342,26 +7953,26 @@
         <v>5</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C179" s="6">
         <v>1</v>
       </c>
       <c r="D179" s="6"/>
       <c r="E179" s="6" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>447</v>
+        <v>131</v>
       </c>
       <c r="G179" s="6">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="H179" s="7">
-        <v>2.0000000000000001E-13</v>
+        <v>8E-14</v>
       </c>
       <c r="I179" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J179" s="6" t="s">
         <v>66</v>
@@ -7372,7 +7983,7 @@
         <v>5</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>64</v>
+        <v>297</v>
       </c>
       <c r="C180" s="6">
         <v>1</v>
@@ -7382,16 +7993,16 @@
         <v>18</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>65</v>
+        <v>298</v>
       </c>
       <c r="G180" s="6">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="H180" s="7">
-        <v>5.0000000000000002E-27</v>
+        <v>7.9999999999999998E-19</v>
       </c>
       <c r="I180" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J180" s="6" t="s">
         <v>66</v>
@@ -7402,23 +8013,23 @@
         <v>5</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C181" s="6">
         <v>1</v>
       </c>
       <c r="D181" s="6"/>
       <c r="E181" s="6" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="G181" s="6">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
       <c r="H181" s="7">
-        <v>8.9999999999999995E-15</v>
+        <v>2.0000000000000001E-10</v>
       </c>
       <c r="I181" s="6">
         <v>2</v>
@@ -7432,23 +8043,23 @@
         <v>5</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>314</v>
+        <v>492</v>
       </c>
       <c r="C182" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D182" s="6"/>
       <c r="E182" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>315</v>
+        <v>493</v>
       </c>
       <c r="G182" s="6">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
       <c r="H182" s="7">
-        <v>2.9999999999999998E-14</v>
+        <v>7.0000000000000001E-12</v>
       </c>
       <c r="I182" s="6">
         <v>1</v>
@@ -7462,23 +8073,23 @@
         <v>5</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>130</v>
+        <v>204</v>
       </c>
       <c r="C183" s="6">
         <v>1</v>
       </c>
       <c r="D183" s="6"/>
       <c r="E183" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>131</v>
+        <v>205</v>
       </c>
       <c r="G183" s="6">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="H183" s="7">
-        <v>8E-14</v>
+        <v>6.9999999999999996E-10</v>
       </c>
       <c r="I183" s="6">
         <v>1</v>
@@ -7492,23 +8103,23 @@
         <v>5</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C184" s="6">
         <v>1</v>
       </c>
       <c r="D184" s="6"/>
       <c r="E184" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G184" s="6">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="H184" s="7">
-        <v>7.9999999999999998E-19</v>
+        <v>8.9999999999999999E-11</v>
       </c>
       <c r="I184" s="6">
         <v>1</v>
@@ -7522,29 +8133,29 @@
         <v>5</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>147</v>
+        <v>351</v>
       </c>
       <c r="C185" s="6">
         <v>1</v>
       </c>
       <c r="D185" s="6"/>
       <c r="E185" s="6" t="s">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>149</v>
+        <v>352</v>
       </c>
       <c r="G185" s="6">
-        <v>0.13</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H185" s="7">
-        <v>2.0000000000000001E-10</v>
+        <v>3.0000000000000001E-12</v>
       </c>
       <c r="I185" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J185" s="6" t="s">
-        <v>66</v>
+        <v>353</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -7552,29 +8163,29 @@
         <v>5</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>492</v>
+        <v>384</v>
       </c>
       <c r="C186" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D186" s="6"/>
       <c r="E186" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>493</v>
+        <v>385</v>
       </c>
       <c r="G186" s="6">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
       <c r="H186" s="7">
-        <v>7.0000000000000001E-12</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="I186" s="6">
         <v>1</v>
       </c>
       <c r="J186" s="6" t="s">
-        <v>66</v>
+        <v>353</v>
       </c>
     </row>
     <row r="187" spans="1:10">
@@ -7582,7 +8193,7 @@
         <v>5</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>204</v>
+        <v>470</v>
       </c>
       <c r="C187" s="6">
         <v>1</v>
@@ -7592,19 +8203,19 @@
         <v>18</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>205</v>
+        <v>471</v>
       </c>
       <c r="G187" s="6">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="H187" s="7">
-        <v>6.9999999999999996E-10</v>
+        <v>2.9999999999999998E-25</v>
       </c>
       <c r="I187" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J187" s="6" t="s">
-        <v>66</v>
+        <v>472</v>
       </c>
     </row>
     <row r="188" spans="1:10">
@@ -7612,29 +8223,29 @@
         <v>5</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>295</v>
+        <v>61</v>
       </c>
       <c r="C188" s="6">
         <v>1</v>
       </c>
       <c r="D188" s="6"/>
       <c r="E188" s="6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>296</v>
+        <v>62</v>
       </c>
       <c r="G188" s="6">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="H188" s="7">
-        <v>8.9999999999999999E-11</v>
+        <v>8.0000000000000006E-15</v>
       </c>
       <c r="I188" s="6">
         <v>1</v>
       </c>
       <c r="J188" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="189" spans="1:10">
@@ -7642,7 +8253,7 @@
         <v>5</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>351</v>
+        <v>180</v>
       </c>
       <c r="C189" s="6">
         <v>1</v>
@@ -7652,19 +8263,19 @@
         <v>18</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>352</v>
+        <v>181</v>
       </c>
       <c r="G189" s="6">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H189" s="7">
-        <v>3.0000000000000001E-12</v>
+        <v>5.0000000000000003E-10</v>
       </c>
       <c r="I189" s="6">
         <v>1</v>
       </c>
       <c r="J189" s="6" t="s">
-        <v>353</v>
+        <v>63</v>
       </c>
     </row>
     <row r="190" spans="1:10">
@@ -7672,7 +8283,7 @@
         <v>5</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="C190" s="6">
         <v>1</v>
@@ -7682,19 +8293,19 @@
         <v>18</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="G190" s="6">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="H190" s="7">
-        <v>1.0000000000000001E-9</v>
+        <v>1E-10</v>
       </c>
       <c r="I190" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J190" s="6" t="s">
-        <v>353</v>
+        <v>63</v>
       </c>
     </row>
     <row r="191" spans="1:10">
@@ -7702,29 +8313,29 @@
         <v>5</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>470</v>
+        <v>410</v>
       </c>
       <c r="C191" s="6">
         <v>1</v>
       </c>
       <c r="D191" s="6"/>
       <c r="E191" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>471</v>
+        <v>411</v>
       </c>
       <c r="G191" s="6">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="H191" s="7">
-        <v>2.9999999999999998E-25</v>
+        <v>2.0000000000000002E-15</v>
       </c>
       <c r="I191" s="6">
         <v>2</v>
       </c>
       <c r="J191" s="6" t="s">
-        <v>472</v>
+        <v>412</v>
       </c>
     </row>
     <row r="192" spans="1:10">
@@ -7732,7 +8343,7 @@
         <v>5</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="C192" s="6">
         <v>1</v>
@@ -7742,19 +8353,19 @@
         <v>18</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="G192" s="6">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="H192" s="7">
-        <v>8.0000000000000006E-15</v>
+        <v>7.9999999999999998E-48</v>
       </c>
       <c r="I192" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J192" s="6" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
     </row>
     <row r="193" spans="1:10">
@@ -7762,7 +8373,7 @@
         <v>5</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="C193" s="6">
         <v>1</v>
@@ -7772,19 +8383,19 @@
         <v>18</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="G193" s="6">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="H193" s="7">
-        <v>5.0000000000000003E-10</v>
+        <v>4.0000000000000001E-13</v>
       </c>
       <c r="I193" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J193" s="6" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -7792,7 +8403,7 @@
         <v>5</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>360</v>
+        <v>127</v>
       </c>
       <c r="C194" s="6">
         <v>1</v>
@@ -7802,19 +8413,19 @@
         <v>18</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="G194" s="6">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H194" s="7">
-        <v>1E-10</v>
+        <v>2.0000000000000001E-17</v>
       </c>
       <c r="I194" s="6">
         <v>2</v>
       </c>
       <c r="J194" s="6" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -7822,29 +8433,29 @@
         <v>5</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>410</v>
+        <v>86</v>
       </c>
       <c r="C195" s="6">
         <v>1</v>
       </c>
       <c r="D195" s="6"/>
       <c r="E195" s="6" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>411</v>
+        <v>87</v>
       </c>
       <c r="G195" s="6">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
       <c r="H195" s="7">
-        <v>2.0000000000000002E-15</v>
+        <v>4.9999999999999999E-17</v>
       </c>
       <c r="I195" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J195" s="6" t="s">
-        <v>412</v>
+        <v>88</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -7852,29 +8463,29 @@
         <v>5</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C196" s="6">
         <v>1</v>
       </c>
       <c r="D196" s="6"/>
       <c r="E196" s="6" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="G196" s="6">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="H196" s="7">
-        <v>7.9999999999999998E-48</v>
+        <v>4.0000000000000003E-17</v>
       </c>
       <c r="I196" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J196" s="6" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -7882,7 +8493,7 @@
         <v>5</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>227</v>
+        <v>430</v>
       </c>
       <c r="C197" s="6">
         <v>1</v>
@@ -7892,19 +8503,19 @@
         <v>18</v>
       </c>
       <c r="F197" s="6" t="s">
-        <v>228</v>
+        <v>431</v>
       </c>
       <c r="G197" s="6">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="H197" s="7">
-        <v>4.0000000000000001E-13</v>
+        <v>3.9999999999999999E-12</v>
       </c>
       <c r="I197" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J197" s="6" t="s">
-        <v>129</v>
+        <v>432</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -7912,29 +8523,29 @@
         <v>5</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="C198" s="6">
         <v>1</v>
       </c>
       <c r="D198" s="6"/>
       <c r="E198" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>366</v>
+        <v>54</v>
       </c>
       <c r="G198" s="6">
-        <v>7.0000000000000007E-2</v>
+        <v>0.12</v>
       </c>
       <c r="H198" s="7">
-        <v>2.0000000000000001E-17</v>
+        <v>1.9999999999999998E-21</v>
       </c>
       <c r="I198" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J198" s="6" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -7942,29 +8553,29 @@
         <v>5</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>86</v>
+        <v>208</v>
       </c>
       <c r="C199" s="6">
         <v>1</v>
       </c>
       <c r="D199" s="6"/>
       <c r="E199" s="6" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>87</v>
+        <v>209</v>
       </c>
       <c r="G199" s="6">
-        <v>0.22</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H199" s="7">
-        <v>4.9999999999999999E-17</v>
+        <v>2.0000000000000001E-9</v>
       </c>
       <c r="I199" s="6">
         <v>1</v>
       </c>
       <c r="J199" s="6" t="s">
-        <v>88</v>
+        <v>210</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -7972,29 +8583,29 @@
         <v>5</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>86</v>
+        <v>289</v>
       </c>
       <c r="C200" s="6">
         <v>1</v>
       </c>
       <c r="D200" s="6"/>
       <c r="E200" s="6" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="F200" s="6" t="s">
-        <v>87</v>
+        <v>290</v>
       </c>
       <c r="G200" s="6">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
       <c r="H200" s="7">
-        <v>4.0000000000000003E-17</v>
+        <v>5.9999999999999997E-13</v>
       </c>
       <c r="I200" s="6">
         <v>1</v>
       </c>
       <c r="J200" s="6" t="s">
-        <v>88</v>
+        <v>291</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -8002,7 +8613,7 @@
         <v>5</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="C201" s="6">
         <v>1</v>
@@ -8012,19 +8623,19 @@
         <v>18</v>
       </c>
       <c r="F201" s="6" t="s">
-        <v>431</v>
+        <v>161</v>
       </c>
       <c r="G201" s="6">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
       <c r="H201" s="7">
-        <v>3.9999999999999999E-12</v>
+        <v>6.9999999999999996E-10</v>
       </c>
       <c r="I201" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J201" s="6" t="s">
-        <v>432</v>
+        <v>162</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -8032,29 +8643,29 @@
         <v>5</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>53</v>
+        <v>211</v>
       </c>
       <c r="C202" s="6">
         <v>1</v>
       </c>
       <c r="D202" s="6"/>
       <c r="E202" s="6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>54</v>
+        <v>212</v>
       </c>
       <c r="G202" s="6">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="H202" s="7">
-        <v>1.9999999999999998E-21</v>
+        <v>6.0000000000000006E-20</v>
       </c>
       <c r="I202" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J202" s="6" t="s">
-        <v>55</v>
+        <v>213</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -8062,29 +8673,29 @@
         <v>5</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>208</v>
+        <v>374</v>
       </c>
       <c r="C203" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D203" s="6"/>
       <c r="E203" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F203" s="6" t="s">
-        <v>209</v>
+        <v>375</v>
       </c>
       <c r="G203" s="6">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H203" s="7">
-        <v>2.0000000000000001E-9</v>
+        <v>6E-9</v>
       </c>
       <c r="I203" s="6">
         <v>1</v>
       </c>
       <c r="J203" s="6" t="s">
-        <v>210</v>
+        <v>376</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -8092,29 +8703,29 @@
         <v>5</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>289</v>
+        <v>435</v>
       </c>
       <c r="C204" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D204" s="6"/>
       <c r="E204" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>290</v>
+        <v>436</v>
       </c>
       <c r="G204" s="6">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H204" s="7">
-        <v>5.9999999999999997E-13</v>
+        <v>2.0000000000000001E-9</v>
       </c>
       <c r="I204" s="6">
         <v>1</v>
       </c>
       <c r="J204" s="6" t="s">
-        <v>291</v>
+        <v>376</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -8122,7 +8733,7 @@
         <v>5</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>160</v>
+        <v>479</v>
       </c>
       <c r="C205" s="6">
         <v>1</v>
@@ -8132,27 +8743,27 @@
         <v>18</v>
       </c>
       <c r="F205" s="6" t="s">
-        <v>161</v>
+        <v>480</v>
       </c>
       <c r="G205" s="6">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="H205" s="7">
-        <v>6.9999999999999996E-10</v>
+        <v>2.0000000000000001E-9</v>
       </c>
       <c r="I205" s="6">
         <v>1</v>
       </c>
       <c r="J205" s="6" t="s">
-        <v>162</v>
+        <v>481</v>
       </c>
     </row>
     <row r="206" spans="1:10">
       <c r="A206" s="6" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>211</v>
+        <v>394</v>
       </c>
       <c r="C206" s="6">
         <v>1</v>
@@ -8162,19 +8773,19 @@
         <v>18</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>212</v>
+        <v>395</v>
       </c>
       <c r="G206" s="6">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="H206" s="7">
-        <v>6.0000000000000006E-20</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="I206" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J206" s="6" t="s">
-        <v>213</v>
+        <v>396</v>
       </c>
     </row>
     <row r="207" spans="1:10">
@@ -8182,29 +8793,29 @@
         <v>5</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C207" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D207" s="6"/>
       <c r="E207" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F207" s="6" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="G207" s="6">
-        <v>0.1</v>
+        <v>0.23</v>
       </c>
       <c r="H207" s="7">
-        <v>6E-9</v>
+        <v>4.0000000000000002E-27</v>
       </c>
       <c r="I207" s="6">
         <v>1</v>
       </c>
       <c r="J207" s="6" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -8212,287 +8823,174 @@
         <v>5</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>435</v>
+        <v>377</v>
       </c>
       <c r="C208" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D208" s="6"/>
       <c r="E208" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F208" s="6" t="s">
-        <v>436</v>
+        <v>378</v>
       </c>
       <c r="G208" s="6">
-        <v>7.0000000000000007E-2</v>
+        <v>0.23</v>
       </c>
       <c r="H208" s="7">
-        <v>2.0000000000000001E-9</v>
+        <v>3.0000000000000001E-27</v>
       </c>
       <c r="I208" s="6">
         <v>1</v>
       </c>
       <c r="J208" s="6" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="209" spans="1:10">
-      <c r="A209" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B209" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="C209" s="6">
-        <v>1</v>
-      </c>
-      <c r="D209" s="6"/>
-      <c r="E209" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F209" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="G209" s="6">
+      <c r="A209" t="s">
+        <v>0</v>
+      </c>
+      <c r="B209" t="s">
+        <v>97</v>
+      </c>
+      <c r="C209">
+        <v>7</v>
+      </c>
+      <c r="D209" t="s">
+        <v>516</v>
+      </c>
+      <c r="E209" t="s">
+        <v>18</v>
+      </c>
+      <c r="F209" t="s">
+        <v>98</v>
+      </c>
+      <c r="G209">
+        <v>0.2</v>
+      </c>
+      <c r="H209" s="1">
+        <v>5.0000000000000003E-129</v>
+      </c>
+      <c r="I209">
+        <v>2</v>
+      </c>
+      <c r="J209" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
+      <c r="A210" t="s">
+        <v>0</v>
+      </c>
+      <c r="B210" t="s">
+        <v>97</v>
+      </c>
+      <c r="C210">
+        <v>7</v>
+      </c>
+      <c r="D210" t="s">
+        <v>516</v>
+      </c>
+      <c r="E210" t="s">
+        <v>18</v>
+      </c>
+      <c r="F210" t="s">
+        <v>261</v>
+      </c>
+      <c r="G210">
         <v>0.09</v>
       </c>
-      <c r="H209" s="7">
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="I209" s="6">
-        <v>1</v>
-      </c>
-      <c r="J209" s="6" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10">
-      <c r="A210" s="6" t="s">
+      <c r="H210" s="1">
+        <v>2.0000000000000001E-63</v>
+      </c>
+      <c r="I210">
+        <v>2</v>
+      </c>
+      <c r="J210" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
+      <c r="A211" t="s">
+        <v>0</v>
+      </c>
+      <c r="B211" t="s">
+        <v>318</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="E211" t="s">
+        <v>18</v>
+      </c>
+      <c r="F211" t="s">
+        <v>319</v>
+      </c>
+      <c r="G211">
+        <v>0.21</v>
+      </c>
+      <c r="H211" s="1">
+        <v>2.0000000000000001E-53</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" s="9" customFormat="1">
+      <c r="A212" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C212" s="9">
+        <v>1</v>
+      </c>
+      <c r="E212" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F212" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="G212" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="H212" s="10">
+        <v>7.0000000000000001E-12</v>
+      </c>
+      <c r="I212" s="9">
+        <v>5</v>
+      </c>
+      <c r="J212" s="9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
+      <c r="A214" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B210" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="C210" s="6">
-        <v>1</v>
-      </c>
-      <c r="D210" s="6"/>
-      <c r="E210" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F210" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="G210" s="6">
-        <v>0.12</v>
-      </c>
-      <c r="H210" s="7">
-        <v>1.0000000000000001E-9</v>
-      </c>
-      <c r="I210" s="6">
-        <v>1</v>
-      </c>
-      <c r="J210" s="6" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10">
-      <c r="A211" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B211" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="C211" s="6">
-        <v>1</v>
-      </c>
-      <c r="D211" s="6"/>
-      <c r="E211" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F211" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="G211" s="6">
-        <v>0.23</v>
-      </c>
-      <c r="H211" s="7">
-        <v>4.0000000000000002E-27</v>
-      </c>
-      <c r="I211" s="6">
-        <v>1</v>
-      </c>
-      <c r="J211" s="6" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10">
-      <c r="A212" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B212" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="C212" s="6">
-        <v>1</v>
-      </c>
-      <c r="D212" s="6"/>
-      <c r="E212" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F212" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="G212" s="6">
-        <v>0.23</v>
-      </c>
-      <c r="H212" s="7">
-        <v>3.0000000000000001E-27</v>
-      </c>
-      <c r="I212" s="6">
-        <v>1</v>
-      </c>
-      <c r="J212" s="6" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10">
-      <c r="A213" t="s">
-        <v>0</v>
-      </c>
-      <c r="B213" t="s">
-        <v>97</v>
-      </c>
-      <c r="C213">
-        <v>7</v>
-      </c>
-      <c r="E213" t="s">
-        <v>18</v>
-      </c>
-      <c r="F213" t="s">
-        <v>98</v>
-      </c>
-      <c r="G213">
-        <v>0.2</v>
-      </c>
-      <c r="H213" s="1">
-        <v>5.0000000000000003E-129</v>
-      </c>
-      <c r="I213">
-        <v>2</v>
-      </c>
-      <c r="J213" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10">
-      <c r="A214" t="s">
-        <v>0</v>
-      </c>
-      <c r="B214" t="s">
-        <v>97</v>
-      </c>
-      <c r="C214">
-        <v>7</v>
-      </c>
-      <c r="E214" t="s">
-        <v>18</v>
-      </c>
-      <c r="F214" t="s">
-        <v>261</v>
-      </c>
-      <c r="G214">
-        <v>0.09</v>
-      </c>
-      <c r="H214" s="1">
-        <v>2.0000000000000001E-63</v>
-      </c>
-      <c r="I214">
-        <v>2</v>
-      </c>
-      <c r="J214" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10">
-      <c r="A215" t="s">
-        <v>0</v>
-      </c>
-      <c r="B215" t="s">
-        <v>318</v>
-      </c>
-      <c r="C215">
-        <v>1</v>
-      </c>
-      <c r="E215" t="s">
-        <v>18</v>
-      </c>
-      <c r="F215" t="s">
-        <v>319</v>
-      </c>
-      <c r="G215">
-        <v>0.21</v>
-      </c>
-      <c r="H215" s="1">
-        <v>2.0000000000000001E-53</v>
-      </c>
-      <c r="I215">
-        <v>1</v>
-      </c>
-      <c r="J215" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10">
-      <c r="A216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B216" t="s">
-        <v>354</v>
-      </c>
-      <c r="C216">
-        <v>1</v>
-      </c>
-      <c r="E216" t="s">
-        <v>156</v>
-      </c>
-      <c r="F216" t="s">
-        <v>355</v>
-      </c>
-      <c r="G216">
-        <v>0.09</v>
-      </c>
-      <c r="H216" s="1">
-        <v>7.0000000000000001E-12</v>
-      </c>
-      <c r="I216">
-        <v>5</v>
-      </c>
-      <c r="J216" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10">
-      <c r="A218" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B218" s="2" t="s">
+      <c r="B214" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="C218" s="2"/>
-      <c r="D218" s="2"/>
-      <c r="E218" s="2"/>
-      <c r="F218" s="2"/>
-      <c r="G218" s="2"/>
-      <c r="H218" s="3"/>
-      <c r="I218" s="2"/>
-      <c r="J218" s="2"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="2"/>
+      <c r="H214" s="3"/>
+      <c r="I214" s="2"/>
+      <c r="J214" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:J106">
-    <sortCondition ref="A2:A106"/>
-    <sortCondition descending="1" ref="G2:G106"/>
+  <sortState ref="A11:K64">
+    <sortCondition ref="E11:E64"/>
+    <sortCondition ref="I11:I64"/>
+    <sortCondition ref="J11:J64"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/data/out.targets.7.filtered.10000.all.pks.nrps.unique.xlsx
+++ b/data/out.targets.7.filtered.10000.all.pks.nrps.unique.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24800" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="24240" windowHeight="15040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="out.targets.7.filtered.10000.al" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="524">
   <si>
     <t>mupM_Isoleucyl_tRNA_synthetase_mupirocin</t>
   </si>
@@ -1585,6 +1585,12 @@
   </si>
   <si>
     <t>Updated Nov-14-2016</t>
+  </si>
+  <si>
+    <t>housekeeping copy</t>
+  </si>
+  <si>
+    <t>missing positive control,Target is 14.5kb from KS</t>
   </si>
 </sst>
 </file>
@@ -1669,8 +1675,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="337">
+  <cellStyleXfs count="343">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2027,7 +2039,7 @@
     <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="337">
+  <cellStyles count="343">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2196,6 +2208,9 @@
     <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2364,6 +2379,9 @@
     <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2693,24 +2711,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K214"/>
+  <dimension ref="A1:L214"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B218" sqref="B218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1">
+    <row r="2" spans="1:12" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>92</v>
       </c>
@@ -2720,31 +2739,31 @@
       <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
       <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
         <v>0</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>12</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>502</v>
+        <v>523</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2754,8 +2773,9 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" s="2" customFormat="1">
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -2768,26 +2788,27 @@
       <c r="D4" t="s">
         <v>504</v>
       </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
+      <c r="E4"/>
       <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
         <v>358</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.49</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -2800,26 +2821,26 @@
       <c r="D5" t="s">
         <v>504</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>35</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.36</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>2E-140</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>2</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="4" customFormat="1">
+    <row r="6" spans="1:12" s="4" customFormat="1">
       <c r="A6" s="4" t="s">
         <v>32</v>
       </c>
@@ -2833,25 +2854,28 @@
         <v>503</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>0.32</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I6" s="5">
         <v>9.9999999999999993E-130</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>6</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="4" customFormat="1">
+    <row r="7" spans="1:12" s="4" customFormat="1">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -2864,27 +2888,28 @@
       <c r="D7" t="s">
         <v>504</v>
       </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
+      <c r="E7"/>
       <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
         <v>169</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.23</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>1.9999999999999999E-88</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -2897,29 +2922,29 @@
       <c r="D8" t="s">
         <v>504</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>237</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>324</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.23</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>9.9999999999999999E-93</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>12</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:11">
+    <row r="9" spans="1:12">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -2933,11 +2958,12 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -2947,27 +2973,27 @@
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>7</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>8</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>3E-9</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" s="2" customFormat="1">
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" s="2" customFormat="1">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -2978,27 +3004,28 @@
         <v>1</v>
       </c>
       <c r="D12"/>
-      <c r="E12" t="s">
+      <c r="E12"/>
+      <c r="F12" t="s">
         <v>34</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>424</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.13</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>6E-9</v>
       </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" s="6" customFormat="1">
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" s="6" customFormat="1">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -3009,26 +3036,27 @@
         <v>2</v>
       </c>
       <c r="D13"/>
-      <c r="E13" t="s">
+      <c r="E13"/>
+      <c r="F13" t="s">
         <v>34</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>383</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>6.9999999999999996E-10</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>2</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="6" customFormat="1">
+    <row r="14" spans="1:12" s="6" customFormat="1">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -3039,26 +3067,27 @@
         <v>9</v>
       </c>
       <c r="D14"/>
-      <c r="E14" t="s">
+      <c r="E14"/>
+      <c r="F14" t="s">
         <v>34</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>287</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.08</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>4.0000000000000002E-9</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>2</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="6" customFormat="1">
+    <row r="15" spans="1:12" s="6" customFormat="1">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -3069,26 +3098,27 @@
         <v>22</v>
       </c>
       <c r="D15"/>
-      <c r="E15" t="s">
+      <c r="E15"/>
+      <c r="F15" t="s">
         <v>34</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>346</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>3</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="2" customFormat="1">
+    <row r="16" spans="1:12" s="2" customFormat="1">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -3099,27 +3129,28 @@
         <v>25</v>
       </c>
       <c r="D16"/>
-      <c r="E16" t="s">
+      <c r="E16"/>
+      <c r="F16" t="s">
         <v>142</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>143</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.1</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>4.9999999999999997E-12</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>2</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>144</v>
       </c>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="1:11" s="6" customFormat="1">
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" s="6" customFormat="1">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -3132,27 +3163,28 @@
       <c r="D17" t="s">
         <v>504</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17"/>
+      <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>193</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.2</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>2.0000000000000001E-10</v>
       </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
         <v>118</v>
       </c>
-      <c r="K17"/>
-    </row>
-    <row r="18" spans="1:11" s="6" customFormat="1">
+      <c r="L17"/>
+    </row>
+    <row r="18" spans="1:12" s="6" customFormat="1">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -3163,26 +3195,27 @@
         <v>25</v>
       </c>
       <c r="D18"/>
-      <c r="E18" t="s">
+      <c r="E18"/>
+      <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>243</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.11</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>1E-10</v>
       </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="6" customFormat="1">
+    <row r="19" spans="1:12" s="6" customFormat="1">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -3193,26 +3226,27 @@
         <v>2</v>
       </c>
       <c r="D19"/>
-      <c r="E19" t="s">
+      <c r="E19"/>
+      <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>335</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.11</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>3E-9</v>
       </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="16" customFormat="1">
+    <row r="20" spans="1:12" s="16" customFormat="1">
       <c r="A20" s="14" t="s">
         <v>5</v>
       </c>
@@ -3223,26 +3257,27 @@
         <v>3</v>
       </c>
       <c r="D20" s="14"/>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="14"/>
+      <c r="F20" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="G20" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="G20" s="14">
+      <c r="H20" s="14">
         <v>0.08</v>
       </c>
-      <c r="H20" s="15">
+      <c r="I20" s="15">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="I20" s="14">
-        <v>1</v>
-      </c>
-      <c r="J20" s="14" t="s">
+      <c r="J20" s="14">
+        <v>1</v>
+      </c>
+      <c r="K20" s="14" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="6" customFormat="1">
+    <row r="21" spans="1:12" s="6" customFormat="1">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -3253,26 +3288,27 @@
         <v>22</v>
       </c>
       <c r="D21"/>
-      <c r="E21" t="s">
+      <c r="E21"/>
+      <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>167</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.12</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>8.0000000000000003E-10</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>2</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="6" customFormat="1">
+    <row r="22" spans="1:12" s="6" customFormat="1">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -3283,26 +3319,27 @@
         <v>20</v>
       </c>
       <c r="D22"/>
-      <c r="E22" t="s">
+      <c r="E22"/>
+      <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>269</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.12</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>2.0000000000000001E-10</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>2</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="6" customFormat="1">
+    <row r="23" spans="1:12" s="6" customFormat="1">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -3313,27 +3350,28 @@
         <v>3</v>
       </c>
       <c r="D23"/>
-      <c r="E23" t="s">
+      <c r="E23"/>
+      <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>293</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>6E-11</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>2</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>294</v>
       </c>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" s="6" customFormat="1">
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" s="6" customFormat="1">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -3344,26 +3382,27 @@
         <v>1</v>
       </c>
       <c r="D24"/>
-      <c r="E24" t="s">
+      <c r="E24"/>
+      <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>313</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.12</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <v>2E-12</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>3</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="6" customFormat="1">
+    <row r="25" spans="1:12" s="6" customFormat="1">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -3374,27 +3413,28 @@
         <v>4</v>
       </c>
       <c r="D25"/>
-      <c r="E25" t="s">
+      <c r="E25"/>
+      <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>15</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>0.06</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="1">
         <v>6E-9</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>3</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>16</v>
       </c>
-      <c r="K25"/>
-    </row>
-    <row r="26" spans="1:11" s="16" customFormat="1">
+      <c r="L25"/>
+    </row>
+    <row r="26" spans="1:12" s="16" customFormat="1">
       <c r="A26" s="14" t="s">
         <v>5</v>
       </c>
@@ -3405,26 +3445,27 @@
         <v>1</v>
       </c>
       <c r="D26" s="14"/>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="14"/>
+      <c r="F26" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="G26" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="G26" s="14">
+      <c r="H26" s="14">
         <v>0.11</v>
       </c>
-      <c r="H26" s="15">
+      <c r="I26" s="15">
         <v>4.9999999999999999E-13</v>
       </c>
-      <c r="I26" s="14">
+      <c r="J26" s="14">
         <v>6</v>
       </c>
-      <c r="J26" s="14" t="s">
+      <c r="K26" s="14" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="6" customFormat="1">
+    <row r="27" spans="1:12" s="6" customFormat="1">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -3435,26 +3476,27 @@
         <v>12</v>
       </c>
       <c r="D27"/>
-      <c r="E27" t="s">
+      <c r="E27"/>
+      <c r="F27" t="s">
         <v>156</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>157</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>0.09</v>
       </c>
-      <c r="H27" s="1">
+      <c r="I27" s="1">
         <v>3E-9</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>2</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="6" customFormat="1">
+    <row r="28" spans="1:12" s="6" customFormat="1">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -3467,26 +3509,27 @@
       <c r="D28" t="s">
         <v>504</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28"/>
+      <c r="F28" t="s">
         <v>2</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>443</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>0.08</v>
       </c>
-      <c r="H28" s="1">
+      <c r="I28" s="1">
         <v>6E-9</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>8</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="11" customFormat="1">
+    <row r="29" spans="1:12" s="11" customFormat="1">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -3497,27 +3540,28 @@
         <v>4</v>
       </c>
       <c r="D29"/>
-      <c r="E29" t="s">
-        <v>18</v>
-      </c>
+      <c r="E29"/>
       <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s">
         <v>465</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H29" s="1">
+      <c r="I29" s="1">
         <v>3.9999999999999999E-12</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>0</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>441</v>
       </c>
-      <c r="K29" s="6"/>
-    </row>
-    <row r="30" spans="1:11" s="6" customFormat="1">
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="1:12" s="6" customFormat="1">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -3528,26 +3572,27 @@
         <v>2</v>
       </c>
       <c r="D30"/>
-      <c r="E30" t="s">
-        <v>18</v>
-      </c>
+      <c r="E30"/>
       <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s">
         <v>474</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>0.13</v>
       </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
         <v>5.0000000000000001E-9</v>
       </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="6" customFormat="1">
+    <row r="31" spans="1:12" s="6" customFormat="1">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -3558,26 +3603,27 @@
         <v>1</v>
       </c>
       <c r="D31"/>
-      <c r="E31" t="s">
-        <v>18</v>
-      </c>
+      <c r="E31"/>
       <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s">
         <v>117</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H31" s="1">
+      <c r="I31" s="1">
         <v>5.0000000000000001E-9</v>
       </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="6" customFormat="1">
+    <row r="32" spans="1:12" s="6" customFormat="1">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -3588,26 +3634,27 @@
         <v>2</v>
       </c>
       <c r="D32"/>
-      <c r="E32" t="s">
-        <v>18</v>
-      </c>
+      <c r="E32"/>
       <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s">
         <v>247</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>0.13</v>
       </c>
-      <c r="H32" s="1">
+      <c r="I32" s="1">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="6" customFormat="1">
+    <row r="33" spans="1:12" s="6" customFormat="1">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -3618,26 +3665,27 @@
         <v>3</v>
       </c>
       <c r="D33"/>
-      <c r="E33" t="s">
-        <v>18</v>
-      </c>
+      <c r="E33"/>
       <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s">
         <v>465</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H33" s="1">
+      <c r="I33" s="1">
         <v>3.9999999999999999E-12</v>
       </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="6" customFormat="1">
+    <row r="34" spans="1:12" s="6" customFormat="1">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -3648,27 +3696,28 @@
         <v>2</v>
       </c>
       <c r="D34"/>
-      <c r="E34" t="s">
-        <v>18</v>
-      </c>
+      <c r="E34"/>
       <c r="F34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s">
         <v>440</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H34" s="1">
+      <c r="I34" s="1">
         <v>4E-14</v>
       </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
         <v>441</v>
       </c>
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:11" s="6" customFormat="1">
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" s="6" customFormat="1">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -3679,26 +3728,27 @@
         <v>1</v>
       </c>
       <c r="D35"/>
-      <c r="E35" t="s">
-        <v>18</v>
-      </c>
+      <c r="E35"/>
       <c r="F35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s">
         <v>381</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H35" s="1">
+      <c r="I35" s="1">
         <v>6E-9</v>
       </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="6" customFormat="1">
+    <row r="36" spans="1:12" s="6" customFormat="1">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -3709,26 +3759,27 @@
         <v>19</v>
       </c>
       <c r="D36"/>
-      <c r="E36" t="s">
-        <v>18</v>
-      </c>
+      <c r="E36"/>
       <c r="F36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s">
         <v>78</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>0.08</v>
       </c>
-      <c r="H36" s="1">
+      <c r="I36" s="1">
         <v>3E-11</v>
       </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="6" customFormat="1">
+    <row r="37" spans="1:12" s="6" customFormat="1">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -3739,26 +3790,27 @@
         <v>1</v>
       </c>
       <c r="D37"/>
-      <c r="E37" t="s">
-        <v>18</v>
-      </c>
+      <c r="E37"/>
       <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s">
         <v>173</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>0.1</v>
       </c>
-      <c r="H37" s="1">
+      <c r="I37" s="1">
         <v>1.9999999999999999E-11</v>
       </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -3768,27 +3820,27 @@
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="E38" t="s">
-        <v>18</v>
-      </c>
       <c r="F38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s">
         <v>363</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>0.1</v>
       </c>
-      <c r="H38" s="1">
+      <c r="I38" s="1">
         <v>4.0000000000000001E-10</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>2</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>102</v>
       </c>
-      <c r="K38" s="6"/>
-    </row>
-    <row r="39" spans="1:11" s="6" customFormat="1">
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="1:12" s="6" customFormat="1">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -3799,26 +3851,27 @@
         <v>1</v>
       </c>
       <c r="D39"/>
-      <c r="E39" t="s">
-        <v>18</v>
-      </c>
+      <c r="E39"/>
       <c r="F39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s">
         <v>101</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>0.1</v>
       </c>
-      <c r="H39" s="1">
+      <c r="I39" s="1">
         <v>4.0000000000000001E-10</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>3</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="6" customFormat="1">
+    <row r="40" spans="1:12" s="6" customFormat="1">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -3829,26 +3882,27 @@
         <v>1</v>
       </c>
       <c r="D40"/>
-      <c r="E40" t="s">
-        <v>18</v>
-      </c>
+      <c r="E40"/>
       <c r="F40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s">
         <v>344</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>0.1</v>
       </c>
-      <c r="H40" s="1">
+      <c r="I40" s="1">
         <v>7.9999999999999995E-11</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>3</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="6" customFormat="1">
+    <row r="41" spans="1:12" s="6" customFormat="1">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -3859,27 +3913,28 @@
         <v>1</v>
       </c>
       <c r="D41"/>
-      <c r="E41" t="s">
-        <v>18</v>
-      </c>
+      <c r="E41"/>
       <c r="F41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" t="s">
         <v>25</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>0.15</v>
       </c>
-      <c r="H41" s="1">
+      <c r="I41" s="1">
         <v>8.9999999999999995E-9</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>3</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>9</v>
       </c>
-      <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="1:11" s="11" customFormat="1">
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" s="11" customFormat="1">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -3890,27 +3945,28 @@
         <v>1</v>
       </c>
       <c r="D42"/>
-      <c r="E42" t="s">
-        <v>18</v>
-      </c>
+      <c r="E42"/>
       <c r="F42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s">
         <v>393</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H42" s="1">
+      <c r="I42" s="1">
         <v>8.9999999999999995E-9</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>3</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>9</v>
       </c>
-      <c r="K42" s="6"/>
-    </row>
-    <row r="43" spans="1:11" s="6" customFormat="1">
+      <c r="L42" s="6"/>
+    </row>
+    <row r="43" spans="1:12" s="6" customFormat="1">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -3923,26 +3979,27 @@
       <c r="D43" t="s">
         <v>520</v>
       </c>
-      <c r="E43" t="s">
-        <v>18</v>
-      </c>
+      <c r="E43"/>
       <c r="F43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s">
         <v>279</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>0.08</v>
       </c>
-      <c r="H43" s="1">
+      <c r="I43" s="1">
         <v>7.0000000000000001E-12</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>6</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="6" customFormat="1">
+    <row r="44" spans="1:12" s="6" customFormat="1">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -3953,26 +4010,27 @@
         <v>1</v>
       </c>
       <c r="D44"/>
-      <c r="E44" t="s">
-        <v>18</v>
-      </c>
+      <c r="E44"/>
       <c r="F44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s">
         <v>267</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>0.1</v>
       </c>
-      <c r="H44" s="1">
+      <c r="I44" s="1">
         <v>7.0000000000000004E-11</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>7</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="16" customFormat="1">
+    <row r="45" spans="1:12" s="16" customFormat="1">
       <c r="A45" s="14" t="s">
         <v>5</v>
       </c>
@@ -3983,26 +4041,27 @@
         <v>9</v>
       </c>
       <c r="D45" s="14"/>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="14"/>
+      <c r="F45" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="G45" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="G45" s="14">
+      <c r="H45" s="14">
         <v>0.08</v>
       </c>
-      <c r="H45" s="15">
+      <c r="I45" s="15">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="I45" s="14">
+      <c r="J45" s="14">
         <v>9</v>
       </c>
-      <c r="J45" s="14" t="s">
+      <c r="K45" s="14" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="11" customFormat="1">
+    <row r="46" spans="1:12" s="11" customFormat="1">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -4015,27 +4074,28 @@
       <c r="D46" t="s">
         <v>519</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46"/>
+      <c r="F46" t="s">
         <v>186</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>187</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>0.08</v>
       </c>
-      <c r="H46" s="1">
+      <c r="I46" s="1">
         <v>4.0000000000000002E-9</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>9</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>188</v>
       </c>
-      <c r="K46" s="6"/>
-    </row>
-    <row r="47" spans="1:11" s="6" customFormat="1">
+      <c r="L46" s="6"/>
+    </row>
+    <row r="47" spans="1:12" s="6" customFormat="1">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -4046,26 +4106,27 @@
         <v>1</v>
       </c>
       <c r="D47"/>
-      <c r="E47" t="s">
+      <c r="E47"/>
+      <c r="F47" t="s">
         <v>186</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>403</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H47" s="1">
+      <c r="I47" s="1">
         <v>3E-10</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>12</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="6" customFormat="1">
+    <row r="48" spans="1:12" s="6" customFormat="1">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -4076,26 +4137,27 @@
         <v>2</v>
       </c>
       <c r="D48"/>
-      <c r="E48" t="s">
+      <c r="E48"/>
+      <c r="F48" t="s">
         <v>234</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>245</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H48" s="1">
+      <c r="I48" s="1">
         <v>1.9999999999999999E-11</v>
       </c>
-      <c r="I48">
-        <v>5</v>
-      </c>
-      <c r="J48" t="s">
+      <c r="J48">
+        <v>5</v>
+      </c>
+      <c r="K48" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="6" customFormat="1">
+    <row r="49" spans="1:12" s="6" customFormat="1">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -4106,26 +4168,27 @@
         <v>1</v>
       </c>
       <c r="D49"/>
-      <c r="E49" t="s">
+      <c r="E49"/>
+      <c r="F49" t="s">
         <v>29</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>463</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H49" s="1">
+      <c r="I49" s="1">
         <v>2.9999999999999998E-15</v>
       </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49" t="s">
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="6" customFormat="1">
+    <row r="50" spans="1:12" s="6" customFormat="1">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -4136,26 +4199,27 @@
         <v>2</v>
       </c>
       <c r="D50"/>
-      <c r="E50" t="s">
+      <c r="E50"/>
+      <c r="F50" t="s">
         <v>29</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>241</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>0.11</v>
       </c>
-      <c r="H50" s="1">
+      <c r="I50" s="1">
         <v>6.0000000000000003E-12</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>2</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="16" customFormat="1">
+    <row r="51" spans="1:12" s="16" customFormat="1">
       <c r="A51" s="14" t="s">
         <v>5</v>
       </c>
@@ -4166,27 +4230,28 @@
         <v>1</v>
       </c>
       <c r="D51" s="14"/>
-      <c r="E51" s="14" t="s">
+      <c r="E51" s="14"/>
+      <c r="F51" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F51" s="14" t="s">
+      <c r="G51" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="G51" s="14">
+      <c r="H51" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H51" s="15">
+      <c r="I51" s="15">
         <v>3E-9</v>
       </c>
-      <c r="I51" s="14">
-        <v>5</v>
-      </c>
-      <c r="J51" s="14" t="s">
+      <c r="J51" s="14">
+        <v>5</v>
+      </c>
+      <c r="K51" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="K51" s="14"/>
-    </row>
-    <row r="52" spans="1:11" s="6" customFormat="1">
+      <c r="L51" s="14"/>
+    </row>
+    <row r="52" spans="1:12" s="6" customFormat="1">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -4199,26 +4264,27 @@
       <c r="D52" t="s">
         <v>518</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52"/>
+      <c r="F52" t="s">
         <v>29</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>274</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>0.09</v>
       </c>
-      <c r="H52" s="1">
+      <c r="I52" s="1">
         <v>4.0000000000000001E-13</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>6</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="6" customFormat="1">
+    <row r="53" spans="1:12" s="6" customFormat="1">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -4231,26 +4297,27 @@
       <c r="D53" t="s">
         <v>518</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53"/>
+      <c r="F53" t="s">
         <v>29</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>30</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>0.09</v>
       </c>
-      <c r="H53" s="1">
+      <c r="I53" s="1">
         <v>2.9999999999999998E-13</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>6</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="6" customFormat="1">
+    <row r="54" spans="1:12" s="6" customFormat="1">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -4261,26 +4328,27 @@
         <v>1</v>
       </c>
       <c r="D54"/>
-      <c r="E54" t="s">
+      <c r="E54"/>
+      <c r="F54" t="s">
         <v>483</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>484</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H54" s="1">
+      <c r="I54" s="1">
         <v>4.0000000000000001E-10</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>12</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="6" customFormat="1">
+    <row r="55" spans="1:12" s="6" customFormat="1">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -4291,26 +4359,27 @@
         <v>2</v>
       </c>
       <c r="D55"/>
-      <c r="E55" t="s">
+      <c r="E55"/>
+      <c r="F55" t="s">
         <v>139</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>140</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>0.09</v>
       </c>
-      <c r="H55" s="1">
+      <c r="I55" s="1">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>2</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="6" customFormat="1">
+    <row r="56" spans="1:12" s="6" customFormat="1">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -4321,26 +4390,27 @@
         <v>1</v>
       </c>
       <c r="D56"/>
-      <c r="E56" t="s">
+      <c r="E56"/>
+      <c r="F56" t="s">
         <v>44</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>263</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H56" s="1">
+      <c r="I56" s="1">
         <v>3E-9</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>3</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="6" customFormat="1">
+    <row r="57" spans="1:12" s="6" customFormat="1">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -4351,26 +4421,27 @@
         <v>1</v>
       </c>
       <c r="D57"/>
-      <c r="E57" t="s">
+      <c r="E57"/>
+      <c r="F57" t="s">
         <v>326</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>327</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H57" s="1">
+      <c r="I57" s="1">
         <v>3E-9</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>8</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="6" customFormat="1">
+    <row r="58" spans="1:12" s="6" customFormat="1">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -4381,26 +4452,27 @@
         <v>1</v>
       </c>
       <c r="D58"/>
-      <c r="E58" t="s">
+      <c r="E58"/>
+      <c r="F58" t="s">
         <v>458</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>459</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H58" s="1">
+      <c r="I58" s="1">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>3</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -4410,26 +4482,26 @@
       <c r="C59">
         <v>1</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>406</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>407</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>0.06</v>
       </c>
-      <c r="H59" s="1">
+      <c r="I59" s="1">
         <v>8.9999999999999995E-9</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>8</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="6" customFormat="1">
+    <row r="60" spans="1:12" s="6" customFormat="1">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -4440,26 +4512,27 @@
         <v>2</v>
       </c>
       <c r="D60"/>
-      <c r="E60" t="s">
+      <c r="E60"/>
+      <c r="F60" t="s">
         <v>123</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>398</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H60" s="1">
+      <c r="I60" s="1">
         <v>8.9999999999999995E-9</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>3</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="2" customFormat="1">
+    <row r="61" spans="1:12" s="2" customFormat="1">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -4470,27 +4543,28 @@
         <v>2</v>
       </c>
       <c r="D61"/>
-      <c r="E61" t="s">
+      <c r="E61"/>
+      <c r="F61" t="s">
         <v>123</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>469</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H61" s="1">
+      <c r="I61" s="1">
         <v>3E-10</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>6</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>9</v>
       </c>
-      <c r="K61"/>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="L61"/>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -4500,27 +4574,27 @@
       <c r="C62">
         <v>2</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>123</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>497</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>0.09</v>
       </c>
-      <c r="H62" s="1">
+      <c r="I62" s="1">
         <v>3E-9</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>10</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>9</v>
       </c>
-      <c r="K62" s="6"/>
-    </row>
-    <row r="63" spans="1:11" s="14" customFormat="1">
+      <c r="L62" s="6"/>
+    </row>
+    <row r="63" spans="1:12" s="14" customFormat="1">
       <c r="A63" s="14" t="s">
         <v>5</v>
       </c>
@@ -4530,27 +4604,27 @@
       <c r="C63" s="14">
         <v>1</v>
       </c>
-      <c r="E63" s="14" t="s">
+      <c r="F63" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F63" s="14" t="s">
+      <c r="G63" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="G63" s="14">
+      <c r="H63" s="14">
         <v>0.08</v>
       </c>
-      <c r="H63" s="15">
+      <c r="I63" s="15">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="I63" s="14">
+      <c r="J63" s="14">
         <v>10</v>
       </c>
-      <c r="J63" s="14" t="s">
+      <c r="K63" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K63" s="16"/>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="L63" s="16"/>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -4560,29 +4634,29 @@
       <c r="C64">
         <v>2</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>133</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>461</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>0.09</v>
       </c>
-      <c r="H64" s="1">
+      <c r="I64" s="1">
         <v>3E-9</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>2</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
-      <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="1:10">
+    <row r="65" spans="1:11">
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="2" t="s">
         <v>67</v>
       </c>
@@ -4595,26 +4669,27 @@
       <c r="D66" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G66" s="2">
-        <v>1</v>
-      </c>
       <c r="H66" s="2">
+        <v>1</v>
+      </c>
+      <c r="I66" s="2">
         <v>0</v>
       </c>
-      <c r="I66" s="2">
-        <v>1</v>
-      </c>
-      <c r="J66" s="2" t="s">
+      <c r="J66" s="2">
+        <v>1</v>
+      </c>
+      <c r="K66" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:11">
       <c r="A67" s="2" t="s">
         <v>67</v>
       </c>
@@ -4627,26 +4702,27 @@
       <c r="D67" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G67" s="2">
-        <v>1</v>
-      </c>
       <c r="H67" s="2">
+        <v>1</v>
+      </c>
+      <c r="I67" s="2">
         <v>0</v>
       </c>
-      <c r="I67" s="2">
-        <v>1</v>
-      </c>
-      <c r="J67" s="2" t="s">
+      <c r="J67" s="2">
+        <v>1</v>
+      </c>
+      <c r="K67" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="9" customFormat="1">
+    <row r="68" spans="1:11" s="9" customFormat="1">
       <c r="A68" s="9" t="s">
         <v>67</v>
       </c>
@@ -4659,26 +4735,26 @@
       <c r="D68" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="F68" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="F68" s="9" t="s">
+      <c r="G68" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="G68" s="9">
+      <c r="H68" s="9">
         <v>0.35</v>
       </c>
-      <c r="H68" s="10">
+      <c r="I68" s="10">
         <v>2.0000000000000001E-97</v>
       </c>
-      <c r="I68" s="9">
+      <c r="J68" s="9">
         <v>2</v>
       </c>
-      <c r="J68" s="9" t="s">
+      <c r="K68" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="9" customFormat="1">
+    <row r="69" spans="1:11" s="9" customFormat="1">
       <c r="A69" s="9" t="s">
         <v>67</v>
       </c>
@@ -4691,26 +4767,26 @@
       <c r="D69" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="F69" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="G69" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="G69" s="9">
+      <c r="H69" s="9">
         <v>0.35</v>
       </c>
-      <c r="H69" s="10">
+      <c r="I69" s="10">
         <v>3.9999999999999997E-104</v>
       </c>
-      <c r="I69" s="9">
+      <c r="J69" s="9">
         <v>3</v>
       </c>
-      <c r="J69" s="9" t="s">
+      <c r="K69" s="9" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="9" customFormat="1">
+    <row r="70" spans="1:11" s="9" customFormat="1">
       <c r="A70" s="9" t="s">
         <v>67</v>
       </c>
@@ -4723,26 +4799,26 @@
       <c r="D70" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="F70" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F70" s="9" t="s">
+      <c r="G70" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G70" s="9">
+      <c r="H70" s="9">
         <v>0.35</v>
       </c>
-      <c r="H70" s="10">
+      <c r="I70" s="10">
         <v>6.0000000000000006E-101</v>
       </c>
-      <c r="I70" s="9">
+      <c r="J70" s="9">
         <v>3</v>
       </c>
-      <c r="J70" s="9" t="s">
+      <c r="K70" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>67</v>
       </c>
@@ -4755,26 +4831,27 @@
       <c r="D71" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="8"/>
+      <c r="F71" t="s">
         <v>220</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>221</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>0.34</v>
       </c>
-      <c r="H71" s="1">
+      <c r="I71" s="1">
         <v>4.0000000000000002E-101</v>
       </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
-      <c r="J71" t="s">
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="9" customFormat="1">
+    <row r="72" spans="1:11" s="9" customFormat="1">
       <c r="A72" s="9" t="s">
         <v>67</v>
       </c>
@@ -4787,26 +4864,26 @@
       <c r="D72" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="F72" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F72" s="9" t="s">
+      <c r="G72" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="G72" s="9">
+      <c r="H72" s="9">
         <v>0.13</v>
       </c>
-      <c r="H72" s="10">
+      <c r="I72" s="10">
         <v>3.0000000000000003E-20</v>
       </c>
-      <c r="I72" s="9">
-        <v>1</v>
-      </c>
-      <c r="J72" s="9" t="s">
+      <c r="J72" s="9">
+        <v>1</v>
+      </c>
+      <c r="K72" s="9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="73" spans="1:10" s="6" customFormat="1">
+    <row r="73" spans="1:11" s="6" customFormat="1">
       <c r="A73" t="s">
         <v>67</v>
       </c>
@@ -4819,26 +4896,27 @@
       <c r="D73" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="E73" t="s">
-        <v>18</v>
-      </c>
+      <c r="E73" s="8"/>
       <c r="F73" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" t="s">
         <v>445</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>0.09</v>
       </c>
-      <c r="H73" s="1">
+      <c r="I73" s="1">
         <v>9E-13</v>
       </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
-      <c r="J73" t="s">
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="6" customFormat="1">
+    <row r="74" spans="1:11" s="6" customFormat="1">
       <c r="A74" s="2" t="s">
         <v>0</v>
       </c>
@@ -4851,26 +4929,27 @@
       <c r="D74" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="2"/>
+      <c r="F74" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="G74" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="G74" s="2">
-        <v>1</v>
-      </c>
       <c r="H74" s="2">
+        <v>1</v>
+      </c>
+      <c r="I74" s="2">
         <v>0</v>
       </c>
-      <c r="I74" s="2">
+      <c r="J74" s="2">
         <v>11</v>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="K74" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="6" customFormat="1">
+    <row r="75" spans="1:11" s="6" customFormat="1">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -4883,26 +4962,27 @@
       <c r="D75" t="s">
         <v>504</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75"/>
+      <c r="F75" t="s">
         <v>271</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>272</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>0.83</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>0</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>4</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -4915,26 +4995,26 @@
       <c r="D76" t="s">
         <v>504</v>
       </c>
-      <c r="E76" t="s">
-        <v>18</v>
-      </c>
       <c r="F76" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" t="s">
         <v>22</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>0.41</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>0</v>
       </c>
-      <c r="I76">
-        <v>1</v>
-      </c>
-      <c r="J76" t="s">
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -4947,26 +5027,26 @@
       <c r="D77" t="s">
         <v>504</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>234</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>235</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>0.41</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>0</v>
       </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
-      <c r="J77" t="s">
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:11">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -4979,26 +5059,26 @@
       <c r="D78" t="s">
         <v>510</v>
       </c>
-      <c r="E78" t="s">
-        <v>18</v>
-      </c>
       <c r="F78" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" t="s">
         <v>322</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>0.41</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>0</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>2</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="6" customFormat="1">
+    <row r="79" spans="1:11" s="6" customFormat="1">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -5011,26 +5091,27 @@
       <c r="D79" t="s">
         <v>504</v>
       </c>
-      <c r="E79" t="s">
-        <v>18</v>
-      </c>
+      <c r="E79"/>
       <c r="F79" t="s">
+        <v>18</v>
+      </c>
+      <c r="G79" t="s">
         <v>488</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>0.41</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>0</v>
       </c>
-      <c r="I79">
-        <v>1</v>
-      </c>
-      <c r="J79" t="s">
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="11" customFormat="1">
+    <row r="80" spans="1:11" s="11" customFormat="1">
       <c r="A80" s="9" t="s">
         <v>0</v>
       </c>
@@ -5043,26 +5124,27 @@
       <c r="D80" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="E80" s="9"/>
+      <c r="F80" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="G80" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G80" s="9">
+      <c r="H80" s="9">
         <v>0.41</v>
       </c>
-      <c r="H80" s="9">
+      <c r="I80" s="9">
         <v>0</v>
       </c>
-      <c r="I80" s="9">
+      <c r="J80" s="9">
         <v>3</v>
       </c>
-      <c r="J80" s="9" t="s">
+      <c r="K80" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="11" customFormat="1">
+    <row r="81" spans="1:11" s="11" customFormat="1">
       <c r="A81" s="9" t="s">
         <v>0</v>
       </c>
@@ -5075,26 +5157,27 @@
       <c r="D81" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="E81" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="E81" s="9"/>
       <c r="F81" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G81" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="G81" s="9">
+      <c r="H81" s="9">
         <v>0.41</v>
       </c>
-      <c r="H81" s="9">
+      <c r="I81" s="9">
         <v>0</v>
       </c>
-      <c r="I81" s="9">
-        <v>1</v>
-      </c>
-      <c r="J81" s="9" t="s">
+      <c r="J81" s="9">
+        <v>1</v>
+      </c>
+      <c r="K81" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="11" customFormat="1">
+    <row r="82" spans="1:11" s="11" customFormat="1">
       <c r="A82" s="9" t="s">
         <v>0</v>
       </c>
@@ -5105,26 +5188,27 @@
         <v>5</v>
       </c>
       <c r="D82" s="9"/>
-      <c r="E82" s="9" t="s">
+      <c r="E82" s="9"/>
+      <c r="F82" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F82" s="9" t="s">
+      <c r="G82" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="G82" s="9">
+      <c r="H82" s="9">
         <v>0.41</v>
       </c>
-      <c r="H82" s="9">
+      <c r="I82" s="9">
         <v>0</v>
       </c>
-      <c r="I82" s="9">
+      <c r="J82" s="9">
         <v>3</v>
       </c>
-      <c r="J82" s="9" t="s">
+      <c r="K82" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="6" customFormat="1">
+    <row r="83" spans="1:11" s="6" customFormat="1">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -5137,26 +5221,27 @@
       <c r="D83" t="s">
         <v>509</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83"/>
+      <c r="F83" t="s">
         <v>2</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>3</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>0.4</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>0</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>12</v>
       </c>
-      <c r="J83" t="s">
+      <c r="K83" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="6" customFormat="1">
+    <row r="84" spans="1:11" s="6" customFormat="1">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -5169,26 +5254,27 @@
       <c r="D84" t="s">
         <v>504</v>
       </c>
-      <c r="E84" t="s">
-        <v>18</v>
-      </c>
+      <c r="E84"/>
       <c r="F84" t="s">
+        <v>18</v>
+      </c>
+      <c r="G84" t="s">
         <v>317</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>0.39</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>0</v>
       </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
-      <c r="J84" t="s">
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="11" customFormat="1">
+    <row r="85" spans="1:11" s="11" customFormat="1">
       <c r="A85" s="9" t="s">
         <v>0</v>
       </c>
@@ -5199,26 +5285,27 @@
         <v>1</v>
       </c>
       <c r="D85" s="9"/>
-      <c r="E85" s="9" t="s">
+      <c r="E85" s="9"/>
+      <c r="F85" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F85" s="9" t="s">
+      <c r="G85" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="G85" s="9">
+      <c r="H85" s="9">
         <v>0.39</v>
       </c>
-      <c r="H85" s="9">
+      <c r="I85" s="9">
         <v>0</v>
       </c>
-      <c r="I85" s="9">
+      <c r="J85" s="9">
         <v>12</v>
       </c>
-      <c r="J85" s="9" t="s">
+      <c r="K85" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -5231,26 +5318,26 @@
       <c r="D86" t="s">
         <v>504</v>
       </c>
-      <c r="E86" t="s">
-        <v>18</v>
-      </c>
       <c r="F86" t="s">
+        <v>18</v>
+      </c>
+      <c r="G86" t="s">
         <v>302</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>0.34</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>0</v>
       </c>
-      <c r="I86">
-        <v>1</v>
-      </c>
-      <c r="J86" t="s">
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="9" customFormat="1">
+    <row r="87" spans="1:11" s="9" customFormat="1">
       <c r="A87" s="9" t="s">
         <v>0</v>
       </c>
@@ -5263,26 +5350,26 @@
       <c r="D87" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="E87" s="9" t="s">
+      <c r="F87" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F87" s="9" t="s">
+      <c r="G87" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G87" s="9">
+      <c r="H87" s="9">
         <v>0.24</v>
       </c>
-      <c r="H87" s="10">
+      <c r="I87" s="10">
         <v>7.9999999999999996E-94</v>
       </c>
-      <c r="I87" s="9">
+      <c r="J87" s="9">
         <v>4</v>
       </c>
-      <c r="J87" s="9" t="s">
+      <c r="K87" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:11">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -5295,26 +5382,26 @@
       <c r="D88" t="s">
         <v>504</v>
       </c>
-      <c r="E88" t="s">
-        <v>18</v>
-      </c>
       <c r="F88" t="s">
+        <v>18</v>
+      </c>
+      <c r="G88" t="s">
         <v>72</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>0.22</v>
       </c>
-      <c r="H88" s="1">
+      <c r="I88" s="1">
         <v>9.9999999999999998E-46</v>
       </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
-      <c r="J88" t="s">
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="11" customFormat="1">
+    <row r="89" spans="1:11" s="11" customFormat="1">
       <c r="A89" s="9" t="s">
         <v>0</v>
       </c>
@@ -5325,26 +5412,27 @@
         <v>2</v>
       </c>
       <c r="D89" s="9"/>
-      <c r="E89" s="9" t="s">
+      <c r="E89" s="9"/>
+      <c r="F89" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F89" s="9" t="s">
+      <c r="G89" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="G89" s="9">
+      <c r="H89" s="9">
         <v>0.21</v>
       </c>
-      <c r="H89" s="10">
+      <c r="I89" s="10">
         <v>4.0000000000000001E-46</v>
       </c>
-      <c r="I89" s="9">
-        <v>1</v>
-      </c>
-      <c r="J89" s="9" t="s">
+      <c r="J89" s="9">
+        <v>1</v>
+      </c>
+      <c r="K89" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:10" s="6" customFormat="1">
+    <row r="90" spans="1:11" s="6" customFormat="1">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -5357,26 +5445,27 @@
       <c r="D90" t="s">
         <v>510</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90"/>
+      <c r="F90" t="s">
         <v>340</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>341</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>0.21</v>
       </c>
-      <c r="H90" s="1">
+      <c r="I90" s="1">
         <v>2.0000000000000001E-59</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>2</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="91" spans="1:10" s="6" customFormat="1">
+    <row r="91" spans="1:11" s="6" customFormat="1">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -5389,26 +5478,27 @@
       <c r="D91" t="s">
         <v>504</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91"/>
+      <c r="F91" t="s">
         <v>476</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>477</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>0.2</v>
       </c>
-      <c r="H91" s="1">
+      <c r="I91" s="1">
         <v>1.0000000000000001E-37</v>
       </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
-      <c r="J91" t="s">
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="92" spans="1:10" s="6" customFormat="1">
+    <row r="92" spans="1:11" s="6" customFormat="1">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -5421,26 +5511,27 @@
       <c r="D92" t="s">
         <v>510</v>
       </c>
-      <c r="E92" t="s">
-        <v>18</v>
-      </c>
+      <c r="E92"/>
       <c r="F92" t="s">
+        <v>18</v>
+      </c>
+      <c r="G92" t="s">
         <v>300</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>0.2</v>
       </c>
-      <c r="H92" s="1">
+      <c r="I92" s="1">
         <v>1E-41</v>
       </c>
-      <c r="I92">
-        <v>1</v>
-      </c>
-      <c r="J92" t="s">
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="12" customFormat="1">
+    <row r="93" spans="1:11" s="12" customFormat="1">
       <c r="A93" s="4" t="s">
         <v>0</v>
       </c>
@@ -5451,26 +5542,27 @@
         <v>1</v>
       </c>
       <c r="D93" s="4"/>
-      <c r="E93" s="4" t="s">
+      <c r="E93" s="4"/>
+      <c r="F93" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F93" s="4" t="s">
+      <c r="G93" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G93" s="4">
+      <c r="H93" s="4">
         <v>0.19</v>
       </c>
-      <c r="H93" s="5">
+      <c r="I93" s="5">
         <v>4.0000000000000003E-43</v>
       </c>
-      <c r="I93" s="4">
+      <c r="J93" s="4">
         <v>2</v>
       </c>
-      <c r="J93" s="4" t="s">
+      <c r="K93" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:10" s="11" customFormat="1">
+    <row r="94" spans="1:11" s="11" customFormat="1">
       <c r="A94" s="9" t="s">
         <v>0</v>
       </c>
@@ -5483,26 +5575,27 @@
       <c r="D94" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="E94" s="9" t="s">
+      <c r="E94" s="9"/>
+      <c r="F94" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F94" s="9" t="s">
+      <c r="G94" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="G94" s="9">
+      <c r="H94" s="9">
         <v>0.19</v>
       </c>
-      <c r="H94" s="10">
+      <c r="I94" s="10">
         <v>1E-41</v>
       </c>
-      <c r="I94" s="9">
-        <v>1</v>
-      </c>
-      <c r="J94" s="9" t="s">
+      <c r="J94" s="9">
+        <v>1</v>
+      </c>
+      <c r="K94" s="9" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="1:10" s="6" customFormat="1">
+    <row r="95" spans="1:11" s="6" customFormat="1">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -5515,26 +5608,27 @@
       <c r="D95" t="s">
         <v>504</v>
       </c>
-      <c r="E95" t="s">
-        <v>18</v>
-      </c>
+      <c r="E95"/>
       <c r="F95" t="s">
+        <v>18</v>
+      </c>
+      <c r="G95" t="s">
         <v>332</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>0.18</v>
       </c>
-      <c r="H95" s="1">
+      <c r="I95" s="1">
         <v>3E-23</v>
       </c>
-      <c r="I95">
-        <v>1</v>
-      </c>
-      <c r="J95" t="s">
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="96" spans="1:10" s="6" customFormat="1">
+    <row r="96" spans="1:11" s="6" customFormat="1">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -5547,26 +5641,27 @@
       <c r="D96" t="s">
         <v>510</v>
       </c>
-      <c r="E96" t="s">
-        <v>18</v>
-      </c>
+      <c r="E96"/>
       <c r="F96" t="s">
+        <v>18</v>
+      </c>
+      <c r="G96" t="s">
         <v>84</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>0.12</v>
       </c>
-      <c r="H96" s="1">
+      <c r="I96" s="1">
         <v>3E-10</v>
       </c>
-      <c r="I96">
-        <v>1</v>
-      </c>
-      <c r="J96" t="s">
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="97" spans="1:10" s="6" customFormat="1">
+    <row r="97" spans="1:11" s="6" customFormat="1">
       <c r="A97" s="2" t="s">
         <v>106</v>
       </c>
@@ -5579,26 +5674,27 @@
       <c r="D97" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E97" s="2"/>
+      <c r="F97" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="G97" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G97" s="2">
-        <v>1</v>
-      </c>
       <c r="H97" s="2">
+        <v>1</v>
+      </c>
+      <c r="I97" s="2">
         <v>0</v>
       </c>
-      <c r="I97" s="2">
+      <c r="J97" s="2">
         <v>2</v>
       </c>
-      <c r="J97" s="2" t="s">
+      <c r="K97" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="98" spans="1:10" s="9" customFormat="1">
+    <row r="98" spans="1:11" s="9" customFormat="1">
       <c r="A98" s="9" t="s">
         <v>106</v>
       </c>
@@ -5608,26 +5704,26 @@
       <c r="C98" s="9">
         <v>1</v>
       </c>
-      <c r="E98" s="9" t="s">
+      <c r="F98" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F98" s="9" t="s">
+      <c r="G98" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="G98" s="9">
+      <c r="H98" s="9">
         <v>0.51</v>
       </c>
-      <c r="H98" s="10">
+      <c r="I98" s="10">
         <v>3.9999999999999996E-93</v>
       </c>
-      <c r="I98" s="9">
+      <c r="J98" s="9">
         <v>3</v>
       </c>
-      <c r="J98" s="9" t="s">
+      <c r="K98" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:10" s="9" customFormat="1">
+    <row r="99" spans="1:11" s="9" customFormat="1">
       <c r="A99" s="9" t="s">
         <v>106</v>
       </c>
@@ -5637,26 +5733,26 @@
       <c r="C99" s="9">
         <v>1</v>
       </c>
-      <c r="E99" s="9" t="s">
+      <c r="F99" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F99" s="9" t="s">
+      <c r="G99" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="G99" s="9">
+      <c r="H99" s="9">
         <v>0.5</v>
       </c>
-      <c r="H99" s="10">
+      <c r="I99" s="10">
         <v>3.9999999999999996E-93</v>
       </c>
-      <c r="I99" s="9">
+      <c r="J99" s="9">
         <v>2</v>
       </c>
-      <c r="J99" s="9" t="s">
+      <c r="K99" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:10" s="4" customFormat="1">
+    <row r="100" spans="1:11" s="4" customFormat="1">
       <c r="A100" s="4" t="s">
         <v>106</v>
       </c>
@@ -5666,26 +5762,26 @@
       <c r="C100" s="4">
         <v>2</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="F100" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F100" s="4" t="s">
+      <c r="G100" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G100" s="4">
+      <c r="H100" s="4">
         <v>0.49</v>
       </c>
-      <c r="H100" s="5">
+      <c r="I100" s="5">
         <v>2.9999999999999999E-89</v>
       </c>
-      <c r="I100" s="4">
+      <c r="J100" s="4">
         <v>2</v>
       </c>
-      <c r="J100" s="4" t="s">
+      <c r="K100" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:11">
       <c r="A101" t="s">
         <v>106</v>
       </c>
@@ -5698,26 +5794,27 @@
       <c r="D101" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="13"/>
+      <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>252</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>0.44</v>
       </c>
-      <c r="H101" s="1">
+      <c r="I101" s="1">
         <v>1.9999999999999998E-65</v>
       </c>
-      <c r="I101">
-        <v>1</v>
-      </c>
-      <c r="J101" t="s">
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="102" spans="1:10" s="6" customFormat="1">
+    <row r="102" spans="1:11" s="6" customFormat="1">
       <c r="A102" t="s">
         <v>106</v>
       </c>
@@ -5730,26 +5827,27 @@
       <c r="D102" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="13"/>
+      <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
         <v>368</v>
       </c>
-      <c r="G102">
+      <c r="H102">
         <v>0.44</v>
       </c>
-      <c r="H102" s="1">
+      <c r="I102" s="1">
         <v>6.0000000000000001E-74</v>
       </c>
-      <c r="I102">
-        <v>1</v>
-      </c>
-      <c r="J102" t="s">
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="103" spans="1:10" s="6" customFormat="1">
+    <row r="103" spans="1:11" s="6" customFormat="1">
       <c r="A103" t="s">
         <v>106</v>
       </c>
@@ -5762,26 +5860,27 @@
       <c r="D103" t="s">
         <v>515</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103"/>
+      <c r="F103" t="s">
         <v>108</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
         <v>109</v>
       </c>
-      <c r="G103">
+      <c r="H103">
         <v>0.41</v>
       </c>
-      <c r="H103" s="1">
+      <c r="I103" s="1">
         <v>7.9999999999999995E-67</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>2</v>
       </c>
-      <c r="J103" t="s">
+      <c r="K103" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:10" s="6" customFormat="1">
+    <row r="104" spans="1:11" s="6" customFormat="1">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
@@ -5789,11 +5888,12 @@
       <c r="E104"/>
       <c r="F104"/>
       <c r="G104"/>
-      <c r="H104" s="1"/>
-      <c r="I104"/>
+      <c r="H104"/>
+      <c r="I104" s="1"/>
       <c r="J104"/>
-    </row>
-    <row r="105" spans="1:10" s="6" customFormat="1">
+      <c r="K104"/>
+    </row>
+    <row r="105" spans="1:11" s="6" customFormat="1">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
@@ -5801,11 +5901,12 @@
       <c r="E105"/>
       <c r="F105"/>
       <c r="G105"/>
-      <c r="H105" s="1"/>
-      <c r="I105"/>
+      <c r="H105"/>
+      <c r="I105" s="1"/>
       <c r="J105"/>
-    </row>
-    <row r="106" spans="1:10" s="6" customFormat="1">
+      <c r="K105"/>
+    </row>
+    <row r="106" spans="1:11" s="6" customFormat="1">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
@@ -5813,11 +5914,12 @@
       <c r="E106"/>
       <c r="F106"/>
       <c r="G106"/>
-      <c r="H106" s="1"/>
-      <c r="I106"/>
+      <c r="H106"/>
+      <c r="I106" s="1"/>
       <c r="J106"/>
-    </row>
-    <row r="107" spans="1:10" s="6" customFormat="1">
+      <c r="K106"/>
+    </row>
+    <row r="107" spans="1:11" s="6" customFormat="1">
       <c r="A107" s="6" t="s">
         <v>5</v>
       </c>
@@ -5827,26 +5929,26 @@
       <c r="C107" s="6">
         <v>1</v>
       </c>
-      <c r="E107" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="F107" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G107" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="G107" s="6">
+      <c r="H107" s="6">
         <v>0.23</v>
       </c>
-      <c r="H107" s="7">
+      <c r="I107" s="7">
         <v>2.0000000000000001E-17</v>
       </c>
-      <c r="I107" s="6">
-        <v>1</v>
-      </c>
-      <c r="J107" s="6" t="s">
+      <c r="J107" s="6">
+        <v>1</v>
+      </c>
+      <c r="K107" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:11">
       <c r="A108" s="6" t="s">
         <v>5</v>
       </c>
@@ -5857,26 +5959,27 @@
         <v>1</v>
       </c>
       <c r="D108" s="6"/>
-      <c r="E108" s="6" t="s">
+      <c r="E108" s="6"/>
+      <c r="F108" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F108" s="6" t="s">
+      <c r="G108" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="G108" s="6">
+      <c r="H108" s="6">
         <v>0.21</v>
       </c>
-      <c r="H108" s="7">
+      <c r="I108" s="7">
         <v>6.0000000000000006E-20</v>
       </c>
-      <c r="I108" s="6">
+      <c r="J108" s="6">
         <v>2</v>
       </c>
-      <c r="J108" s="6" t="s">
+      <c r="K108" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:11">
       <c r="A109" s="6" t="s">
         <v>5</v>
       </c>
@@ -5887,26 +5990,27 @@
         <v>1</v>
       </c>
       <c r="D109" s="6"/>
-      <c r="E109" s="6" t="s">
+      <c r="E109" s="6"/>
+      <c r="F109" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F109" s="6" t="s">
+      <c r="G109" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="G109" s="6">
+      <c r="H109" s="6">
         <v>0.21</v>
       </c>
-      <c r="H109" s="7">
+      <c r="I109" s="7">
         <v>4.9999999999999999E-20</v>
       </c>
-      <c r="I109" s="6">
+      <c r="J109" s="6">
         <v>2</v>
       </c>
-      <c r="J109" s="6" t="s">
+      <c r="K109" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:11">
       <c r="A110" s="6" t="s">
         <v>5</v>
       </c>
@@ -5917,26 +6021,27 @@
         <v>1</v>
       </c>
       <c r="D110" s="6"/>
-      <c r="E110" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E110" s="6"/>
       <c r="F110" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G110" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="G110" s="6">
+      <c r="H110" s="6">
         <v>0.16</v>
       </c>
-      <c r="H110" s="7">
+      <c r="I110" s="7">
         <v>2E-16</v>
       </c>
-      <c r="I110" s="6">
+      <c r="J110" s="6">
         <v>8</v>
       </c>
-      <c r="J110" s="6" t="s">
+      <c r="K110" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:11">
       <c r="A111" s="6" t="s">
         <v>5</v>
       </c>
@@ -5947,26 +6052,27 @@
         <v>1</v>
       </c>
       <c r="D111" s="6"/>
-      <c r="E111" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E111" s="6"/>
       <c r="F111" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G111" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="G111" s="6">
+      <c r="H111" s="6">
         <v>0.12</v>
       </c>
-      <c r="H111" s="7">
+      <c r="I111" s="7">
         <v>2.9999999999999998E-15</v>
       </c>
-      <c r="I111" s="6">
-        <v>1</v>
-      </c>
-      <c r="J111" s="6" t="s">
+      <c r="J111" s="6">
+        <v>1</v>
+      </c>
+      <c r="K111" s="6" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:11">
       <c r="A112" s="6" t="s">
         <v>5</v>
       </c>
@@ -5977,26 +6083,27 @@
         <v>1</v>
       </c>
       <c r="D112" s="6"/>
-      <c r="E112" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E112" s="6"/>
       <c r="F112" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G112" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="G112" s="6">
+      <c r="H112" s="6">
         <v>0.13</v>
       </c>
-      <c r="H112" s="7">
+      <c r="I112" s="7">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="I112" s="6">
-        <v>1</v>
-      </c>
-      <c r="J112" s="6" t="s">
+      <c r="J112" s="6">
+        <v>1</v>
+      </c>
+      <c r="K112" s="6" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:11">
       <c r="A113" s="6" t="s">
         <v>176</v>
       </c>
@@ -6007,26 +6114,27 @@
         <v>1</v>
       </c>
       <c r="D113" s="6"/>
-      <c r="E113" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E113" s="6"/>
       <c r="F113" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G113" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="G113" s="6">
+      <c r="H113" s="6">
         <v>0.44</v>
       </c>
-      <c r="H113" s="7">
+      <c r="I113" s="7">
         <v>2E-176</v>
       </c>
-      <c r="I113" s="6">
-        <v>1</v>
-      </c>
-      <c r="J113" s="6" t="s">
+      <c r="J113" s="6">
+        <v>1</v>
+      </c>
+      <c r="K113" s="6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="114" spans="1:10" s="6" customFormat="1">
+    <row r="114" spans="1:11" s="6" customFormat="1">
       <c r="A114" s="6" t="s">
         <v>5</v>
       </c>
@@ -6036,26 +6144,26 @@
       <c r="C114" s="6">
         <v>1</v>
       </c>
-      <c r="E114" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="F114" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G114" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G114" s="6">
+      <c r="H114" s="6">
         <v>0.22</v>
       </c>
-      <c r="H114" s="7">
+      <c r="I114" s="7">
         <v>8.0000000000000002E-13</v>
       </c>
-      <c r="I114" s="6">
-        <v>1</v>
-      </c>
-      <c r="J114" s="6" t="s">
+      <c r="J114" s="6">
+        <v>1</v>
+      </c>
+      <c r="K114" s="6" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="115" spans="1:10" s="6" customFormat="1">
+    <row r="115" spans="1:11" s="6" customFormat="1">
       <c r="A115" s="6" t="s">
         <v>5</v>
       </c>
@@ -6065,26 +6173,26 @@
       <c r="C115" s="6">
         <v>1</v>
       </c>
-      <c r="E115" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="F115" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G115" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="G115" s="6">
+      <c r="H115" s="6">
         <v>0.18</v>
       </c>
-      <c r="H115" s="7">
+      <c r="I115" s="7">
         <v>6.0000000000000003E-12</v>
       </c>
-      <c r="I115" s="6">
-        <v>1</v>
-      </c>
-      <c r="J115" s="6" t="s">
+      <c r="J115" s="6">
+        <v>1</v>
+      </c>
+      <c r="K115" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="116" spans="1:10" s="6" customFormat="1">
+    <row r="116" spans="1:11" s="6" customFormat="1">
       <c r="A116" s="6" t="s">
         <v>5</v>
       </c>
@@ -6094,26 +6202,26 @@
       <c r="C116" s="6">
         <v>1</v>
       </c>
-      <c r="E116" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="F116" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G116" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G116" s="6">
+      <c r="H116" s="6">
         <v>0.36</v>
       </c>
-      <c r="H116" s="7">
+      <c r="I116" s="7">
         <v>3.0000000000000001E-94</v>
       </c>
-      <c r="I116" s="6">
+      <c r="J116" s="6">
         <v>2</v>
       </c>
-      <c r="J116" s="6" t="s">
+      <c r="K116" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="1:10" s="6" customFormat="1">
+    <row r="117" spans="1:11" s="6" customFormat="1">
       <c r="A117" s="6" t="s">
         <v>5</v>
       </c>
@@ -6123,26 +6231,26 @@
       <c r="C117" s="6">
         <v>1</v>
       </c>
-      <c r="E117" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="F117" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G117" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G117" s="6">
+      <c r="H117" s="6">
         <v>0.36</v>
       </c>
-      <c r="H117" s="7">
+      <c r="I117" s="7">
         <v>1E-100</v>
       </c>
-      <c r="I117" s="6">
-        <v>1</v>
-      </c>
-      <c r="J117" s="6" t="s">
+      <c r="J117" s="6">
+        <v>1</v>
+      </c>
+      <c r="K117" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="118" spans="1:10" s="6" customFormat="1">
+    <row r="118" spans="1:11" s="6" customFormat="1">
       <c r="A118" s="6" t="s">
         <v>5</v>
       </c>
@@ -6152,26 +6260,26 @@
       <c r="C118" s="6">
         <v>1</v>
       </c>
-      <c r="E118" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="F118" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G118" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G118" s="6">
+      <c r="H118" s="6">
         <v>0.32</v>
       </c>
-      <c r="H118" s="7">
+      <c r="I118" s="7">
         <v>7.0000000000000004E-98</v>
       </c>
-      <c r="I118" s="6">
-        <v>1</v>
-      </c>
-      <c r="J118" s="6" t="s">
+      <c r="J118" s="6">
+        <v>1</v>
+      </c>
+      <c r="K118" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="1:10" s="6" customFormat="1">
+    <row r="119" spans="1:11" s="6" customFormat="1">
       <c r="A119" s="6" t="s">
         <v>5</v>
       </c>
@@ -6181,26 +6289,26 @@
       <c r="C119" s="6">
         <v>1</v>
       </c>
-      <c r="E119" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="F119" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G119" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G119" s="6">
+      <c r="H119" s="6">
         <v>0.22</v>
       </c>
-      <c r="H119" s="7">
+      <c r="I119" s="7">
         <v>8.9999999999999999E-18</v>
       </c>
-      <c r="I119" s="6">
-        <v>1</v>
-      </c>
-      <c r="J119" s="6" t="s">
+      <c r="J119" s="6">
+        <v>1</v>
+      </c>
+      <c r="K119" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:11">
       <c r="A120" s="6" t="s">
         <v>5</v>
       </c>
@@ -6211,26 +6319,27 @@
         <v>2</v>
       </c>
       <c r="D120" s="6"/>
-      <c r="E120" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E120" s="6"/>
       <c r="F120" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G120" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G120" s="6">
+      <c r="H120" s="6">
         <v>0.2</v>
       </c>
-      <c r="H120" s="7">
+      <c r="I120" s="7">
         <v>3.0000000000000001E-17</v>
       </c>
-      <c r="I120" s="6">
-        <v>1</v>
-      </c>
-      <c r="J120" s="6" t="s">
+      <c r="J120" s="6">
+        <v>1</v>
+      </c>
+      <c r="K120" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:11">
       <c r="A121" s="6" t="s">
         <v>5</v>
       </c>
@@ -6241,26 +6350,27 @@
         <v>1</v>
       </c>
       <c r="D121" s="6"/>
-      <c r="E121" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E121" s="6"/>
       <c r="F121" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G121" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="G121" s="6">
+      <c r="H121" s="6">
         <v>0.19</v>
       </c>
-      <c r="H121" s="7">
+      <c r="I121" s="7">
         <v>2E-12</v>
       </c>
-      <c r="I121" s="6">
-        <v>1</v>
-      </c>
-      <c r="J121" s="6" t="s">
+      <c r="J121" s="6">
+        <v>1</v>
+      </c>
+      <c r="K121" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:11">
       <c r="A122" s="6" t="s">
         <v>5</v>
       </c>
@@ -6271,26 +6381,27 @@
         <v>1</v>
       </c>
       <c r="D122" s="6"/>
-      <c r="E122" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E122" s="6"/>
       <c r="F122" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G122" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G122" s="6">
+      <c r="H122" s="6">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H122" s="7">
+      <c r="I122" s="7">
         <v>5.0000000000000004E-16</v>
       </c>
-      <c r="I122" s="6">
-        <v>1</v>
-      </c>
-      <c r="J122" s="6" t="s">
+      <c r="J122" s="6">
+        <v>1</v>
+      </c>
+      <c r="K122" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:11">
       <c r="A123" s="6" t="s">
         <v>5</v>
       </c>
@@ -6301,26 +6412,27 @@
         <v>1</v>
       </c>
       <c r="D123" s="6"/>
-      <c r="E123" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E123" s="6"/>
       <c r="F123" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G123" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="G123" s="6">
+      <c r="H123" s="6">
         <v>0.08</v>
       </c>
-      <c r="H123" s="7">
+      <c r="I123" s="7">
         <v>4.0000000000000001E-13</v>
       </c>
-      <c r="I123" s="6">
-        <v>1</v>
-      </c>
-      <c r="J123" s="6" t="s">
+      <c r="J123" s="6">
+        <v>1</v>
+      </c>
+      <c r="K123" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:11">
       <c r="A124" s="6" t="s">
         <v>5</v>
       </c>
@@ -6331,26 +6443,27 @@
         <v>4</v>
       </c>
       <c r="D124" s="6"/>
-      <c r="E124" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E124" s="6"/>
       <c r="F124" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G124" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="G124" s="6">
+      <c r="H124" s="6">
         <v>0.08</v>
       </c>
-      <c r="H124" s="7">
+      <c r="I124" s="7">
         <v>7.9999999999999995E-11</v>
       </c>
-      <c r="I124" s="6">
-        <v>1</v>
-      </c>
-      <c r="J124" s="6" t="s">
+      <c r="J124" s="6">
+        <v>1</v>
+      </c>
+      <c r="K124" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:11">
       <c r="A125" s="6" t="s">
         <v>5</v>
       </c>
@@ -6361,26 +6474,27 @@
         <v>1</v>
       </c>
       <c r="D125" s="6"/>
-      <c r="E125" s="6" t="s">
+      <c r="E125" s="6"/>
+      <c r="F125" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="F125" s="6" t="s">
+      <c r="G125" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="G125" s="6">
+      <c r="H125" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H125" s="7">
+      <c r="I125" s="7">
         <v>2E-12</v>
       </c>
-      <c r="I125" s="6">
-        <v>1</v>
-      </c>
-      <c r="J125" s="6" t="s">
+      <c r="J125" s="6">
+        <v>1</v>
+      </c>
+      <c r="K125" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:11">
       <c r="A126" s="6" t="s">
         <v>5</v>
       </c>
@@ -6391,26 +6505,27 @@
         <v>1</v>
       </c>
       <c r="D126" s="6"/>
-      <c r="E126" s="6" t="s">
+      <c r="E126" s="6"/>
+      <c r="F126" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F126" s="6" t="s">
+      <c r="G126" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="G126" s="6">
+      <c r="H126" s="6">
         <v>0.18</v>
       </c>
-      <c r="H126" s="7">
+      <c r="I126" s="7">
         <v>5.9999999999999997E-14</v>
       </c>
-      <c r="I126" s="6">
-        <v>1</v>
-      </c>
-      <c r="J126" s="6" t="s">
+      <c r="J126" s="6">
+        <v>1</v>
+      </c>
+      <c r="K126" s="6" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:11">
       <c r="A127" s="6" t="s">
         <v>176</v>
       </c>
@@ -6421,26 +6536,27 @@
         <v>1</v>
       </c>
       <c r="D127" s="6"/>
-      <c r="E127" s="6" t="s">
+      <c r="E127" s="6"/>
+      <c r="F127" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="F127" s="6" t="s">
+      <c r="G127" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="G127" s="6">
+      <c r="H127" s="6">
         <v>0.52</v>
       </c>
-      <c r="H127" s="6">
+      <c r="I127" s="6">
         <v>0</v>
       </c>
-      <c r="I127" s="6">
-        <v>1</v>
-      </c>
-      <c r="J127" s="6" t="s">
+      <c r="J127" s="6">
+        <v>1</v>
+      </c>
+      <c r="K127" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:11">
       <c r="A128" s="6" t="s">
         <v>5</v>
       </c>
@@ -6451,26 +6567,27 @@
         <v>1</v>
       </c>
       <c r="D128" s="6"/>
-      <c r="E128" s="6" t="s">
+      <c r="E128" s="6"/>
+      <c r="F128" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F128" s="6" t="s">
+      <c r="G128" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G128" s="6">
+      <c r="H128" s="6">
         <v>0.21</v>
       </c>
-      <c r="H128" s="7">
+      <c r="I128" s="7">
         <v>2.0000000000000001E-22</v>
       </c>
-      <c r="I128" s="6">
-        <v>1</v>
-      </c>
-      <c r="J128" s="6" t="s">
+      <c r="J128" s="6">
+        <v>1</v>
+      </c>
+      <c r="K128" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="129" spans="1:10" s="6" customFormat="1">
+    <row r="129" spans="1:11" s="6" customFormat="1">
       <c r="A129" s="6" t="s">
         <v>5</v>
       </c>
@@ -6480,26 +6597,26 @@
       <c r="C129" s="6">
         <v>1</v>
       </c>
-      <c r="E129" s="6" t="s">
+      <c r="F129" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F129" s="6" t="s">
+      <c r="G129" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G129" s="6">
+      <c r="H129" s="6">
         <v>0.21</v>
       </c>
-      <c r="H129" s="7">
+      <c r="I129" s="7">
         <v>1E-22</v>
       </c>
-      <c r="I129" s="6">
-        <v>1</v>
-      </c>
-      <c r="J129" s="6" t="s">
+      <c r="J129" s="6">
+        <v>1</v>
+      </c>
+      <c r="K129" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="130" spans="1:10" s="6" customFormat="1">
+    <row r="130" spans="1:11" s="6" customFormat="1">
       <c r="A130" s="6" t="s">
         <v>5</v>
       </c>
@@ -6509,26 +6626,26 @@
       <c r="C130" s="6">
         <v>5</v>
       </c>
-      <c r="E130" s="6" t="s">
+      <c r="F130" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F130" s="6" t="s">
+      <c r="G130" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G130" s="6">
+      <c r="H130" s="6">
         <v>0.12</v>
       </c>
-      <c r="H130" s="7">
+      <c r="I130" s="7">
         <v>2.0000000000000002E-15</v>
       </c>
-      <c r="I130" s="6">
+      <c r="J130" s="6">
         <v>2</v>
       </c>
-      <c r="J130" s="6" t="s">
+      <c r="K130" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="131" spans="1:10" s="6" customFormat="1">
+    <row r="131" spans="1:11" s="6" customFormat="1">
       <c r="A131" s="6" t="s">
         <v>5</v>
       </c>
@@ -6538,26 +6655,26 @@
       <c r="C131" s="6">
         <v>1</v>
       </c>
-      <c r="E131" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="F131" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G131" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="G131" s="6">
+      <c r="H131" s="6">
         <v>0.11</v>
       </c>
-      <c r="H131" s="7">
+      <c r="I131" s="7">
         <v>9.9999999999999998E-13</v>
       </c>
-      <c r="I131" s="6">
-        <v>1</v>
-      </c>
-      <c r="J131" s="6" t="s">
+      <c r="J131" s="6">
+        <v>1</v>
+      </c>
+      <c r="K131" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="132" spans="1:10" s="6" customFormat="1">
+    <row r="132" spans="1:11" s="6" customFormat="1">
       <c r="A132" s="6" t="s">
         <v>5</v>
       </c>
@@ -6567,26 +6684,26 @@
       <c r="C132" s="6">
         <v>1</v>
       </c>
-      <c r="E132" s="6" t="s">
+      <c r="F132" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F132" s="6" t="s">
+      <c r="G132" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G132" s="6">
+      <c r="H132" s="6">
         <v>0.1</v>
       </c>
-      <c r="H132" s="7">
+      <c r="I132" s="7">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="I132" s="6">
-        <v>1</v>
-      </c>
-      <c r="J132" s="6" t="s">
+      <c r="J132" s="6">
+        <v>1</v>
+      </c>
+      <c r="K132" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="133" spans="1:10" s="6" customFormat="1">
+    <row r="133" spans="1:11" s="6" customFormat="1">
       <c r="A133" s="6" t="s">
         <v>5</v>
       </c>
@@ -6596,26 +6713,26 @@
       <c r="C133" s="6">
         <v>7</v>
       </c>
-      <c r="E133" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="F133" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G133" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="G133" s="6">
+      <c r="H133" s="6">
         <v>0.09</v>
       </c>
-      <c r="H133" s="7">
+      <c r="I133" s="7">
         <v>4.9999999999999997E-12</v>
       </c>
-      <c r="I133" s="6">
-        <v>1</v>
-      </c>
-      <c r="J133" s="6" t="s">
+      <c r="J133" s="6">
+        <v>1</v>
+      </c>
+      <c r="K133" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:10" s="6" customFormat="1">
+    <row r="134" spans="1:11" s="6" customFormat="1">
       <c r="A134" s="6" t="s">
         <v>5</v>
       </c>
@@ -6625,26 +6742,26 @@
       <c r="C134" s="6">
         <v>1</v>
       </c>
-      <c r="E134" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="F134" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G134" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G134" s="6">
+      <c r="H134" s="6">
         <v>0.08</v>
       </c>
-      <c r="H134" s="7">
+      <c r="I134" s="7">
         <v>7.0000000000000001E-15</v>
       </c>
-      <c r="I134" s="6">
-        <v>1</v>
-      </c>
-      <c r="J134" s="6" t="s">
+      <c r="J134" s="6">
+        <v>1</v>
+      </c>
+      <c r="K134" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:11">
       <c r="A135" s="6" t="s">
         <v>5</v>
       </c>
@@ -6655,26 +6772,27 @@
         <v>2</v>
       </c>
       <c r="D135" s="6"/>
-      <c r="E135" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E135" s="6"/>
       <c r="F135" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G135" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="G135" s="6">
+      <c r="H135" s="6">
         <v>0.08</v>
       </c>
-      <c r="H135" s="7">
+      <c r="I135" s="7">
         <v>1E-14</v>
       </c>
-      <c r="I135" s="6">
-        <v>1</v>
-      </c>
-      <c r="J135" s="6" t="s">
+      <c r="J135" s="6">
+        <v>1</v>
+      </c>
+      <c r="K135" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:11">
       <c r="A136" s="6" t="s">
         <v>5</v>
       </c>
@@ -6685,26 +6803,27 @@
         <v>1</v>
       </c>
       <c r="D136" s="6"/>
-      <c r="E136" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E136" s="6"/>
       <c r="F136" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G136" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="G136" s="6">
+      <c r="H136" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H136" s="7">
+      <c r="I136" s="7">
         <v>1E-10</v>
       </c>
-      <c r="I136" s="6">
-        <v>1</v>
-      </c>
-      <c r="J136" s="6" t="s">
+      <c r="J136" s="6">
+        <v>1</v>
+      </c>
+      <c r="K136" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:11">
       <c r="A137" s="6" t="s">
         <v>5</v>
       </c>
@@ -6715,26 +6834,27 @@
         <v>4</v>
       </c>
       <c r="D137" s="6"/>
-      <c r="E137" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E137" s="6"/>
       <c r="F137" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G137" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="G137" s="6">
+      <c r="H137" s="6">
         <v>0.06</v>
       </c>
-      <c r="H137" s="7">
+      <c r="I137" s="7">
         <v>2E-12</v>
       </c>
-      <c r="I137" s="6">
+      <c r="J137" s="6">
         <v>2</v>
       </c>
-      <c r="J137" s="6" t="s">
+      <c r="K137" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:11">
       <c r="A138" s="6" t="s">
         <v>5</v>
       </c>
@@ -6745,26 +6865,27 @@
         <v>1</v>
       </c>
       <c r="D138" s="6"/>
-      <c r="E138" s="6" t="s">
+      <c r="E138" s="6"/>
+      <c r="F138" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F138" s="6" t="s">
+      <c r="G138" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="G138" s="6">
+      <c r="H138" s="6">
         <v>0.06</v>
       </c>
-      <c r="H138" s="7">
+      <c r="I138" s="7">
         <v>8.9999999999999999E-10</v>
       </c>
-      <c r="I138" s="6">
-        <v>1</v>
-      </c>
-      <c r="J138" s="6" t="s">
+      <c r="J138" s="6">
+        <v>1</v>
+      </c>
+      <c r="K138" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:11">
       <c r="A139" s="6" t="s">
         <v>5</v>
       </c>
@@ -6775,26 +6896,27 @@
         <v>1</v>
       </c>
       <c r="D139" s="6"/>
-      <c r="E139" s="6" t="s">
+      <c r="E139" s="6"/>
+      <c r="F139" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F139" s="6" t="s">
+      <c r="G139" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="G139" s="6">
+      <c r="H139" s="6">
         <v>0.06</v>
       </c>
-      <c r="H139" s="7">
+      <c r="I139" s="7">
         <v>5.0000000000000003E-10</v>
       </c>
-      <c r="I139" s="6">
+      <c r="J139" s="6">
         <v>2</v>
       </c>
-      <c r="J139" s="6" t="s">
+      <c r="K139" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:11">
       <c r="A140" s="6" t="s">
         <v>5</v>
       </c>
@@ -6805,26 +6927,27 @@
         <v>4</v>
       </c>
       <c r="D140" s="6"/>
-      <c r="E140" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E140" s="6"/>
       <c r="F140" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G140" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G140" s="6">
+      <c r="H140" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H140" s="7">
+      <c r="I140" s="7">
         <v>2.0000000000000001E-10</v>
       </c>
-      <c r="I140" s="6">
-        <v>1</v>
-      </c>
-      <c r="J140" s="6" t="s">
+      <c r="J140" s="6">
+        <v>1</v>
+      </c>
+      <c r="K140" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:11">
       <c r="A141" s="6" t="s">
         <v>5</v>
       </c>
@@ -6835,26 +6958,27 @@
         <v>5</v>
       </c>
       <c r="D141" s="6"/>
-      <c r="E141" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E141" s="6"/>
       <c r="F141" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G141" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="G141" s="6">
+      <c r="H141" s="6">
         <v>0.11</v>
       </c>
-      <c r="H141" s="7">
+      <c r="I141" s="7">
         <v>8.0000000000000003E-10</v>
       </c>
-      <c r="I141" s="6">
+      <c r="J141" s="6">
         <v>2</v>
       </c>
-      <c r="J141" s="6" t="s">
+      <c r="K141" s="6" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:11">
       <c r="A142" s="6" t="s">
         <v>5</v>
       </c>
@@ -6865,26 +6989,27 @@
         <v>1</v>
       </c>
       <c r="D142" s="6"/>
-      <c r="E142" s="6" t="s">
+      <c r="E142" s="6"/>
+      <c r="F142" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="F142" s="6" t="s">
+      <c r="G142" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="G142" s="6">
+      <c r="H142" s="6">
         <v>0.11</v>
       </c>
-      <c r="H142" s="7">
+      <c r="I142" s="7">
         <v>9.9999999999999998E-17</v>
       </c>
-      <c r="I142" s="6">
-        <v>1</v>
-      </c>
-      <c r="J142" s="6" t="s">
+      <c r="J142" s="6">
+        <v>1</v>
+      </c>
+      <c r="K142" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:11">
       <c r="A143" s="2" t="s">
         <v>67</v>
       </c>
@@ -6895,26 +7020,27 @@
         <v>1</v>
       </c>
       <c r="D143" s="2"/>
-      <c r="E143" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="E143" s="2"/>
       <c r="F143" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G143" s="2">
-        <v>1</v>
-      </c>
       <c r="H143" s="2">
+        <v>1</v>
+      </c>
+      <c r="I143" s="2">
         <v>0</v>
       </c>
-      <c r="I143" s="2">
-        <v>1</v>
-      </c>
-      <c r="J143" s="2" t="s">
+      <c r="J143" s="2">
+        <v>1</v>
+      </c>
+      <c r="K143" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:11">
       <c r="A144" s="2" t="s">
         <v>67</v>
       </c>
@@ -6925,26 +7051,27 @@
         <v>1</v>
       </c>
       <c r="D144" s="2"/>
-      <c r="E144" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="E144" s="2"/>
       <c r="F144" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G144" s="2">
-        <v>1</v>
-      </c>
       <c r="H144" s="2">
+        <v>1</v>
+      </c>
+      <c r="I144" s="2">
         <v>0</v>
       </c>
-      <c r="I144" s="2">
-        <v>1</v>
-      </c>
-      <c r="J144" s="2" t="s">
+      <c r="J144" s="2">
+        <v>1</v>
+      </c>
+      <c r="K144" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:11">
       <c r="A145" t="s">
         <v>67</v>
       </c>
@@ -6954,26 +7081,26 @@
       <c r="C145">
         <v>4</v>
       </c>
-      <c r="E145" t="s">
-        <v>18</v>
-      </c>
       <c r="F145" t="s">
+        <v>18</v>
+      </c>
+      <c r="G145" t="s">
         <v>146</v>
       </c>
-      <c r="G145">
+      <c r="H145">
         <v>0.09</v>
       </c>
-      <c r="H145" s="1">
+      <c r="I145" s="1">
         <v>5.0000000000000002E-23</v>
       </c>
-      <c r="I145">
+      <c r="J145">
         <v>0</v>
       </c>
-      <c r="J145" t="s">
+      <c r="K145" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:11">
       <c r="A146" t="s">
         <v>67</v>
       </c>
@@ -6983,26 +7110,26 @@
       <c r="C146">
         <v>4</v>
       </c>
-      <c r="E146" t="s">
-        <v>18</v>
-      </c>
       <c r="F146" t="s">
+        <v>18</v>
+      </c>
+      <c r="G146" t="s">
         <v>486</v>
       </c>
-      <c r="G146">
+      <c r="H146">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H146" s="1">
+      <c r="I146" s="1">
         <v>2E-19</v>
       </c>
-      <c r="I146">
+      <c r="J146">
         <v>0</v>
       </c>
-      <c r="J146" t="s">
+      <c r="K146" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:11">
       <c r="A147" s="6" t="s">
         <v>5</v>
       </c>
@@ -7013,26 +7140,27 @@
         <v>4</v>
       </c>
       <c r="D147" s="6"/>
-      <c r="E147" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E147" s="6"/>
       <c r="F147" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G147" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="G147" s="6">
+      <c r="H147" s="6">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H147" s="7">
+      <c r="I147" s="7">
         <v>1.0000000000000001E-17</v>
       </c>
-      <c r="I147" s="6">
+      <c r="J147" s="6">
         <v>2</v>
       </c>
-      <c r="J147" s="6" t="s">
+      <c r="K147" s="6" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="148" spans="1:10" s="6" customFormat="1">
+    <row r="148" spans="1:11" s="6" customFormat="1">
       <c r="A148" s="6" t="s">
         <v>5</v>
       </c>
@@ -7042,26 +7170,26 @@
       <c r="C148" s="6">
         <v>3</v>
       </c>
-      <c r="E148" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="F148" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G148" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G148" s="6">
+      <c r="H148" s="6">
         <v>0.19</v>
       </c>
-      <c r="H148" s="7">
+      <c r="I148" s="7">
         <v>5.9999999999999997E-18</v>
       </c>
-      <c r="I148" s="6">
-        <v>1</v>
-      </c>
-      <c r="J148" s="6" t="s">
+      <c r="J148" s="6">
+        <v>1</v>
+      </c>
+      <c r="K148" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="149" spans="1:10" s="6" customFormat="1">
+    <row r="149" spans="1:11" s="6" customFormat="1">
       <c r="A149" s="6" t="s">
         <v>5</v>
       </c>
@@ -7071,26 +7199,26 @@
       <c r="C149" s="6">
         <v>2</v>
       </c>
-      <c r="E149" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="F149" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G149" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="G149" s="6">
+      <c r="H149" s="6">
         <v>0.19</v>
       </c>
-      <c r="H149" s="7">
+      <c r="I149" s="7">
         <v>5.0000000000000004E-16</v>
       </c>
-      <c r="I149" s="6">
-        <v>1</v>
-      </c>
-      <c r="J149" s="6" t="s">
+      <c r="J149" s="6">
+        <v>1</v>
+      </c>
+      <c r="K149" s="6" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="150" spans="1:10" s="6" customFormat="1">
+    <row r="150" spans="1:11" s="6" customFormat="1">
       <c r="A150" s="6" t="s">
         <v>5</v>
       </c>
@@ -7100,26 +7228,26 @@
       <c r="C150" s="6">
         <v>1</v>
       </c>
-      <c r="E150" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="F150" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G150" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G150" s="6">
+      <c r="H150" s="6">
         <v>0.2</v>
       </c>
-      <c r="H150" s="7">
+      <c r="I150" s="7">
         <v>4.0000000000000003E-17</v>
       </c>
-      <c r="I150" s="6">
-        <v>1</v>
-      </c>
-      <c r="J150" s="6" t="s">
+      <c r="J150" s="6">
+        <v>1</v>
+      </c>
+      <c r="K150" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:10" s="6" customFormat="1">
+    <row r="151" spans="1:11" s="6" customFormat="1">
       <c r="A151" s="6" t="s">
         <v>5</v>
       </c>
@@ -7129,26 +7257,26 @@
       <c r="C151" s="6">
         <v>2</v>
       </c>
-      <c r="E151" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="F151" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G151" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G151" s="6">
+      <c r="H151" s="6">
         <v>0.19</v>
       </c>
-      <c r="H151" s="7">
+      <c r="I151" s="7">
         <v>2.9999999999999998E-18</v>
       </c>
-      <c r="I151" s="6">
-        <v>1</v>
-      </c>
-      <c r="J151" s="6" t="s">
+      <c r="J151" s="6">
+        <v>1</v>
+      </c>
+      <c r="K151" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:10" s="6" customFormat="1">
+    <row r="152" spans="1:11" s="6" customFormat="1">
       <c r="A152" s="6" t="s">
         <v>5</v>
       </c>
@@ -7158,26 +7286,26 @@
       <c r="C152" s="6">
         <v>1</v>
       </c>
-      <c r="E152" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="F152" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G152" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="G152" s="6">
+      <c r="H152" s="6">
         <v>0.12</v>
       </c>
-      <c r="H152" s="7">
+      <c r="I152" s="7">
         <v>1E-14</v>
       </c>
-      <c r="I152" s="6">
-        <v>1</v>
-      </c>
-      <c r="J152" s="6" t="s">
+      <c r="J152" s="6">
+        <v>1</v>
+      </c>
+      <c r="K152" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:10" s="6" customFormat="1">
+    <row r="153" spans="1:11" s="6" customFormat="1">
       <c r="A153" s="6" t="s">
         <v>5</v>
       </c>
@@ -7187,26 +7315,26 @@
       <c r="C153" s="6">
         <v>1</v>
       </c>
-      <c r="E153" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="F153" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G153" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="G153" s="6">
+      <c r="H153" s="6">
         <v>0.11</v>
       </c>
-      <c r="H153" s="7">
+      <c r="I153" s="7">
         <v>6E-10</v>
       </c>
-      <c r="I153" s="6">
-        <v>1</v>
-      </c>
-      <c r="J153" s="6" t="s">
+      <c r="J153" s="6">
+        <v>1</v>
+      </c>
+      <c r="K153" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:10" s="6" customFormat="1">
+    <row r="154" spans="1:11" s="6" customFormat="1">
       <c r="A154" s="6" t="s">
         <v>5</v>
       </c>
@@ -7216,26 +7344,26 @@
       <c r="C154" s="6">
         <v>1</v>
       </c>
-      <c r="E154" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="F154" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G154" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="G154" s="6">
+      <c r="H154" s="6">
         <v>0.09</v>
       </c>
-      <c r="H154" s="7">
+      <c r="I154" s="7">
         <v>7.9999999999999998E-12</v>
       </c>
-      <c r="I154" s="6">
-        <v>1</v>
-      </c>
-      <c r="J154" s="6" t="s">
+      <c r="J154" s="6">
+        <v>1</v>
+      </c>
+      <c r="K154" s="6" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="155" spans="1:10" s="6" customFormat="1">
+    <row r="155" spans="1:11" s="6" customFormat="1">
       <c r="A155" s="6" t="s">
         <v>5</v>
       </c>
@@ -7245,26 +7373,26 @@
       <c r="C155" s="6">
         <v>1</v>
       </c>
-      <c r="E155" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="F155" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G155" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G155" s="6">
+      <c r="H155" s="6">
         <v>0.21</v>
       </c>
-      <c r="H155" s="7">
+      <c r="I155" s="7">
         <v>3.9999999999999999E-16</v>
       </c>
-      <c r="I155" s="6">
-        <v>1</v>
-      </c>
-      <c r="J155" s="6" t="s">
+      <c r="J155" s="6">
+        <v>1</v>
+      </c>
+      <c r="K155" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:11">
       <c r="A156" s="6" t="s">
         <v>5</v>
       </c>
@@ -7275,26 +7403,27 @@
         <v>1</v>
       </c>
       <c r="D156" s="6"/>
-      <c r="E156" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E156" s="6"/>
       <c r="F156" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G156" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G156" s="6">
+      <c r="H156" s="6">
         <v>0.2</v>
       </c>
-      <c r="H156" s="7">
+      <c r="I156" s="7">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="I156" s="6">
-        <v>1</v>
-      </c>
-      <c r="J156" s="6" t="s">
+      <c r="J156" s="6">
+        <v>1</v>
+      </c>
+      <c r="K156" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:11">
       <c r="A157" s="6" t="s">
         <v>5</v>
       </c>
@@ -7305,26 +7434,27 @@
         <v>1</v>
       </c>
       <c r="D157" s="6"/>
-      <c r="E157" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E157" s="6"/>
       <c r="F157" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G157" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G157" s="6">
+      <c r="H157" s="6">
         <v>0.2</v>
       </c>
-      <c r="H157" s="7">
+      <c r="I157" s="7">
         <v>3E-9</v>
       </c>
-      <c r="I157" s="6">
-        <v>1</v>
-      </c>
-      <c r="J157" s="6" t="s">
+      <c r="J157" s="6">
+        <v>1</v>
+      </c>
+      <c r="K157" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="158" spans="1:10" s="6" customFormat="1">
+    <row r="158" spans="1:11" s="6" customFormat="1">
       <c r="A158" s="6" t="s">
         <v>5</v>
       </c>
@@ -7334,26 +7464,26 @@
       <c r="C158" s="6">
         <v>1</v>
       </c>
-      <c r="E158" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="F158" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G158" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="G158" s="6">
+      <c r="H158" s="6">
         <v>0.2</v>
       </c>
-      <c r="H158" s="7">
+      <c r="I158" s="7">
         <v>6E-9</v>
       </c>
-      <c r="I158" s="6">
-        <v>1</v>
-      </c>
-      <c r="J158" s="6" t="s">
+      <c r="J158" s="6">
+        <v>1</v>
+      </c>
+      <c r="K158" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="159" spans="1:10" s="6" customFormat="1">
+    <row r="159" spans="1:11" s="6" customFormat="1">
       <c r="A159" s="6" t="s">
         <v>5</v>
       </c>
@@ -7363,26 +7493,26 @@
       <c r="C159" s="6">
         <v>1</v>
       </c>
-      <c r="E159" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="F159" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G159" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="G159" s="6">
+      <c r="H159" s="6">
         <v>0.2</v>
       </c>
-      <c r="H159" s="7">
+      <c r="I159" s="7">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="I159" s="6">
-        <v>1</v>
-      </c>
-      <c r="J159" s="6" t="s">
+      <c r="J159" s="6">
+        <v>1</v>
+      </c>
+      <c r="K159" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="160" spans="1:10" s="6" customFormat="1">
+    <row r="160" spans="1:11" s="6" customFormat="1">
       <c r="A160" s="6" t="s">
         <v>5</v>
       </c>
@@ -7392,26 +7522,26 @@
       <c r="C160" s="6">
         <v>1</v>
       </c>
-      <c r="E160" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="F160" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G160" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="G160" s="6">
+      <c r="H160" s="6">
         <v>0.19</v>
       </c>
-      <c r="H160" s="7">
+      <c r="I160" s="7">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="I160" s="6">
-        <v>1</v>
-      </c>
-      <c r="J160" s="6" t="s">
+      <c r="J160" s="6">
+        <v>1</v>
+      </c>
+      <c r="K160" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="161" spans="1:10" s="6" customFormat="1">
+    <row r="161" spans="1:11" s="6" customFormat="1">
       <c r="A161" s="6" t="s">
         <v>5</v>
       </c>
@@ -7421,26 +7551,26 @@
       <c r="C161" s="6">
         <v>1</v>
       </c>
-      <c r="E161" s="6" t="s">
+      <c r="F161" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F161" s="6" t="s">
+      <c r="G161" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="G161" s="6">
+      <c r="H161" s="6">
         <v>0.12</v>
       </c>
-      <c r="H161" s="7">
+      <c r="I161" s="7">
         <v>2.9999999999999998E-13</v>
       </c>
-      <c r="I161" s="6">
-        <v>1</v>
-      </c>
-      <c r="J161" s="6" t="s">
+      <c r="J161" s="6">
+        <v>1</v>
+      </c>
+      <c r="K161" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:11">
       <c r="A162" s="6" t="s">
         <v>5</v>
       </c>
@@ -7451,26 +7581,27 @@
         <v>1</v>
       </c>
       <c r="D162" s="6"/>
-      <c r="E162" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E162" s="6"/>
       <c r="F162" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G162" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="G162" s="6">
+      <c r="H162" s="6">
         <v>0.12</v>
       </c>
-      <c r="H162" s="7">
+      <c r="I162" s="7">
         <v>5.0000000000000001E-9</v>
       </c>
-      <c r="I162" s="6">
-        <v>1</v>
-      </c>
-      <c r="J162" s="6" t="s">
+      <c r="J162" s="6">
+        <v>1</v>
+      </c>
+      <c r="K162" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:11">
       <c r="A163" s="6" t="s">
         <v>5</v>
       </c>
@@ -7481,26 +7612,27 @@
         <v>1</v>
       </c>
       <c r="D163" s="6"/>
-      <c r="E163" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E163" s="6"/>
       <c r="F163" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G163" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G163" s="6">
+      <c r="H163" s="6">
         <v>0.11</v>
       </c>
-      <c r="H163" s="7">
+      <c r="I163" s="7">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="I163" s="6">
-        <v>1</v>
-      </c>
-      <c r="J163" s="6" t="s">
+      <c r="J163" s="6">
+        <v>1</v>
+      </c>
+      <c r="K163" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:11">
       <c r="A164" s="6" t="s">
         <v>5</v>
       </c>
@@ -7511,26 +7643,27 @@
         <v>1</v>
       </c>
       <c r="D164" s="6"/>
-      <c r="E164" s="6" t="s">
+      <c r="E164" s="6"/>
+      <c r="F164" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F164" s="6" t="s">
+      <c r="G164" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G164" s="6">
+      <c r="H164" s="6">
         <v>0.11</v>
       </c>
-      <c r="H164" s="7">
+      <c r="I164" s="7">
         <v>6.0000000000000003E-12</v>
       </c>
-      <c r="I164" s="6">
-        <v>1</v>
-      </c>
-      <c r="J164" s="6" t="s">
+      <c r="J164" s="6">
+        <v>1</v>
+      </c>
+      <c r="K164" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:11">
       <c r="A165" s="6" t="s">
         <v>5</v>
       </c>
@@ -7541,26 +7674,27 @@
         <v>1</v>
       </c>
       <c r="D165" s="6"/>
-      <c r="E165" s="6" t="s">
+      <c r="E165" s="6"/>
+      <c r="F165" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F165" s="6" t="s">
+      <c r="G165" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="G165" s="6">
+      <c r="H165" s="6">
         <v>0.11</v>
       </c>
-      <c r="H165" s="7">
+      <c r="I165" s="7">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="I165" s="6">
-        <v>1</v>
-      </c>
-      <c r="J165" s="6" t="s">
+      <c r="J165" s="6">
+        <v>1</v>
+      </c>
+      <c r="K165" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:11">
       <c r="A166" s="6" t="s">
         <v>5</v>
       </c>
@@ -7571,26 +7705,27 @@
         <v>1</v>
       </c>
       <c r="D166" s="6"/>
-      <c r="E166" s="6" t="s">
+      <c r="E166" s="6"/>
+      <c r="F166" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F166" s="6" t="s">
+      <c r="G166" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="G166" s="6">
+      <c r="H166" s="6">
         <v>0.11</v>
       </c>
-      <c r="H166" s="7">
+      <c r="I166" s="7">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="I166" s="6">
-        <v>1</v>
-      </c>
-      <c r="J166" s="6" t="s">
+      <c r="J166" s="6">
+        <v>1</v>
+      </c>
+      <c r="K166" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:11">
       <c r="A167" s="6" t="s">
         <v>5</v>
       </c>
@@ -7601,26 +7736,27 @@
         <v>1</v>
       </c>
       <c r="D167" s="6"/>
-      <c r="E167" s="6" t="s">
+      <c r="E167" s="6"/>
+      <c r="F167" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F167" s="6" t="s">
+      <c r="G167" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="G167" s="6">
+      <c r="H167" s="6">
         <v>0.11</v>
       </c>
-      <c r="H167" s="7">
+      <c r="I167" s="7">
         <v>2E-12</v>
       </c>
-      <c r="I167" s="6">
-        <v>1</v>
-      </c>
-      <c r="J167" s="6" t="s">
+      <c r="J167" s="6">
+        <v>1</v>
+      </c>
+      <c r="K167" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:11">
       <c r="A168" s="6" t="s">
         <v>5</v>
       </c>
@@ -7631,26 +7767,27 @@
         <v>1</v>
       </c>
       <c r="D168" s="6"/>
-      <c r="E168" s="6" t="s">
+      <c r="E168" s="6"/>
+      <c r="F168" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F168" s="6" t="s">
+      <c r="G168" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="G168" s="6">
+      <c r="H168" s="6">
         <v>0.11</v>
       </c>
-      <c r="H168" s="7">
+      <c r="I168" s="7">
         <v>2E-12</v>
       </c>
-      <c r="I168" s="6">
-        <v>1</v>
-      </c>
-      <c r="J168" s="6" t="s">
+      <c r="J168" s="6">
+        <v>1</v>
+      </c>
+      <c r="K168" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:11">
       <c r="A169" s="6" t="s">
         <v>5</v>
       </c>
@@ -7661,26 +7798,27 @@
         <v>1</v>
       </c>
       <c r="D169" s="6"/>
-      <c r="E169" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E169" s="6"/>
       <c r="F169" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G169" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="G169" s="6">
+      <c r="H169" s="6">
         <v>0.1</v>
       </c>
-      <c r="H169" s="7">
+      <c r="I169" s="7">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="I169" s="6">
-        <v>1</v>
-      </c>
-      <c r="J169" s="6" t="s">
+      <c r="J169" s="6">
+        <v>1</v>
+      </c>
+      <c r="K169" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:11">
       <c r="A170" s="6" t="s">
         <v>5</v>
       </c>
@@ -7691,26 +7829,27 @@
         <v>1</v>
       </c>
       <c r="D170" s="6"/>
-      <c r="E170" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E170" s="6"/>
       <c r="F170" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G170" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="G170" s="6">
+      <c r="H170" s="6">
         <v>0.09</v>
       </c>
-      <c r="H170" s="7">
+      <c r="I170" s="7">
         <v>4.0000000000000002E-9</v>
       </c>
-      <c r="I170" s="6">
-        <v>1</v>
-      </c>
-      <c r="J170" s="6" t="s">
+      <c r="J170" s="6">
+        <v>1</v>
+      </c>
+      <c r="K170" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:11">
       <c r="A171" s="6" t="s">
         <v>5</v>
       </c>
@@ -7721,26 +7860,27 @@
         <v>1</v>
       </c>
       <c r="D171" s="6"/>
-      <c r="E171" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E171" s="6"/>
       <c r="F171" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G171" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="G171" s="6">
+      <c r="H171" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H171" s="7">
+      <c r="I171" s="7">
         <v>3.9999999999999999E-12</v>
       </c>
-      <c r="I171" s="6">
-        <v>1</v>
-      </c>
-      <c r="J171" s="6" t="s">
+      <c r="J171" s="6">
+        <v>1</v>
+      </c>
+      <c r="K171" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="172" spans="1:10" s="6" customFormat="1">
+    <row r="172" spans="1:11" s="6" customFormat="1">
       <c r="A172" s="6" t="s">
         <v>0</v>
       </c>
@@ -7750,26 +7890,26 @@
       <c r="C172" s="6">
         <v>1</v>
       </c>
-      <c r="E172" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="F172" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G172" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="G172" s="6">
+      <c r="H172" s="6">
         <v>0.23</v>
       </c>
-      <c r="H172" s="7">
+      <c r="I172" s="7">
         <v>7.9999999999999997E-72</v>
       </c>
-      <c r="I172" s="6">
-        <v>1</v>
-      </c>
-      <c r="J172" s="6" t="s">
+      <c r="J172" s="6">
+        <v>1</v>
+      </c>
+      <c r="K172" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="173" spans="1:10" s="6" customFormat="1">
+    <row r="173" spans="1:11" s="6" customFormat="1">
       <c r="A173" s="6" t="s">
         <v>0</v>
       </c>
@@ -7779,26 +7919,26 @@
       <c r="C173" s="6">
         <v>1</v>
       </c>
-      <c r="E173" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="F173" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G173" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="G173" s="6">
+      <c r="H173" s="6">
         <v>0.23</v>
       </c>
-      <c r="H173" s="7">
+      <c r="I173" s="7">
         <v>6.0000000000000003E-72</v>
       </c>
-      <c r="I173" s="6">
-        <v>1</v>
-      </c>
-      <c r="J173" s="6" t="s">
+      <c r="J173" s="6">
+        <v>1</v>
+      </c>
+      <c r="K173" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:11">
       <c r="A174" s="6" t="s">
         <v>5</v>
       </c>
@@ -7809,26 +7949,27 @@
         <v>1</v>
       </c>
       <c r="D174" s="6"/>
-      <c r="E174" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E174" s="6"/>
       <c r="F174" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G174" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="G174" s="6">
+      <c r="H174" s="6">
         <v>0.23</v>
       </c>
-      <c r="H174" s="7">
+      <c r="I174" s="7">
         <v>1E-27</v>
       </c>
-      <c r="I174" s="6">
+      <c r="J174" s="6">
         <v>2</v>
       </c>
-      <c r="J174" s="6" t="s">
+      <c r="K174" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:11">
       <c r="A175" s="6" t="s">
         <v>5</v>
       </c>
@@ -7839,26 +7980,27 @@
         <v>1</v>
       </c>
       <c r="D175" s="6"/>
-      <c r="E175" s="6" t="s">
+      <c r="E175" s="6"/>
+      <c r="F175" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="F175" s="6" t="s">
+      <c r="G175" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="G175" s="6">
+      <c r="H175" s="6">
         <v>0.23</v>
       </c>
-      <c r="H175" s="7">
+      <c r="I175" s="7">
         <v>2.0000000000000001E-13</v>
       </c>
-      <c r="I175" s="6">
+      <c r="J175" s="6">
         <v>2</v>
       </c>
-      <c r="J175" s="6" t="s">
+      <c r="K175" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:11">
       <c r="A176" s="6" t="s">
         <v>5</v>
       </c>
@@ -7869,26 +8011,27 @@
         <v>1</v>
       </c>
       <c r="D176" s="6"/>
-      <c r="E176" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E176" s="6"/>
       <c r="F176" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G176" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G176" s="6">
+      <c r="H176" s="6">
         <v>0.22</v>
       </c>
-      <c r="H176" s="7">
+      <c r="I176" s="7">
         <v>5.0000000000000002E-27</v>
       </c>
-      <c r="I176" s="6">
+      <c r="J176" s="6">
         <v>2</v>
       </c>
-      <c r="J176" s="6" t="s">
+      <c r="K176" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:11">
       <c r="A177" s="6" t="s">
         <v>5</v>
       </c>
@@ -7899,26 +8042,27 @@
         <v>1</v>
       </c>
       <c r="D177" s="6"/>
-      <c r="E177" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E177" s="6"/>
       <c r="F177" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G177" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G177" s="6">
+      <c r="H177" s="6">
         <v>0.21</v>
       </c>
-      <c r="H177" s="7">
+      <c r="I177" s="7">
         <v>8.9999999999999995E-15</v>
       </c>
-      <c r="I177" s="6">
+      <c r="J177" s="6">
         <v>2</v>
       </c>
-      <c r="J177" s="6" t="s">
+      <c r="K177" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:11">
       <c r="A178" s="6" t="s">
         <v>5</v>
       </c>
@@ -7929,26 +8073,27 @@
         <v>1</v>
       </c>
       <c r="D178" s="6"/>
-      <c r="E178" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E178" s="6"/>
       <c r="F178" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G178" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="G178" s="6">
+      <c r="H178" s="6">
         <v>0.21</v>
       </c>
-      <c r="H178" s="7">
+      <c r="I178" s="7">
         <v>2.9999999999999998E-14</v>
       </c>
-      <c r="I178" s="6">
-        <v>1</v>
-      </c>
-      <c r="J178" s="6" t="s">
+      <c r="J178" s="6">
+        <v>1</v>
+      </c>
+      <c r="K178" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:11">
       <c r="A179" s="6" t="s">
         <v>5</v>
       </c>
@@ -7959,26 +8104,27 @@
         <v>1</v>
       </c>
       <c r="D179" s="6"/>
-      <c r="E179" s="6" t="s">
+      <c r="E179" s="6"/>
+      <c r="F179" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F179" s="6" t="s">
+      <c r="G179" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G179" s="6">
+      <c r="H179" s="6">
         <v>0.18</v>
       </c>
-      <c r="H179" s="7">
+      <c r="I179" s="7">
         <v>8E-14</v>
       </c>
-      <c r="I179" s="6">
-        <v>1</v>
-      </c>
-      <c r="J179" s="6" t="s">
+      <c r="J179" s="6">
+        <v>1</v>
+      </c>
+      <c r="K179" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:11">
       <c r="A180" s="6" t="s">
         <v>5</v>
       </c>
@@ -7989,26 +8135,27 @@
         <v>1</v>
       </c>
       <c r="D180" s="6"/>
-      <c r="E180" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E180" s="6"/>
       <c r="F180" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G180" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="G180" s="6">
+      <c r="H180" s="6">
         <v>0.18</v>
       </c>
-      <c r="H180" s="7">
+      <c r="I180" s="7">
         <v>7.9999999999999998E-19</v>
       </c>
-      <c r="I180" s="6">
-        <v>1</v>
-      </c>
-      <c r="J180" s="6" t="s">
+      <c r="J180" s="6">
+        <v>1</v>
+      </c>
+      <c r="K180" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:11">
       <c r="A181" s="6" t="s">
         <v>5</v>
       </c>
@@ -8019,26 +8166,27 @@
         <v>1</v>
       </c>
       <c r="D181" s="6"/>
-      <c r="E181" s="6" t="s">
+      <c r="E181" s="6"/>
+      <c r="F181" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="F181" s="6" t="s">
+      <c r="G181" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="G181" s="6">
+      <c r="H181" s="6">
         <v>0.13</v>
       </c>
-      <c r="H181" s="7">
+      <c r="I181" s="7">
         <v>2.0000000000000001E-10</v>
       </c>
-      <c r="I181" s="6">
+      <c r="J181" s="6">
         <v>2</v>
       </c>
-      <c r="J181" s="6" t="s">
+      <c r="K181" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:11">
       <c r="A182" s="6" t="s">
         <v>5</v>
       </c>
@@ -8049,26 +8197,27 @@
         <v>2</v>
       </c>
       <c r="D182" s="6"/>
-      <c r="E182" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E182" s="6"/>
       <c r="F182" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G182" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="G182" s="6">
+      <c r="H182" s="6">
         <v>0.13</v>
       </c>
-      <c r="H182" s="7">
+      <c r="I182" s="7">
         <v>7.0000000000000001E-12</v>
       </c>
-      <c r="I182" s="6">
-        <v>1</v>
-      </c>
-      <c r="J182" s="6" t="s">
+      <c r="J182" s="6">
+        <v>1</v>
+      </c>
+      <c r="K182" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:11">
       <c r="A183" s="6" t="s">
         <v>5</v>
       </c>
@@ -8079,26 +8228,27 @@
         <v>1</v>
       </c>
       <c r="D183" s="6"/>
-      <c r="E183" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E183" s="6"/>
       <c r="F183" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G183" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G183" s="6">
+      <c r="H183" s="6">
         <v>0.12</v>
       </c>
-      <c r="H183" s="7">
+      <c r="I183" s="7">
         <v>6.9999999999999996E-10</v>
       </c>
-      <c r="I183" s="6">
-        <v>1</v>
-      </c>
-      <c r="J183" s="6" t="s">
+      <c r="J183" s="6">
+        <v>1</v>
+      </c>
+      <c r="K183" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:11">
       <c r="A184" s="6" t="s">
         <v>5</v>
       </c>
@@ -8109,26 +8259,27 @@
         <v>1</v>
       </c>
       <c r="D184" s="6"/>
-      <c r="E184" s="6" t="s">
+      <c r="E184" s="6"/>
+      <c r="F184" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F184" s="6" t="s">
+      <c r="G184" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="G184" s="6">
+      <c r="H184" s="6">
         <v>0.08</v>
       </c>
-      <c r="H184" s="7">
+      <c r="I184" s="7">
         <v>8.9999999999999999E-11</v>
       </c>
-      <c r="I184" s="6">
-        <v>1</v>
-      </c>
-      <c r="J184" s="6" t="s">
+      <c r="J184" s="6">
+        <v>1</v>
+      </c>
+      <c r="K184" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:11">
       <c r="A185" s="6" t="s">
         <v>5</v>
       </c>
@@ -8139,26 +8290,27 @@
         <v>1</v>
       </c>
       <c r="D185" s="6"/>
-      <c r="E185" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E185" s="6"/>
       <c r="F185" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G185" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="G185" s="6">
+      <c r="H185" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H185" s="7">
+      <c r="I185" s="7">
         <v>3.0000000000000001E-12</v>
       </c>
-      <c r="I185" s="6">
-        <v>1</v>
-      </c>
-      <c r="J185" s="6" t="s">
+      <c r="J185" s="6">
+        <v>1</v>
+      </c>
+      <c r="K185" s="6" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:11">
       <c r="A186" s="6" t="s">
         <v>5</v>
       </c>
@@ -8169,26 +8321,27 @@
         <v>1</v>
       </c>
       <c r="D186" s="6"/>
-      <c r="E186" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E186" s="6"/>
       <c r="F186" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G186" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="G186" s="6">
+      <c r="H186" s="6">
         <v>0.05</v>
       </c>
-      <c r="H186" s="7">
+      <c r="I186" s="7">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="I186" s="6">
-        <v>1</v>
-      </c>
-      <c r="J186" s="6" t="s">
+      <c r="J186" s="6">
+        <v>1</v>
+      </c>
+      <c r="K186" s="6" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:11">
       <c r="A187" s="6" t="s">
         <v>5</v>
       </c>
@@ -8199,26 +8352,27 @@
         <v>1</v>
       </c>
       <c r="D187" s="6"/>
-      <c r="E187" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E187" s="6"/>
       <c r="F187" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G187" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="G187" s="6">
+      <c r="H187" s="6">
         <v>0.2</v>
       </c>
-      <c r="H187" s="7">
+      <c r="I187" s="7">
         <v>2.9999999999999998E-25</v>
       </c>
-      <c r="I187" s="6">
+      <c r="J187" s="6">
         <v>2</v>
       </c>
-      <c r="J187" s="6" t="s">
+      <c r="K187" s="6" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:11">
       <c r="A188" s="6" t="s">
         <v>5</v>
       </c>
@@ -8229,26 +8383,27 @@
         <v>1</v>
       </c>
       <c r="D188" s="6"/>
-      <c r="E188" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E188" s="6"/>
       <c r="F188" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G188" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G188" s="6">
+      <c r="H188" s="6">
         <v>0.15</v>
       </c>
-      <c r="H188" s="7">
+      <c r="I188" s="7">
         <v>8.0000000000000006E-15</v>
       </c>
-      <c r="I188" s="6">
-        <v>1</v>
-      </c>
-      <c r="J188" s="6" t="s">
+      <c r="J188" s="6">
+        <v>1</v>
+      </c>
+      <c r="K188" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:11">
       <c r="A189" s="6" t="s">
         <v>5</v>
       </c>
@@ -8259,26 +8414,27 @@
         <v>1</v>
       </c>
       <c r="D189" s="6"/>
-      <c r="E189" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E189" s="6"/>
       <c r="F189" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G189" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="G189" s="6">
+      <c r="H189" s="6">
         <v>0.1</v>
       </c>
-      <c r="H189" s="7">
+      <c r="I189" s="7">
         <v>5.0000000000000003E-10</v>
       </c>
-      <c r="I189" s="6">
-        <v>1</v>
-      </c>
-      <c r="J189" s="6" t="s">
+      <c r="J189" s="6">
+        <v>1</v>
+      </c>
+      <c r="K189" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:11">
       <c r="A190" s="6" t="s">
         <v>5</v>
       </c>
@@ -8289,26 +8445,27 @@
         <v>1</v>
       </c>
       <c r="D190" s="6"/>
-      <c r="E190" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E190" s="6"/>
       <c r="F190" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G190" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="G190" s="6">
+      <c r="H190" s="6">
         <v>0.1</v>
       </c>
-      <c r="H190" s="7">
+      <c r="I190" s="7">
         <v>1E-10</v>
       </c>
-      <c r="I190" s="6">
+      <c r="J190" s="6">
         <v>2</v>
       </c>
-      <c r="J190" s="6" t="s">
+      <c r="K190" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:11">
       <c r="A191" s="6" t="s">
         <v>5</v>
       </c>
@@ -8319,26 +8476,27 @@
         <v>1</v>
       </c>
       <c r="D191" s="6"/>
-      <c r="E191" s="6" t="s">
+      <c r="E191" s="6"/>
+      <c r="F191" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F191" s="6" t="s">
+      <c r="G191" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="G191" s="6">
+      <c r="H191" s="6">
         <v>0.08</v>
       </c>
-      <c r="H191" s="7">
+      <c r="I191" s="7">
         <v>2.0000000000000002E-15</v>
       </c>
-      <c r="I191" s="6">
+      <c r="J191" s="6">
         <v>2</v>
       </c>
-      <c r="J191" s="6" t="s">
+      <c r="K191" s="6" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:11">
       <c r="A192" s="6" t="s">
         <v>5</v>
       </c>
@@ -8349,26 +8507,27 @@
         <v>1</v>
       </c>
       <c r="D192" s="6"/>
-      <c r="E192" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E192" s="6"/>
       <c r="F192" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G192" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G192" s="6">
+      <c r="H192" s="6">
         <v>0.19</v>
       </c>
-      <c r="H192" s="7">
+      <c r="I192" s="7">
         <v>7.9999999999999998E-48</v>
       </c>
-      <c r="I192" s="6">
+      <c r="J192" s="6">
         <v>2</v>
       </c>
-      <c r="J192" s="6" t="s">
+      <c r="K192" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:11">
       <c r="A193" s="6" t="s">
         <v>5</v>
       </c>
@@ -8379,26 +8538,27 @@
         <v>1</v>
       </c>
       <c r="D193" s="6"/>
-      <c r="E193" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E193" s="6"/>
       <c r="F193" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G193" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="G193" s="6">
+      <c r="H193" s="6">
         <v>0.19</v>
       </c>
-      <c r="H193" s="7">
+      <c r="I193" s="7">
         <v>4.0000000000000001E-13</v>
       </c>
-      <c r="I193" s="6">
+      <c r="J193" s="6">
         <v>2</v>
       </c>
-      <c r="J193" s="6" t="s">
+      <c r="K193" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:11">
       <c r="A194" s="6" t="s">
         <v>5</v>
       </c>
@@ -8409,26 +8569,27 @@
         <v>1</v>
       </c>
       <c r="D194" s="6"/>
-      <c r="E194" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E194" s="6"/>
       <c r="F194" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G194" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="G194" s="6">
+      <c r="H194" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H194" s="7">
+      <c r="I194" s="7">
         <v>2.0000000000000001E-17</v>
       </c>
-      <c r="I194" s="6">
+      <c r="J194" s="6">
         <v>2</v>
       </c>
-      <c r="J194" s="6" t="s">
+      <c r="K194" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:11">
       <c r="A195" s="6" t="s">
         <v>5</v>
       </c>
@@ -8439,26 +8600,27 @@
         <v>1</v>
       </c>
       <c r="D195" s="6"/>
-      <c r="E195" s="6" t="s">
+      <c r="E195" s="6"/>
+      <c r="F195" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F195" s="6" t="s">
+      <c r="G195" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G195" s="6">
+      <c r="H195" s="6">
         <v>0.22</v>
       </c>
-      <c r="H195" s="7">
+      <c r="I195" s="7">
         <v>4.9999999999999999E-17</v>
       </c>
-      <c r="I195" s="6">
-        <v>1</v>
-      </c>
-      <c r="J195" s="6" t="s">
+      <c r="J195" s="6">
+        <v>1</v>
+      </c>
+      <c r="K195" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:11">
       <c r="A196" s="6" t="s">
         <v>5</v>
       </c>
@@ -8469,26 +8631,27 @@
         <v>1</v>
       </c>
       <c r="D196" s="6"/>
-      <c r="E196" s="6" t="s">
+      <c r="E196" s="6"/>
+      <c r="F196" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F196" s="6" t="s">
+      <c r="G196" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G196" s="6">
+      <c r="H196" s="6">
         <v>0.22</v>
       </c>
-      <c r="H196" s="7">
+      <c r="I196" s="7">
         <v>4.0000000000000003E-17</v>
       </c>
-      <c r="I196" s="6">
-        <v>1</v>
-      </c>
-      <c r="J196" s="6" t="s">
+      <c r="J196" s="6">
+        <v>1</v>
+      </c>
+      <c r="K196" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:11">
       <c r="A197" s="6" t="s">
         <v>5</v>
       </c>
@@ -8499,26 +8662,27 @@
         <v>1</v>
       </c>
       <c r="D197" s="6"/>
-      <c r="E197" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E197" s="6"/>
       <c r="F197" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G197" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="G197" s="6">
+      <c r="H197" s="6">
         <v>0.09</v>
       </c>
-      <c r="H197" s="7">
+      <c r="I197" s="7">
         <v>3.9999999999999999E-12</v>
       </c>
-      <c r="I197" s="6">
+      <c r="J197" s="6">
         <v>4</v>
       </c>
-      <c r="J197" s="6" t="s">
+      <c r="K197" s="6" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:11">
       <c r="A198" s="6" t="s">
         <v>5</v>
       </c>
@@ -8529,26 +8693,27 @@
         <v>1</v>
       </c>
       <c r="D198" s="6"/>
-      <c r="E198" s="6" t="s">
+      <c r="E198" s="6"/>
+      <c r="F198" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F198" s="6" t="s">
+      <c r="G198" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G198" s="6">
+      <c r="H198" s="6">
         <v>0.12</v>
       </c>
-      <c r="H198" s="7">
+      <c r="I198" s="7">
         <v>1.9999999999999998E-21</v>
       </c>
-      <c r="I198" s="6">
-        <v>1</v>
-      </c>
-      <c r="J198" s="6" t="s">
+      <c r="J198" s="6">
+        <v>1</v>
+      </c>
+      <c r="K198" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:11">
       <c r="A199" s="6" t="s">
         <v>5</v>
       </c>
@@ -8559,26 +8724,27 @@
         <v>1</v>
       </c>
       <c r="D199" s="6"/>
-      <c r="E199" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E199" s="6"/>
       <c r="F199" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G199" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="G199" s="6">
+      <c r="H199" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H199" s="7">
+      <c r="I199" s="7">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="I199" s="6">
-        <v>1</v>
-      </c>
-      <c r="J199" s="6" t="s">
+      <c r="J199" s="6">
+        <v>1</v>
+      </c>
+      <c r="K199" s="6" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:11">
       <c r="A200" s="6" t="s">
         <v>5</v>
       </c>
@@ -8589,26 +8755,27 @@
         <v>1</v>
       </c>
       <c r="D200" s="6"/>
-      <c r="E200" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E200" s="6"/>
       <c r="F200" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G200" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="G200" s="6">
+      <c r="H200" s="6">
         <v>0.09</v>
       </c>
-      <c r="H200" s="7">
+      <c r="I200" s="7">
         <v>5.9999999999999997E-13</v>
       </c>
-      <c r="I200" s="6">
-        <v>1</v>
-      </c>
-      <c r="J200" s="6" t="s">
+      <c r="J200" s="6">
+        <v>1</v>
+      </c>
+      <c r="K200" s="6" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:11">
       <c r="A201" s="6" t="s">
         <v>5</v>
       </c>
@@ -8619,26 +8786,27 @@
         <v>1</v>
       </c>
       <c r="D201" s="6"/>
-      <c r="E201" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E201" s="6"/>
       <c r="F201" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G201" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="G201" s="6">
+      <c r="H201" s="6">
         <v>0.19</v>
       </c>
-      <c r="H201" s="7">
+      <c r="I201" s="7">
         <v>6.9999999999999996E-10</v>
       </c>
-      <c r="I201" s="6">
-        <v>1</v>
-      </c>
-      <c r="J201" s="6" t="s">
+      <c r="J201" s="6">
+        <v>1</v>
+      </c>
+      <c r="K201" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:11">
       <c r="A202" s="6" t="s">
         <v>5</v>
       </c>
@@ -8649,26 +8817,27 @@
         <v>1</v>
       </c>
       <c r="D202" s="6"/>
-      <c r="E202" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E202" s="6"/>
       <c r="F202" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G202" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="G202" s="6">
+      <c r="H202" s="6">
         <v>0.25</v>
       </c>
-      <c r="H202" s="7">
+      <c r="I202" s="7">
         <v>6.0000000000000006E-20</v>
       </c>
-      <c r="I202" s="6">
+      <c r="J202" s="6">
         <v>2</v>
       </c>
-      <c r="J202" s="6" t="s">
+      <c r="K202" s="6" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:11">
       <c r="A203" s="6" t="s">
         <v>5</v>
       </c>
@@ -8679,26 +8848,27 @@
         <v>5</v>
       </c>
       <c r="D203" s="6"/>
-      <c r="E203" s="6" t="s">
+      <c r="E203" s="6"/>
+      <c r="F203" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F203" s="6" t="s">
+      <c r="G203" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="G203" s="6">
+      <c r="H203" s="6">
         <v>0.1</v>
       </c>
-      <c r="H203" s="7">
+      <c r="I203" s="7">
         <v>6E-9</v>
       </c>
-      <c r="I203" s="6">
-        <v>1</v>
-      </c>
-      <c r="J203" s="6" t="s">
+      <c r="J203" s="6">
+        <v>1</v>
+      </c>
+      <c r="K203" s="6" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:11">
       <c r="A204" s="6" t="s">
         <v>5</v>
       </c>
@@ -8709,26 +8879,27 @@
         <v>6</v>
       </c>
       <c r="D204" s="6"/>
-      <c r="E204" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E204" s="6"/>
       <c r="F204" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G204" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="G204" s="6">
+      <c r="H204" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H204" s="7">
+      <c r="I204" s="7">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="I204" s="6">
-        <v>1</v>
-      </c>
-      <c r="J204" s="6" t="s">
+      <c r="J204" s="6">
+        <v>1</v>
+      </c>
+      <c r="K204" s="6" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:11">
       <c r="A205" s="6" t="s">
         <v>5</v>
       </c>
@@ -8739,26 +8910,27 @@
         <v>1</v>
       </c>
       <c r="D205" s="6"/>
-      <c r="E205" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E205" s="6"/>
       <c r="F205" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G205" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="G205" s="6">
+      <c r="H205" s="6">
         <v>0.09</v>
       </c>
-      <c r="H205" s="7">
+      <c r="I205" s="7">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="I205" s="6">
-        <v>1</v>
-      </c>
-      <c r="J205" s="6" t="s">
+      <c r="J205" s="6">
+        <v>1</v>
+      </c>
+      <c r="K205" s="6" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:11">
       <c r="A206" s="6" t="s">
         <v>176</v>
       </c>
@@ -8769,26 +8941,27 @@
         <v>1</v>
       </c>
       <c r="D206" s="6"/>
-      <c r="E206" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E206" s="6"/>
       <c r="F206" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G206" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="G206" s="6">
+      <c r="H206" s="6">
         <v>0.12</v>
       </c>
-      <c r="H206" s="7">
+      <c r="I206" s="7">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="I206" s="6">
-        <v>1</v>
-      </c>
-      <c r="J206" s="6" t="s">
+      <c r="J206" s="6">
+        <v>1</v>
+      </c>
+      <c r="K206" s="6" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:11">
       <c r="A207" s="6" t="s">
         <v>5</v>
       </c>
@@ -8799,26 +8972,27 @@
         <v>1</v>
       </c>
       <c r="D207" s="6"/>
-      <c r="E207" s="6" t="s">
+      <c r="E207" s="6"/>
+      <c r="F207" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F207" s="6" t="s">
+      <c r="G207" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="G207" s="6">
+      <c r="H207" s="6">
         <v>0.23</v>
       </c>
-      <c r="H207" s="7">
+      <c r="I207" s="7">
         <v>4.0000000000000002E-27</v>
       </c>
-      <c r="I207" s="6">
-        <v>1</v>
-      </c>
-      <c r="J207" s="6" t="s">
+      <c r="J207" s="6">
+        <v>1</v>
+      </c>
+      <c r="K207" s="6" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:11">
       <c r="A208" s="6" t="s">
         <v>5</v>
       </c>
@@ -8829,26 +9003,27 @@
         <v>1</v>
       </c>
       <c r="D208" s="6"/>
-      <c r="E208" s="6" t="s">
+      <c r="E208" s="6"/>
+      <c r="F208" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F208" s="6" t="s">
+      <c r="G208" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="G208" s="6">
+      <c r="H208" s="6">
         <v>0.23</v>
       </c>
-      <c r="H208" s="7">
+      <c r="I208" s="7">
         <v>3.0000000000000001E-27</v>
       </c>
-      <c r="I208" s="6">
-        <v>1</v>
-      </c>
-      <c r="J208" s="6" t="s">
+      <c r="J208" s="6">
+        <v>1</v>
+      </c>
+      <c r="K208" s="6" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="209" spans="1:10">
+    <row r="209" spans="1:11">
       <c r="A209" t="s">
         <v>0</v>
       </c>
@@ -8861,26 +9036,26 @@
       <c r="D209" t="s">
         <v>516</v>
       </c>
-      <c r="E209" t="s">
-        <v>18</v>
-      </c>
       <c r="F209" t="s">
+        <v>18</v>
+      </c>
+      <c r="G209" t="s">
         <v>98</v>
       </c>
-      <c r="G209">
+      <c r="H209">
         <v>0.2</v>
       </c>
-      <c r="H209" s="1">
+      <c r="I209" s="1">
         <v>5.0000000000000003E-129</v>
       </c>
-      <c r="I209">
+      <c r="J209">
         <v>2</v>
       </c>
-      <c r="J209" t="s">
+      <c r="K209" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="210" spans="1:10">
+    <row r="210" spans="1:11">
       <c r="A210" t="s">
         <v>0</v>
       </c>
@@ -8893,26 +9068,26 @@
       <c r="D210" t="s">
         <v>516</v>
       </c>
-      <c r="E210" t="s">
-        <v>18</v>
-      </c>
       <c r="F210" t="s">
+        <v>18</v>
+      </c>
+      <c r="G210" t="s">
         <v>261</v>
       </c>
-      <c r="G210">
+      <c r="H210">
         <v>0.09</v>
       </c>
-      <c r="H210" s="1">
+      <c r="I210" s="1">
         <v>2.0000000000000001E-63</v>
       </c>
-      <c r="I210">
+      <c r="J210">
         <v>2</v>
       </c>
-      <c r="J210" t="s">
+      <c r="K210" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="211" spans="1:10">
+    <row r="211" spans="1:11">
       <c r="A211" t="s">
         <v>0</v>
       </c>
@@ -8922,26 +9097,26 @@
       <c r="C211">
         <v>1</v>
       </c>
-      <c r="E211" t="s">
-        <v>18</v>
-      </c>
       <c r="F211" t="s">
+        <v>18</v>
+      </c>
+      <c r="G211" t="s">
         <v>319</v>
       </c>
-      <c r="G211">
+      <c r="H211">
         <v>0.21</v>
       </c>
-      <c r="H211" s="1">
+      <c r="I211" s="1">
         <v>2.0000000000000001E-53</v>
       </c>
-      <c r="I211">
-        <v>1</v>
-      </c>
-      <c r="J211" t="s">
+      <c r="J211">
+        <v>1</v>
+      </c>
+      <c r="K211" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="212" spans="1:10" s="9" customFormat="1">
+    <row r="212" spans="1:11" s="9" customFormat="1">
       <c r="A212" s="9" t="s">
         <v>5</v>
       </c>
@@ -8951,26 +9126,26 @@
       <c r="C212" s="9">
         <v>1</v>
       </c>
-      <c r="E212" s="9" t="s">
+      <c r="F212" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="F212" s="9" t="s">
+      <c r="G212" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="G212" s="9">
+      <c r="H212" s="9">
         <v>0.09</v>
       </c>
-      <c r="H212" s="10">
+      <c r="I212" s="10">
         <v>7.0000000000000001E-12</v>
       </c>
-      <c r="I212" s="9">
-        <v>5</v>
-      </c>
-      <c r="J212" s="9" t="s">
+      <c r="J212" s="9">
+        <v>5</v>
+      </c>
+      <c r="K212" s="9" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" spans="1:11">
       <c r="A214" s="2" t="s">
         <v>176</v>
       </c>
@@ -8982,15 +9157,16 @@
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
-      <c r="H214" s="3"/>
-      <c r="I214" s="2"/>
+      <c r="H214" s="2"/>
+      <c r="I214" s="3"/>
       <c r="J214" s="2"/>
+      <c r="K214" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A11:K64">
-    <sortCondition ref="E11:E64"/>
-    <sortCondition ref="I11:I64"/>
+  <sortState ref="A11:L64">
+    <sortCondition ref="F11:F64"/>
     <sortCondition ref="J11:J64"/>
+    <sortCondition ref="K11:K64"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
